--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9150269763364441</v>
+        <v>0.9150269763364437</v>
       </c>
       <c r="D2">
-        <v>0.9263826797060967</v>
+        <v>0.9263826797060962</v>
       </c>
       <c r="E2">
-        <v>0.9323114996712539</v>
+        <v>0.932311499671253</v>
       </c>
       <c r="F2">
-        <v>0.9382400660246141</v>
+        <v>0.9382400660246136</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031129734273618</v>
+        <v>1.031129734273617</v>
       </c>
       <c r="J2">
-        <v>0.9400845052020922</v>
+        <v>0.9400845052020917</v>
       </c>
       <c r="K2">
-        <v>0.9389727242991105</v>
+        <v>0.9389727242991102</v>
       </c>
       <c r="L2">
-        <v>0.9448019679648484</v>
+        <v>0.9448019679648477</v>
       </c>
       <c r="M2">
-        <v>0.9506325802582362</v>
+        <v>0.9506325802582359</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9381357467800049</v>
+        <v>0.938135746780007</v>
       </c>
       <c r="D3">
-        <v>0.9484284736871966</v>
+        <v>0.9484284736871988</v>
       </c>
       <c r="E3">
-        <v>0.9523859001283063</v>
+        <v>0.9523859001283081</v>
       </c>
       <c r="F3">
-        <v>0.9593375848006822</v>
+        <v>0.9593375848006843</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036187308751822</v>
+        <v>1.036187308751823</v>
       </c>
       <c r="J3">
-        <v>0.9604677734475136</v>
+        <v>0.9604677734475159</v>
       </c>
       <c r="K3">
-        <v>0.9597667085269873</v>
+        <v>0.9597667085269895</v>
       </c>
       <c r="L3">
-        <v>0.9636665801395484</v>
+        <v>0.9636665801395502</v>
       </c>
       <c r="M3">
-        <v>0.970518617252404</v>
+        <v>0.9705186172524058</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9517248020747076</v>
+        <v>0.9517248020747056</v>
       </c>
       <c r="D4">
-        <v>0.9614069806247411</v>
+        <v>0.9614069806247389</v>
       </c>
       <c r="E4">
-        <v>0.9642045176223893</v>
+        <v>0.9642045176223877</v>
       </c>
       <c r="F4">
-        <v>0.9717629585236822</v>
+        <v>0.9717629585236804</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039136406213044</v>
+        <v>1.039136406213043</v>
       </c>
       <c r="J4">
-        <v>0.9724495452197578</v>
+        <v>0.9724495452197557</v>
       </c>
       <c r="K4">
-        <v>0.9719946417910288</v>
+        <v>0.9719946417910267</v>
       </c>
       <c r="L4">
-        <v>0.9747550640756011</v>
+        <v>0.9747550640755994</v>
       </c>
       <c r="M4">
-        <v>0.9822145654965816</v>
+        <v>0.98221456549658</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9571673941150259</v>
+        <v>0.9571673941150305</v>
       </c>
       <c r="D5">
-        <v>0.9666078174214934</v>
+        <v>0.9666078174214975</v>
       </c>
       <c r="E5">
-        <v>0.9689405187081184</v>
+        <v>0.9689405187081221</v>
       </c>
       <c r="F5">
-        <v>0.9767427651896826</v>
+        <v>0.9767427651896866</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040310741486956</v>
+        <v>1.040310741486957</v>
       </c>
       <c r="J5">
-        <v>0.9772467526604268</v>
+        <v>0.9772467526604309</v>
       </c>
       <c r="K5">
-        <v>0.9768914884885542</v>
+        <v>0.9768914884885581</v>
       </c>
       <c r="L5">
-        <v>0.9791944129804385</v>
+        <v>0.9791944129804423</v>
       </c>
       <c r="M5">
-        <v>0.9868983523379889</v>
+        <v>0.9868983523379928</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9580667047130158</v>
+        <v>0.9580667047130115</v>
       </c>
       <c r="D6">
-        <v>0.9674673281451376</v>
+        <v>0.9674673281451336</v>
       </c>
       <c r="E6">
-        <v>0.9697232020101282</v>
+        <v>0.9697232020101247</v>
       </c>
       <c r="F6">
-        <v>0.9775657699915846</v>
+        <v>0.9775657699915814</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040504361581505</v>
+        <v>1.040504361581504</v>
       </c>
       <c r="J6">
-        <v>0.9780393125163372</v>
+        <v>0.9780393125163332</v>
       </c>
       <c r="K6">
-        <v>0.9777005725134601</v>
+        <v>0.9777005725134562</v>
       </c>
       <c r="L6">
-        <v>0.9799278362750405</v>
+        <v>0.9799278362750369</v>
       </c>
       <c r="M6">
-        <v>0.9876722206893167</v>
+        <v>0.9876722206893134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9517985264219023</v>
+        <v>0.9517985264219071</v>
       </c>
       <c r="D7">
-        <v>0.9614774198823575</v>
+        <v>0.9614774198823622</v>
       </c>
       <c r="E7">
-        <v>0.9642686615919424</v>
+        <v>0.964268661591947</v>
       </c>
       <c r="F7">
-        <v>0.9718304023653953</v>
+        <v>0.9718304023654</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03915234177767</v>
+        <v>1.039152341777671</v>
       </c>
       <c r="J7">
-        <v>0.9725145345160302</v>
+        <v>0.9725145345160349</v>
       </c>
       <c r="K7">
-        <v>0.9720609766602586</v>
+        <v>0.9720609766602631</v>
       </c>
       <c r="L7">
-        <v>0.9748152062528854</v>
+        <v>0.97481520625289</v>
       </c>
       <c r="M7">
-        <v>0.9822780147854859</v>
+        <v>0.9822780147854903</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9231593304878439</v>
+        <v>0.9231593304878494</v>
       </c>
       <c r="D8">
-        <v>0.9341372107336479</v>
+        <v>0.9341372107336531</v>
       </c>
       <c r="E8">
-        <v>0.9393722941477903</v>
+        <v>0.9393722941477949</v>
       </c>
       <c r="F8">
-        <v>0.9456594573979626</v>
+        <v>0.945659457397967</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032914483728246</v>
+        <v>1.032914483728248</v>
       </c>
       <c r="J8">
-        <v>0.9472582923932819</v>
+        <v>0.9472582923932867</v>
       </c>
       <c r="K8">
-        <v>0.9462899768742542</v>
+        <v>0.9462899768742593</v>
       </c>
       <c r="L8">
-        <v>0.9514413473112899</v>
+        <v>0.9514413473112944</v>
       </c>
       <c r="M8">
-        <v>0.9576295402966488</v>
+        <v>0.957629540296653</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8580480762020172</v>
+        <v>0.8580480762020123</v>
       </c>
       <c r="D9">
-        <v>0.8721828034440641</v>
+        <v>0.8721828034440591</v>
       </c>
       <c r="E9">
-        <v>0.8829812134944867</v>
+        <v>0.8829812134944822</v>
       </c>
       <c r="F9">
-        <v>0.8864578665665706</v>
+        <v>0.8864578665665661</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018560683846396</v>
+        <v>1.018560683846394</v>
       </c>
       <c r="J9">
-        <v>0.8898452555229199</v>
+        <v>0.8898452555229155</v>
       </c>
       <c r="K9">
-        <v>0.8877568646032504</v>
+        <v>0.8877568646032459</v>
       </c>
       <c r="L9">
-        <v>0.8983086217640627</v>
+        <v>0.8983086217640582</v>
       </c>
       <c r="M9">
-        <v>0.9017075646125524</v>
+        <v>0.9017075646125481</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7910072331382771</v>
+        <v>0.7910072331382787</v>
       </c>
       <c r="D10">
-        <v>0.8087831683308845</v>
+        <v>0.8087831683308857</v>
       </c>
       <c r="E10">
-        <v>0.8253668693538617</v>
+        <v>0.8253668693538626</v>
       </c>
       <c r="F10">
-        <v>0.8261520012810185</v>
+        <v>0.8261520012810196</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003875761260546</v>
+        <v>1.003875761260547</v>
       </c>
       <c r="J10">
-        <v>0.8309285103830782</v>
+        <v>0.8309285103830794</v>
       </c>
       <c r="K10">
-        <v>0.8277447487925589</v>
+        <v>0.82774474879256</v>
       </c>
       <c r="L10">
-        <v>0.8438137691767936</v>
+        <v>0.8438137691767946</v>
       </c>
       <c r="M10">
-        <v>0.8445752389093013</v>
+        <v>0.8445752389093025</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7416129048333838</v>
+        <v>0.7416129048333743</v>
       </c>
       <c r="D11">
-        <v>0.7624148644784479</v>
+        <v>0.7624148644784389</v>
       </c>
       <c r="E11">
-        <v>0.7833336115360502</v>
+        <v>0.783333611536042</v>
       </c>
       <c r="F11">
-        <v>0.7823242454325674</v>
+        <v>0.7823242454325592</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9933049845723905</v>
+        <v>0.9933049845723885</v>
       </c>
       <c r="J11">
-        <v>0.7877837863748278</v>
+        <v>0.7877837863748194</v>
       </c>
       <c r="K11">
-        <v>0.7838248423961807</v>
+        <v>0.7838248423961719</v>
       </c>
       <c r="L11">
-        <v>0.8039490744018187</v>
+        <v>0.8039490744018107</v>
       </c>
       <c r="M11">
-        <v>0.802976675762864</v>
+        <v>0.8029766757628561</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7088577798809842</v>
+        <v>0.7088577798810021</v>
       </c>
       <c r="D12">
-        <v>0.7318733250003172</v>
+        <v>0.7318733250003338</v>
       </c>
       <c r="E12">
-        <v>0.7557161134652949</v>
+        <v>0.7557161134653094</v>
       </c>
       <c r="F12">
-        <v>0.7536303100552671</v>
+        <v>0.7536303100552822</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9864691418555761</v>
+        <v>0.9864691418555793</v>
       </c>
       <c r="J12">
-        <v>0.759354466355244</v>
+        <v>0.7593544663552595</v>
       </c>
       <c r="K12">
-        <v>0.754895908776566</v>
+        <v>0.7548959087765817</v>
       </c>
       <c r="L12">
-        <v>0.7777114582418827</v>
+        <v>0.7777114582418969</v>
       </c>
       <c r="M12">
-        <v>0.7757118351308157</v>
+        <v>0.7757118351308299</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7178061522997852</v>
+        <v>0.7178061522997815</v>
       </c>
       <c r="D13">
-        <v>0.7401983662471793</v>
+        <v>0.7401983662471757</v>
       </c>
       <c r="E13">
-        <v>0.7632377688932714</v>
+        <v>0.7632377688932688</v>
       </c>
       <c r="F13">
-        <v>0.7614359265708991</v>
+        <v>0.7614359265708961</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9883208386233872</v>
+        <v>0.9883208386233864</v>
       </c>
       <c r="J13">
-        <v>0.7671041714438865</v>
+        <v>0.7671041714438834</v>
       </c>
       <c r="K13">
-        <v>0.7627809332658145</v>
+        <v>0.7627809332658114</v>
       </c>
       <c r="L13">
-        <v>0.7848608015487823</v>
+        <v>0.7848608015487797</v>
       </c>
       <c r="M13">
-        <v>0.7831310384455378</v>
+        <v>0.7831310384455349</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7394996541206219</v>
+        <v>0.7394996541206251</v>
       </c>
       <c r="D14">
-        <v>0.760438989346913</v>
+        <v>0.7604389893469159</v>
       </c>
       <c r="E14">
-        <v>0.7815450597429501</v>
+        <v>0.7815450597429529</v>
       </c>
       <c r="F14">
-        <v>0.7804632786580457</v>
+        <v>0.7804632786580483</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9928593357276047</v>
+        <v>0.9928593357276058</v>
       </c>
       <c r="J14">
-        <v>0.7859447250824628</v>
+        <v>0.7859447250824656</v>
       </c>
       <c r="K14">
-        <v>0.7819531961394972</v>
+        <v>0.7819531961395001</v>
       </c>
       <c r="L14">
-        <v>0.8022509537823541</v>
+        <v>0.8022509537823567</v>
       </c>
       <c r="M14">
-        <v>0.8012091093422294</v>
+        <v>0.801209109342232</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7499291368042438</v>
+        <v>0.7499291368042551</v>
       </c>
       <c r="D15">
-        <v>0.7701972471245121</v>
+        <v>0.7701972471245232</v>
       </c>
       <c r="E15">
-        <v>0.7903804470658892</v>
+        <v>0.7903804470658992</v>
       </c>
       <c r="F15">
-        <v>0.7896597674349821</v>
+        <v>0.7896597674349921</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9950644767947673</v>
+        <v>0.9950644767947697</v>
       </c>
       <c r="J15">
-        <v>0.7950269769706063</v>
+        <v>0.7950269769706166</v>
       </c>
       <c r="K15">
-        <v>0.7911967272111569</v>
+        <v>0.7911967272111676</v>
       </c>
       <c r="L15">
-        <v>0.8106381717852267</v>
+        <v>0.8106381717852361</v>
       </c>
       <c r="M15">
-        <v>0.8099430646816105</v>
+        <v>0.8099430646816201</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7935349778489886</v>
+        <v>0.7935349778489839</v>
       </c>
       <c r="D16">
-        <v>0.8111647461396819</v>
+        <v>0.8111647461396775</v>
       </c>
       <c r="E16">
-        <v>0.8275285631185572</v>
+        <v>0.8275285631185528</v>
       </c>
       <c r="F16">
-        <v>0.8284103271873871</v>
+        <v>0.8284103271873829</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.004423698821189</v>
+        <v>1.004423698821188</v>
       </c>
       <c r="J16">
-        <v>0.8331436031588008</v>
+        <v>0.8331436031587967</v>
       </c>
       <c r="K16">
-        <v>0.8300002144098689</v>
+        <v>0.8300002144098644</v>
       </c>
       <c r="L16">
-        <v>0.8458616280995493</v>
+        <v>0.845861628099545</v>
       </c>
       <c r="M16">
-        <v>0.8467170944955699</v>
+        <v>0.8467170944955659</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8137567243657635</v>
+        <v>0.8137567243657624</v>
       </c>
       <c r="D17">
-        <v>0.8302440647841773</v>
+        <v>0.8302440647841759</v>
       </c>
       <c r="E17">
-        <v>0.844854473624814</v>
+        <v>0.8448544736248128</v>
       </c>
       <c r="F17">
-        <v>0.8465241025464262</v>
+        <v>0.846524102546425</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.008826735832257</v>
       </c>
       <c r="J17">
-        <v>0.8508846855032197</v>
+        <v>0.8508846855032184</v>
       </c>
       <c r="K17">
-        <v>0.8480668067190649</v>
+        <v>0.8480668067190635</v>
       </c>
       <c r="L17">
-        <v>0.8622665447123852</v>
+        <v>0.8622665447123843</v>
       </c>
       <c r="M17">
-        <v>0.8638904721502623</v>
+        <v>0.8638904721502609</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8241703163424481</v>
+        <v>0.824170316342444</v>
       </c>
       <c r="D18">
-        <v>0.8400869859637287</v>
+        <v>0.8400869859637248</v>
       </c>
       <c r="E18">
-        <v>0.8537979864515119</v>
+        <v>0.8537979864515083</v>
       </c>
       <c r="F18">
-        <v>0.8558830168568792</v>
+        <v>0.8558830168568754</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011106067936018</v>
+        <v>1.011106067936017</v>
       </c>
       <c r="J18">
-        <v>0.8600336491418615</v>
+        <v>0.8600336491418578</v>
       </c>
       <c r="K18">
-        <v>0.8573851909653577</v>
+        <v>0.8573851909653541</v>
       </c>
       <c r="L18">
-        <v>0.870728457136138</v>
+        <v>0.8707284571361346</v>
       </c>
       <c r="M18">
-        <v>0.8727589641532169</v>
+        <v>0.8727589641532136</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8275386977388396</v>
+        <v>0.8275386977388347</v>
       </c>
       <c r="D19">
-        <v>0.843273203075698</v>
+        <v>0.8432732030756931</v>
       </c>
       <c r="E19">
-        <v>0.8566937423166698</v>
+        <v>0.8566937423166655</v>
       </c>
       <c r="F19">
-        <v>0.8589144589471928</v>
+        <v>0.8589144589471884</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011844812299612</v>
+        <v>1.011844812299611</v>
       </c>
       <c r="J19">
-        <v>0.862994637481408</v>
+        <v>0.8629946374814034</v>
       </c>
       <c r="K19">
-        <v>0.8604012477305552</v>
+        <v>0.8604012477305506</v>
       </c>
       <c r="L19">
-        <v>0.8734673424936545</v>
+        <v>0.8734673424936502</v>
       </c>
       <c r="M19">
-        <v>0.8756308529402854</v>
+        <v>0.8756308529402814</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8117442224787232</v>
+        <v>0.8117442224787218</v>
       </c>
       <c r="D20">
-        <v>0.8283431902634532</v>
+        <v>0.8283431902634517</v>
       </c>
       <c r="E20">
-        <v>0.8431276782998813</v>
+        <v>0.8431276782998804</v>
       </c>
       <c r="F20">
-        <v>0.844717760809505</v>
+        <v>0.8447177608095037</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.008387097450029</v>
       </c>
       <c r="J20">
-        <v>0.8491175292058796</v>
+        <v>0.8491175292058784</v>
       </c>
       <c r="K20">
-        <v>0.8462670510032101</v>
+        <v>0.8462670510032088</v>
       </c>
       <c r="L20">
-        <v>0.8606322412590149</v>
+        <v>0.8606322412590138</v>
       </c>
       <c r="M20">
-        <v>0.8621784191016314</v>
+        <v>0.8621784191016302</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7338922364619914</v>
+        <v>0.7338922364619967</v>
       </c>
       <c r="D21">
-        <v>0.755199564358938</v>
+        <v>0.7551995643589432</v>
       </c>
       <c r="E21">
-        <v>0.7768035281739125</v>
+        <v>0.7768035281739175</v>
       </c>
       <c r="F21">
-        <v>0.7755315000192414</v>
+        <v>0.7755315000192463</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9916797805683605</v>
+        <v>0.9916797805683614</v>
       </c>
       <c r="J21">
-        <v>0.781067948880681</v>
+        <v>0.781067948880686</v>
       </c>
       <c r="K21">
-        <v>0.776990189498958</v>
+        <v>0.7769901894989633</v>
       </c>
       <c r="L21">
-        <v>0.7977484438354207</v>
+        <v>0.7977484438354252</v>
       </c>
       <c r="M21">
-        <v>0.79652437307232</v>
+        <v>0.7965243730723245</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7338922364619914</v>
+        <v>0.7338922364619967</v>
       </c>
       <c r="D22">
-        <v>0.755199564358938</v>
+        <v>0.7551995643589432</v>
       </c>
       <c r="E22">
-        <v>0.7768035281739125</v>
+        <v>0.7768035281739175</v>
       </c>
       <c r="F22">
-        <v>0.7755315000192414</v>
+        <v>0.7755315000192463</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9916797805683605</v>
+        <v>0.9916797805683614</v>
       </c>
       <c r="J22">
-        <v>0.781067948880681</v>
+        <v>0.781067948880686</v>
       </c>
       <c r="K22">
-        <v>0.776990189498958</v>
+        <v>0.7769901894989633</v>
       </c>
       <c r="L22">
-        <v>0.7977484438354207</v>
+        <v>0.7977484438354252</v>
       </c>
       <c r="M22">
-        <v>0.79652437307232</v>
+        <v>0.7965243730723245</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7338922364619914</v>
+        <v>0.7338922364619967</v>
       </c>
       <c r="D23">
-        <v>0.755199564358938</v>
+        <v>0.7551995643589432</v>
       </c>
       <c r="E23">
-        <v>0.7768035281739125</v>
+        <v>0.7768035281739175</v>
       </c>
       <c r="F23">
-        <v>0.7755315000192414</v>
+        <v>0.7755315000192463</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9916797805683605</v>
+        <v>0.9916797805683614</v>
       </c>
       <c r="J23">
-        <v>0.781067948880681</v>
+        <v>0.781067948880686</v>
       </c>
       <c r="K23">
-        <v>0.776990189498958</v>
+        <v>0.7769901894989633</v>
       </c>
       <c r="L23">
-        <v>0.7977484438354207</v>
+        <v>0.7977484438354252</v>
       </c>
       <c r="M23">
-        <v>0.79652437307232</v>
+        <v>0.7965243730723245</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7338922364619914</v>
+        <v>0.7338922364619967</v>
       </c>
       <c r="D24">
-        <v>0.755199564358938</v>
+        <v>0.7551995643589432</v>
       </c>
       <c r="E24">
-        <v>0.7768035281739125</v>
+        <v>0.7768035281739175</v>
       </c>
       <c r="F24">
-        <v>0.7755315000192414</v>
+        <v>0.7755315000192463</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9916797805683605</v>
+        <v>0.9916797805683614</v>
       </c>
       <c r="J24">
-        <v>0.781067948880681</v>
+        <v>0.781067948880686</v>
       </c>
       <c r="K24">
-        <v>0.776990189498958</v>
+        <v>0.7769901894989633</v>
       </c>
       <c r="L24">
-        <v>0.7977484438354207</v>
+        <v>0.7977484438354252</v>
       </c>
       <c r="M24">
-        <v>0.79652437307232</v>
+        <v>0.7965243730723245</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7338922364619914</v>
+        <v>0.7338922364619967</v>
       </c>
       <c r="D25">
-        <v>0.755199564358938</v>
+        <v>0.7551995643589432</v>
       </c>
       <c r="E25">
-        <v>0.7768035281739125</v>
+        <v>0.7768035281739175</v>
       </c>
       <c r="F25">
-        <v>0.7755315000192414</v>
+        <v>0.7755315000192463</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9916797805683605</v>
+        <v>0.9916797805683614</v>
       </c>
       <c r="J25">
-        <v>0.781067948880681</v>
+        <v>0.781067948880686</v>
       </c>
       <c r="K25">
-        <v>0.776990189498958</v>
+        <v>0.7769901894989633</v>
       </c>
       <c r="L25">
-        <v>0.7977484438354207</v>
+        <v>0.7977484438354252</v>
       </c>
       <c r="M25">
-        <v>0.79652437307232</v>
+        <v>0.7965243730723245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9150269763364437</v>
+        <v>0.9150269763364441</v>
       </c>
       <c r="D2">
-        <v>0.9263826797060962</v>
+        <v>0.9263826797060967</v>
       </c>
       <c r="E2">
-        <v>0.932311499671253</v>
+        <v>0.9323114996712539</v>
       </c>
       <c r="F2">
-        <v>0.9382400660246136</v>
+        <v>0.9382400660246141</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031129734273617</v>
+        <v>1.031129734273618</v>
       </c>
       <c r="J2">
-        <v>0.9400845052020917</v>
+        <v>0.9400845052020922</v>
       </c>
       <c r="K2">
-        <v>0.9389727242991102</v>
+        <v>0.9389727242991105</v>
       </c>
       <c r="L2">
-        <v>0.9448019679648477</v>
+        <v>0.9448019679648484</v>
       </c>
       <c r="M2">
-        <v>0.9506325802582359</v>
+        <v>0.9506325802582362</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.938135746780007</v>
+        <v>0.9381357467800049</v>
       </c>
       <c r="D3">
-        <v>0.9484284736871988</v>
+        <v>0.9484284736871966</v>
       </c>
       <c r="E3">
-        <v>0.9523859001283081</v>
+        <v>0.9523859001283063</v>
       </c>
       <c r="F3">
-        <v>0.9593375848006843</v>
+        <v>0.9593375848006822</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036187308751823</v>
+        <v>1.036187308751822</v>
       </c>
       <c r="J3">
-        <v>0.9604677734475159</v>
+        <v>0.9604677734475136</v>
       </c>
       <c r="K3">
-        <v>0.9597667085269895</v>
+        <v>0.9597667085269873</v>
       </c>
       <c r="L3">
-        <v>0.9636665801395502</v>
+        <v>0.9636665801395484</v>
       </c>
       <c r="M3">
-        <v>0.9705186172524058</v>
+        <v>0.970518617252404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9517248020747056</v>
+        <v>0.9517248020747076</v>
       </c>
       <c r="D4">
-        <v>0.9614069806247389</v>
+        <v>0.9614069806247411</v>
       </c>
       <c r="E4">
-        <v>0.9642045176223877</v>
+        <v>0.9642045176223893</v>
       </c>
       <c r="F4">
-        <v>0.9717629585236804</v>
+        <v>0.9717629585236822</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039136406213043</v>
+        <v>1.039136406213044</v>
       </c>
       <c r="J4">
-        <v>0.9724495452197557</v>
+        <v>0.9724495452197578</v>
       </c>
       <c r="K4">
-        <v>0.9719946417910267</v>
+        <v>0.9719946417910288</v>
       </c>
       <c r="L4">
-        <v>0.9747550640755994</v>
+        <v>0.9747550640756011</v>
       </c>
       <c r="M4">
-        <v>0.98221456549658</v>
+        <v>0.9822145654965816</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9571673941150305</v>
+        <v>0.9571673941150259</v>
       </c>
       <c r="D5">
-        <v>0.9666078174214975</v>
+        <v>0.9666078174214934</v>
       </c>
       <c r="E5">
-        <v>0.9689405187081221</v>
+        <v>0.9689405187081184</v>
       </c>
       <c r="F5">
-        <v>0.9767427651896866</v>
+        <v>0.9767427651896826</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040310741486957</v>
+        <v>1.040310741486956</v>
       </c>
       <c r="J5">
-        <v>0.9772467526604309</v>
+        <v>0.9772467526604268</v>
       </c>
       <c r="K5">
-        <v>0.9768914884885581</v>
+        <v>0.9768914884885542</v>
       </c>
       <c r="L5">
-        <v>0.9791944129804423</v>
+        <v>0.9791944129804385</v>
       </c>
       <c r="M5">
-        <v>0.9868983523379928</v>
+        <v>0.9868983523379889</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9580667047130115</v>
+        <v>0.9580667047130158</v>
       </c>
       <c r="D6">
-        <v>0.9674673281451336</v>
+        <v>0.9674673281451376</v>
       </c>
       <c r="E6">
-        <v>0.9697232020101247</v>
+        <v>0.9697232020101282</v>
       </c>
       <c r="F6">
-        <v>0.9775657699915814</v>
+        <v>0.9775657699915846</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040504361581504</v>
+        <v>1.040504361581505</v>
       </c>
       <c r="J6">
-        <v>0.9780393125163332</v>
+        <v>0.9780393125163372</v>
       </c>
       <c r="K6">
-        <v>0.9777005725134562</v>
+        <v>0.9777005725134601</v>
       </c>
       <c r="L6">
-        <v>0.9799278362750369</v>
+        <v>0.9799278362750405</v>
       </c>
       <c r="M6">
-        <v>0.9876722206893134</v>
+        <v>0.9876722206893167</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9517985264219071</v>
+        <v>0.9517985264219023</v>
       </c>
       <c r="D7">
-        <v>0.9614774198823622</v>
+        <v>0.9614774198823575</v>
       </c>
       <c r="E7">
-        <v>0.964268661591947</v>
+        <v>0.9642686615919424</v>
       </c>
       <c r="F7">
-        <v>0.9718304023654</v>
+        <v>0.9718304023653953</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039152341777671</v>
+        <v>1.03915234177767</v>
       </c>
       <c r="J7">
-        <v>0.9725145345160349</v>
+        <v>0.9725145345160302</v>
       </c>
       <c r="K7">
-        <v>0.9720609766602631</v>
+        <v>0.9720609766602586</v>
       </c>
       <c r="L7">
-        <v>0.97481520625289</v>
+        <v>0.9748152062528854</v>
       </c>
       <c r="M7">
-        <v>0.9822780147854903</v>
+        <v>0.9822780147854859</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9231593304878494</v>
+        <v>0.9231593304878439</v>
       </c>
       <c r="D8">
-        <v>0.9341372107336531</v>
+        <v>0.9341372107336479</v>
       </c>
       <c r="E8">
-        <v>0.9393722941477949</v>
+        <v>0.9393722941477903</v>
       </c>
       <c r="F8">
-        <v>0.945659457397967</v>
+        <v>0.9456594573979626</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032914483728248</v>
+        <v>1.032914483728246</v>
       </c>
       <c r="J8">
-        <v>0.9472582923932867</v>
+        <v>0.9472582923932819</v>
       </c>
       <c r="K8">
-        <v>0.9462899768742593</v>
+        <v>0.9462899768742542</v>
       </c>
       <c r="L8">
-        <v>0.9514413473112944</v>
+        <v>0.9514413473112899</v>
       </c>
       <c r="M8">
-        <v>0.957629540296653</v>
+        <v>0.9576295402966488</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8580480762020123</v>
+        <v>0.8580480762020172</v>
       </c>
       <c r="D9">
-        <v>0.8721828034440591</v>
+        <v>0.8721828034440641</v>
       </c>
       <c r="E9">
-        <v>0.8829812134944822</v>
+        <v>0.8829812134944867</v>
       </c>
       <c r="F9">
-        <v>0.8864578665665661</v>
+        <v>0.8864578665665706</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018560683846394</v>
+        <v>1.018560683846396</v>
       </c>
       <c r="J9">
-        <v>0.8898452555229155</v>
+        <v>0.8898452555229199</v>
       </c>
       <c r="K9">
-        <v>0.8877568646032459</v>
+        <v>0.8877568646032504</v>
       </c>
       <c r="L9">
-        <v>0.8983086217640582</v>
+        <v>0.8983086217640627</v>
       </c>
       <c r="M9">
-        <v>0.9017075646125481</v>
+        <v>0.9017075646125524</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7910072331382787</v>
+        <v>0.7910072331382771</v>
       </c>
       <c r="D10">
-        <v>0.8087831683308857</v>
+        <v>0.8087831683308845</v>
       </c>
       <c r="E10">
-        <v>0.8253668693538626</v>
+        <v>0.8253668693538617</v>
       </c>
       <c r="F10">
-        <v>0.8261520012810196</v>
+        <v>0.8261520012810185</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003875761260547</v>
+        <v>1.003875761260546</v>
       </c>
       <c r="J10">
-        <v>0.8309285103830794</v>
+        <v>0.8309285103830782</v>
       </c>
       <c r="K10">
-        <v>0.82774474879256</v>
+        <v>0.8277447487925589</v>
       </c>
       <c r="L10">
-        <v>0.8438137691767946</v>
+        <v>0.8438137691767936</v>
       </c>
       <c r="M10">
-        <v>0.8445752389093025</v>
+        <v>0.8445752389093013</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7416129048333743</v>
+        <v>0.7416129048333838</v>
       </c>
       <c r="D11">
-        <v>0.7624148644784389</v>
+        <v>0.7624148644784479</v>
       </c>
       <c r="E11">
-        <v>0.783333611536042</v>
+        <v>0.7833336115360502</v>
       </c>
       <c r="F11">
-        <v>0.7823242454325592</v>
+        <v>0.7823242454325674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9933049845723885</v>
+        <v>0.9933049845723905</v>
       </c>
       <c r="J11">
-        <v>0.7877837863748194</v>
+        <v>0.7877837863748278</v>
       </c>
       <c r="K11">
-        <v>0.7838248423961719</v>
+        <v>0.7838248423961807</v>
       </c>
       <c r="L11">
-        <v>0.8039490744018107</v>
+        <v>0.8039490744018187</v>
       </c>
       <c r="M11">
-        <v>0.8029766757628561</v>
+        <v>0.802976675762864</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7088577798810021</v>
+        <v>0.7088577798809842</v>
       </c>
       <c r="D12">
-        <v>0.7318733250003338</v>
+        <v>0.7318733250003172</v>
       </c>
       <c r="E12">
-        <v>0.7557161134653094</v>
+        <v>0.7557161134652949</v>
       </c>
       <c r="F12">
-        <v>0.7536303100552822</v>
+        <v>0.7536303100552671</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9864691418555793</v>
+        <v>0.9864691418555761</v>
       </c>
       <c r="J12">
-        <v>0.7593544663552595</v>
+        <v>0.759354466355244</v>
       </c>
       <c r="K12">
-        <v>0.7548959087765817</v>
+        <v>0.754895908776566</v>
       </c>
       <c r="L12">
-        <v>0.7777114582418969</v>
+        <v>0.7777114582418827</v>
       </c>
       <c r="M12">
-        <v>0.7757118351308299</v>
+        <v>0.7757118351308157</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7178061522997815</v>
+        <v>0.7178061522997852</v>
       </c>
       <c r="D13">
-        <v>0.7401983662471757</v>
+        <v>0.7401983662471793</v>
       </c>
       <c r="E13">
-        <v>0.7632377688932688</v>
+        <v>0.7632377688932714</v>
       </c>
       <c r="F13">
-        <v>0.7614359265708961</v>
+        <v>0.7614359265708991</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9883208386233864</v>
+        <v>0.9883208386233872</v>
       </c>
       <c r="J13">
-        <v>0.7671041714438834</v>
+        <v>0.7671041714438865</v>
       </c>
       <c r="K13">
-        <v>0.7627809332658114</v>
+        <v>0.7627809332658145</v>
       </c>
       <c r="L13">
-        <v>0.7848608015487797</v>
+        <v>0.7848608015487823</v>
       </c>
       <c r="M13">
-        <v>0.7831310384455349</v>
+        <v>0.7831310384455378</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7394996541206251</v>
+        <v>0.7394996541206219</v>
       </c>
       <c r="D14">
-        <v>0.7604389893469159</v>
+        <v>0.760438989346913</v>
       </c>
       <c r="E14">
-        <v>0.7815450597429529</v>
+        <v>0.7815450597429501</v>
       </c>
       <c r="F14">
-        <v>0.7804632786580483</v>
+        <v>0.7804632786580457</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9928593357276058</v>
+        <v>0.9928593357276047</v>
       </c>
       <c r="J14">
-        <v>0.7859447250824656</v>
+        <v>0.7859447250824628</v>
       </c>
       <c r="K14">
-        <v>0.7819531961395001</v>
+        <v>0.7819531961394972</v>
       </c>
       <c r="L14">
-        <v>0.8022509537823567</v>
+        <v>0.8022509537823541</v>
       </c>
       <c r="M14">
-        <v>0.801209109342232</v>
+        <v>0.8012091093422294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7499291368042551</v>
+        <v>0.7499291368042438</v>
       </c>
       <c r="D15">
-        <v>0.7701972471245232</v>
+        <v>0.7701972471245121</v>
       </c>
       <c r="E15">
-        <v>0.7903804470658992</v>
+        <v>0.7903804470658892</v>
       </c>
       <c r="F15">
-        <v>0.7896597674349921</v>
+        <v>0.7896597674349821</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9950644767947697</v>
+        <v>0.9950644767947673</v>
       </c>
       <c r="J15">
-        <v>0.7950269769706166</v>
+        <v>0.7950269769706063</v>
       </c>
       <c r="K15">
-        <v>0.7911967272111676</v>
+        <v>0.7911967272111569</v>
       </c>
       <c r="L15">
-        <v>0.8106381717852361</v>
+        <v>0.8106381717852267</v>
       </c>
       <c r="M15">
-        <v>0.8099430646816201</v>
+        <v>0.8099430646816105</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7935349778489839</v>
+        <v>0.7935349778489886</v>
       </c>
       <c r="D16">
-        <v>0.8111647461396775</v>
+        <v>0.8111647461396819</v>
       </c>
       <c r="E16">
-        <v>0.8275285631185528</v>
+        <v>0.8275285631185572</v>
       </c>
       <c r="F16">
-        <v>0.8284103271873829</v>
+        <v>0.8284103271873871</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.004423698821188</v>
+        <v>1.004423698821189</v>
       </c>
       <c r="J16">
-        <v>0.8331436031587967</v>
+        <v>0.8331436031588008</v>
       </c>
       <c r="K16">
-        <v>0.8300002144098644</v>
+        <v>0.8300002144098689</v>
       </c>
       <c r="L16">
-        <v>0.845861628099545</v>
+        <v>0.8458616280995493</v>
       </c>
       <c r="M16">
-        <v>0.8467170944955659</v>
+        <v>0.8467170944955699</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,16 +991,16 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8137567243657624</v>
+        <v>0.8137567243657635</v>
       </c>
       <c r="D17">
-        <v>0.8302440647841759</v>
+        <v>0.8302440647841773</v>
       </c>
       <c r="E17">
-        <v>0.8448544736248128</v>
+        <v>0.844854473624814</v>
       </c>
       <c r="F17">
-        <v>0.846524102546425</v>
+        <v>0.8465241025464262</v>
       </c>
       <c r="G17">
         <v>1</v>
@@ -1009,16 +1009,16 @@
         <v>1.008826735832257</v>
       </c>
       <c r="J17">
-        <v>0.8508846855032184</v>
+        <v>0.8508846855032197</v>
       </c>
       <c r="K17">
-        <v>0.8480668067190635</v>
+        <v>0.8480668067190649</v>
       </c>
       <c r="L17">
-        <v>0.8622665447123843</v>
+        <v>0.8622665447123852</v>
       </c>
       <c r="M17">
-        <v>0.8638904721502609</v>
+        <v>0.8638904721502623</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.824170316342444</v>
+        <v>0.8241703163424481</v>
       </c>
       <c r="D18">
-        <v>0.8400869859637248</v>
+        <v>0.8400869859637287</v>
       </c>
       <c r="E18">
-        <v>0.8537979864515083</v>
+        <v>0.8537979864515119</v>
       </c>
       <c r="F18">
-        <v>0.8558830168568754</v>
+        <v>0.8558830168568792</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011106067936017</v>
+        <v>1.011106067936018</v>
       </c>
       <c r="J18">
-        <v>0.8600336491418578</v>
+        <v>0.8600336491418615</v>
       </c>
       <c r="K18">
-        <v>0.8573851909653541</v>
+        <v>0.8573851909653577</v>
       </c>
       <c r="L18">
-        <v>0.8707284571361346</v>
+        <v>0.870728457136138</v>
       </c>
       <c r="M18">
-        <v>0.8727589641532136</v>
+        <v>0.8727589641532169</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8275386977388347</v>
+        <v>0.8275386977388396</v>
       </c>
       <c r="D19">
-        <v>0.8432732030756931</v>
+        <v>0.843273203075698</v>
       </c>
       <c r="E19">
-        <v>0.8566937423166655</v>
+        <v>0.8566937423166698</v>
       </c>
       <c r="F19">
-        <v>0.8589144589471884</v>
+        <v>0.8589144589471928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011844812299611</v>
+        <v>1.011844812299612</v>
       </c>
       <c r="J19">
-        <v>0.8629946374814034</v>
+        <v>0.862994637481408</v>
       </c>
       <c r="K19">
-        <v>0.8604012477305506</v>
+        <v>0.8604012477305552</v>
       </c>
       <c r="L19">
-        <v>0.8734673424936502</v>
+        <v>0.8734673424936545</v>
       </c>
       <c r="M19">
-        <v>0.8756308529402814</v>
+        <v>0.8756308529402854</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8117442224787218</v>
+        <v>0.8117442224787232</v>
       </c>
       <c r="D20">
-        <v>0.8283431902634517</v>
+        <v>0.8283431902634532</v>
       </c>
       <c r="E20">
-        <v>0.8431276782998804</v>
+        <v>0.8431276782998813</v>
       </c>
       <c r="F20">
-        <v>0.8447177608095037</v>
+        <v>0.844717760809505</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.008387097450029</v>
       </c>
       <c r="J20">
-        <v>0.8491175292058784</v>
+        <v>0.8491175292058796</v>
       </c>
       <c r="K20">
-        <v>0.8462670510032088</v>
+        <v>0.8462670510032101</v>
       </c>
       <c r="L20">
-        <v>0.8606322412590138</v>
+        <v>0.8606322412590149</v>
       </c>
       <c r="M20">
-        <v>0.8621784191016302</v>
+        <v>0.8621784191016314</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7338922364619967</v>
+        <v>0.7338922364619914</v>
       </c>
       <c r="D21">
-        <v>0.7551995643589432</v>
+        <v>0.755199564358938</v>
       </c>
       <c r="E21">
-        <v>0.7768035281739175</v>
+        <v>0.7768035281739125</v>
       </c>
       <c r="F21">
-        <v>0.7755315000192463</v>
+        <v>0.7755315000192414</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9916797805683614</v>
+        <v>0.9916797805683605</v>
       </c>
       <c r="J21">
-        <v>0.781067948880686</v>
+        <v>0.781067948880681</v>
       </c>
       <c r="K21">
-        <v>0.7769901894989633</v>
+        <v>0.776990189498958</v>
       </c>
       <c r="L21">
-        <v>0.7977484438354252</v>
+        <v>0.7977484438354207</v>
       </c>
       <c r="M21">
-        <v>0.7965243730723245</v>
+        <v>0.79652437307232</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7338922364619967</v>
+        <v>0.7338922364619914</v>
       </c>
       <c r="D22">
-        <v>0.7551995643589432</v>
+        <v>0.755199564358938</v>
       </c>
       <c r="E22">
-        <v>0.7768035281739175</v>
+        <v>0.7768035281739125</v>
       </c>
       <c r="F22">
-        <v>0.7755315000192463</v>
+        <v>0.7755315000192414</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9916797805683614</v>
+        <v>0.9916797805683605</v>
       </c>
       <c r="J22">
-        <v>0.781067948880686</v>
+        <v>0.781067948880681</v>
       </c>
       <c r="K22">
-        <v>0.7769901894989633</v>
+        <v>0.776990189498958</v>
       </c>
       <c r="L22">
-        <v>0.7977484438354252</v>
+        <v>0.7977484438354207</v>
       </c>
       <c r="M22">
-        <v>0.7965243730723245</v>
+        <v>0.79652437307232</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7338922364619967</v>
+        <v>0.7338922364619914</v>
       </c>
       <c r="D23">
-        <v>0.7551995643589432</v>
+        <v>0.755199564358938</v>
       </c>
       <c r="E23">
-        <v>0.7768035281739175</v>
+        <v>0.7768035281739125</v>
       </c>
       <c r="F23">
-        <v>0.7755315000192463</v>
+        <v>0.7755315000192414</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9916797805683614</v>
+        <v>0.9916797805683605</v>
       </c>
       <c r="J23">
-        <v>0.781067948880686</v>
+        <v>0.781067948880681</v>
       </c>
       <c r="K23">
-        <v>0.7769901894989633</v>
+        <v>0.776990189498958</v>
       </c>
       <c r="L23">
-        <v>0.7977484438354252</v>
+        <v>0.7977484438354207</v>
       </c>
       <c r="M23">
-        <v>0.7965243730723245</v>
+        <v>0.79652437307232</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7338922364619967</v>
+        <v>0.7338922364619914</v>
       </c>
       <c r="D24">
-        <v>0.7551995643589432</v>
+        <v>0.755199564358938</v>
       </c>
       <c r="E24">
-        <v>0.7768035281739175</v>
+        <v>0.7768035281739125</v>
       </c>
       <c r="F24">
-        <v>0.7755315000192463</v>
+        <v>0.7755315000192414</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9916797805683614</v>
+        <v>0.9916797805683605</v>
       </c>
       <c r="J24">
-        <v>0.781067948880686</v>
+        <v>0.781067948880681</v>
       </c>
       <c r="K24">
-        <v>0.7769901894989633</v>
+        <v>0.776990189498958</v>
       </c>
       <c r="L24">
-        <v>0.7977484438354252</v>
+        <v>0.7977484438354207</v>
       </c>
       <c r="M24">
-        <v>0.7965243730723245</v>
+        <v>0.79652437307232</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7338922364619967</v>
+        <v>0.7338922364619914</v>
       </c>
       <c r="D25">
-        <v>0.7551995643589432</v>
+        <v>0.755199564358938</v>
       </c>
       <c r="E25">
-        <v>0.7768035281739175</v>
+        <v>0.7768035281739125</v>
       </c>
       <c r="F25">
-        <v>0.7755315000192463</v>
+        <v>0.7755315000192414</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9916797805683614</v>
+        <v>0.9916797805683605</v>
       </c>
       <c r="J25">
-        <v>0.781067948880686</v>
+        <v>0.781067948880681</v>
       </c>
       <c r="K25">
-        <v>0.7769901894989633</v>
+        <v>0.776990189498958</v>
       </c>
       <c r="L25">
-        <v>0.7977484438354252</v>
+        <v>0.7977484438354207</v>
       </c>
       <c r="M25">
-        <v>0.7965243730723245</v>
+        <v>0.79652437307232</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9150269763364441</v>
+        <v>0.9200103393119203</v>
       </c>
       <c r="D2">
-        <v>0.9263826797060967</v>
+        <v>0.931247944862591</v>
       </c>
       <c r="E2">
-        <v>0.9323114996712539</v>
+        <v>0.9366036513865811</v>
       </c>
       <c r="F2">
-        <v>0.9382400660246141</v>
+        <v>0.9424960880685427</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.031129734273618</v>
+        <v>1.032150656367113</v>
       </c>
       <c r="J2">
-        <v>0.9400845052020922</v>
+        <v>0.9448784255954471</v>
       </c>
       <c r="K2">
-        <v>0.9389727242991105</v>
+        <v>0.9437561556247842</v>
       </c>
       <c r="L2">
-        <v>0.9448019679648484</v>
+        <v>0.9490230437081641</v>
       </c>
       <c r="M2">
-        <v>0.9506325802582362</v>
+        <v>0.954819258371735</v>
+      </c>
+      <c r="N2">
+        <v>0.9462202613388628</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9381357467800049</v>
+        <v>0.9429331333506741</v>
       </c>
       <c r="D3">
-        <v>0.9484284736871966</v>
+        <v>0.953123785092243</v>
       </c>
       <c r="E3">
-        <v>0.9523859001283063</v>
+        <v>0.9565231869632982</v>
       </c>
       <c r="F3">
-        <v>0.9593375848006822</v>
+        <v>0.9634281448965077</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036187308751822</v>
+        <v>1.037169717109032</v>
       </c>
       <c r="J3">
-        <v>0.9604677734475136</v>
+        <v>0.9651103764971029</v>
       </c>
       <c r="K3">
-        <v>0.9597667085269873</v>
+        <v>0.9643938006642092</v>
       </c>
       <c r="L3">
-        <v>0.9636665801395484</v>
+        <v>0.9677443409679471</v>
       </c>
       <c r="M3">
-        <v>0.970518617252404</v>
+        <v>0.9745513910424395</v>
+      </c>
+      <c r="N3">
+        <v>0.9664809439314361</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9517248020747076</v>
+        <v>0.9564314579790705</v>
       </c>
       <c r="D4">
-        <v>0.9614069806247411</v>
+        <v>0.9660196352240303</v>
       </c>
       <c r="E4">
-        <v>0.9642045176223893</v>
+        <v>0.9682663922552446</v>
       </c>
       <c r="F4">
-        <v>0.9717629585236822</v>
+        <v>0.9757723648161547</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.039136406213044</v>
+        <v>1.040100035917579</v>
       </c>
       <c r="J4">
-        <v>0.9724495452197578</v>
+        <v>0.9770193580112719</v>
       </c>
       <c r="K4">
-        <v>0.9719946417910288</v>
+        <v>0.976546244817441</v>
       </c>
       <c r="L4">
-        <v>0.9747550640756011</v>
+        <v>0.9787635284824209</v>
       </c>
       <c r="M4">
-        <v>0.9822145654965816</v>
+        <v>0.9861722668907914</v>
+      </c>
+      <c r="N4">
+        <v>0.9784068375653344</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9571673941150259</v>
+        <v>0.9618410757975178</v>
       </c>
       <c r="D5">
-        <v>0.9666078174214934</v>
+        <v>0.9711904913431076</v>
       </c>
       <c r="E5">
-        <v>0.9689405187081184</v>
+        <v>0.972975023807248</v>
       </c>
       <c r="F5">
-        <v>0.9767427651896826</v>
+        <v>0.9807225911376231</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040310741486956</v>
+        <v>1.041267557674838</v>
       </c>
       <c r="J5">
-        <v>0.9772467526604268</v>
+        <v>0.9817903438463934</v>
       </c>
       <c r="K5">
-        <v>0.9768914884885542</v>
+        <v>0.9814158340155543</v>
       </c>
       <c r="L5">
-        <v>0.9791944129804385</v>
+        <v>0.9831778383517163</v>
       </c>
       <c r="M5">
-        <v>0.9868983523379889</v>
+        <v>0.9908287830863087</v>
+      </c>
+      <c r="N5">
+        <v>0.9831845987475816</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9580667047130158</v>
+        <v>0.9627351120225638</v>
       </c>
       <c r="D6">
-        <v>0.9674673281451376</v>
+        <v>0.9720452099930803</v>
       </c>
       <c r="E6">
-        <v>0.9697232020101282</v>
+        <v>0.973753331558573</v>
       </c>
       <c r="F6">
-        <v>0.9775657699915846</v>
+        <v>0.9815408596911495</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040504361581505</v>
+        <v>1.041460088815374</v>
       </c>
       <c r="J6">
-        <v>0.9780393125163372</v>
+        <v>0.9825787229268482</v>
       </c>
       <c r="K6">
-        <v>0.9777005725134601</v>
+        <v>0.9822205684039209</v>
       </c>
       <c r="L6">
-        <v>0.9799278362750405</v>
+        <v>0.9839072651111969</v>
       </c>
       <c r="M6">
-        <v>0.9876722206893167</v>
+        <v>0.9915982904041564</v>
+      </c>
+      <c r="N6">
+        <v>0.9839740974167591</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9517985264219023</v>
+        <v>0.9565047233477698</v>
       </c>
       <c r="D7">
-        <v>0.9614774198823575</v>
+        <v>0.9660896569279044</v>
       </c>
       <c r="E7">
-        <v>0.9642686615919424</v>
+        <v>0.9683301550993497</v>
       </c>
       <c r="F7">
-        <v>0.9718304023653953</v>
+        <v>0.9758393972596716</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03915234177767</v>
+        <v>1.040115876585201</v>
       </c>
       <c r="J7">
-        <v>0.9725145345160302</v>
+        <v>0.9770839813721069</v>
       </c>
       <c r="K7">
-        <v>0.9720609766602586</v>
+        <v>0.9766121995555751</v>
       </c>
       <c r="L7">
-        <v>0.9748152062528854</v>
+        <v>0.978823321533834</v>
       </c>
       <c r="M7">
-        <v>0.9822780147854859</v>
+        <v>0.9862353365250677</v>
+      </c>
+      <c r="N7">
+        <v>0.9784715526987545</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9231593304878439</v>
+        <v>0.9280722361473609</v>
       </c>
       <c r="D8">
-        <v>0.9341372107336479</v>
+        <v>0.938938022583771</v>
       </c>
       <c r="E8">
-        <v>0.9393722941477903</v>
+        <v>0.9436057434466614</v>
       </c>
       <c r="F8">
-        <v>0.9456594573979626</v>
+        <v>0.9498529161710753</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032914483728246</v>
+        <v>1.033920819185062</v>
       </c>
       <c r="J8">
-        <v>0.9472582923932819</v>
+        <v>0.9519946155142941</v>
       </c>
       <c r="K8">
-        <v>0.9462899768742542</v>
+        <v>0.9510139745893722</v>
       </c>
       <c r="L8">
-        <v>0.9514413473112899</v>
+        <v>0.9556079696152849</v>
       </c>
       <c r="M8">
-        <v>0.9576295402966488</v>
+        <v>0.9617579172401083</v>
+      </c>
+      <c r="N8">
+        <v>0.9533465570636329</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8580480762020172</v>
+        <v>0.8637362014170095</v>
       </c>
       <c r="D9">
-        <v>0.8721828034440641</v>
+        <v>0.8776950406006249</v>
       </c>
       <c r="E9">
-        <v>0.8829812134944867</v>
+        <v>0.8878611549680101</v>
       </c>
       <c r="F9">
-        <v>0.8864578665665706</v>
+        <v>0.8913342781305711</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.018560683846396</v>
+        <v>1.019726705261288</v>
       </c>
       <c r="J9">
-        <v>0.8898452555229199</v>
+        <v>0.8952252187651007</v>
       </c>
       <c r="K9">
-        <v>0.8877568646032504</v>
+        <v>0.8931421809450916</v>
       </c>
       <c r="L9">
-        <v>0.8983086217640627</v>
+        <v>0.9030797160646961</v>
       </c>
       <c r="M9">
-        <v>0.9017075646125524</v>
+        <v>0.9064763359233059</v>
+      </c>
+      <c r="N9">
+        <v>0.8964965412595149</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.7910072331382771</v>
+        <v>0.798458453080627</v>
       </c>
       <c r="D10">
-        <v>0.8087831683308845</v>
+        <v>0.8159190249998834</v>
       </c>
       <c r="E10">
-        <v>0.8253668693538617</v>
+        <v>0.8317157731666823</v>
       </c>
       <c r="F10">
-        <v>0.8261520012810185</v>
+        <v>0.8325603700825579</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.003875761260546</v>
+        <v>1.005399768868802</v>
       </c>
       <c r="J10">
-        <v>0.8309285103830782</v>
+        <v>0.8378019495037514</v>
       </c>
       <c r="K10">
-        <v>0.8277447487925589</v>
+        <v>0.8346555990943582</v>
       </c>
       <c r="L10">
-        <v>0.8438137691767936</v>
+        <v>0.8499730881890325</v>
       </c>
       <c r="M10">
-        <v>0.8445752389093013</v>
+        <v>0.8507927637362279</v>
+      </c>
+      <c r="N10">
+        <v>0.8389917243692733</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.7416129048333838</v>
+        <v>0.752305663139437</v>
       </c>
       <c r="D11">
-        <v>0.7624148644784479</v>
+        <v>0.7725375984552206</v>
       </c>
       <c r="E11">
-        <v>0.7833336115360502</v>
+        <v>0.7923768318871161</v>
       </c>
       <c r="F11">
-        <v>0.7823242454325674</v>
+        <v>0.7915246822357074</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9933049845723905</v>
+        <v>0.9954798650846303</v>
       </c>
       <c r="J11">
-        <v>0.7877837863748278</v>
+        <v>0.7974253282638747</v>
       </c>
       <c r="K11">
-        <v>0.7838248423961807</v>
+        <v>0.7935555293535487</v>
       </c>
       <c r="L11">
-        <v>0.8039490744018187</v>
+        <v>0.8126669682619057</v>
       </c>
       <c r="M11">
-        <v>0.802976675762864</v>
+        <v>0.8118450303170832</v>
+      </c>
+      <c r="N11">
+        <v>0.7985577636959728</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7088577798809842</v>
+        <v>0.7249040144554234</v>
       </c>
       <c r="D12">
-        <v>0.7318733250003172</v>
+        <v>0.746927595087688</v>
       </c>
       <c r="E12">
-        <v>0.7557161134652949</v>
+        <v>0.7692013659495326</v>
       </c>
       <c r="F12">
-        <v>0.7536303100552671</v>
+        <v>0.7674221864180091</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9864691418555761</v>
+        <v>0.9897131251422375</v>
       </c>
       <c r="J12">
-        <v>0.759354466355244</v>
+        <v>0.7735794252164089</v>
       </c>
       <c r="K12">
-        <v>0.754895908776566</v>
+        <v>0.7692907097419397</v>
       </c>
       <c r="L12">
-        <v>0.7777114582418827</v>
+        <v>0.790655453313739</v>
       </c>
       <c r="M12">
-        <v>0.7757118351308157</v>
+        <v>0.7889461443934176</v>
+      </c>
+      <c r="N12">
+        <v>0.7746779967310166</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7178061522997852</v>
+        <v>0.7318824124945865</v>
       </c>
       <c r="D13">
-        <v>0.7401983662471793</v>
+        <v>0.7534381212197425</v>
       </c>
       <c r="E13">
-        <v>0.7632377688932714</v>
+        <v>0.7750890649509732</v>
       </c>
       <c r="F13">
-        <v>0.7614359265708991</v>
+        <v>0.7735396435762061</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9883208386233872</v>
+        <v>0.9911718152144097</v>
       </c>
       <c r="J13">
-        <v>0.7671041714438865</v>
+        <v>0.7796418796399943</v>
       </c>
       <c r="K13">
-        <v>0.7627809332658145</v>
+        <v>0.7754590922372979</v>
       </c>
       <c r="L13">
-        <v>0.7848608015487823</v>
+        <v>0.7962497710228955</v>
       </c>
       <c r="M13">
-        <v>0.7831310384455378</v>
+        <v>0.7947596580887785</v>
+      </c>
+      <c r="N13">
+        <v>0.7807490605352565</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7394996541206219</v>
+        <v>0.7504179624196194</v>
       </c>
       <c r="D14">
-        <v>0.760438989346913</v>
+        <v>0.7707695335767578</v>
       </c>
       <c r="E14">
-        <v>0.7815450597429501</v>
+        <v>0.7907755665495201</v>
       </c>
       <c r="F14">
-        <v>0.7804632786580457</v>
+        <v>0.7898574787871905</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9928593357276047</v>
+        <v>0.9950793516883137</v>
       </c>
       <c r="J14">
-        <v>0.7859447250824628</v>
+        <v>0.7957792129667727</v>
       </c>
       <c r="K14">
-        <v>0.7819531961394972</v>
+        <v>0.7918803004505963</v>
       </c>
       <c r="L14">
-        <v>0.8022509537823541</v>
+        <v>0.8111469124739549</v>
       </c>
       <c r="M14">
-        <v>0.8012091093422294</v>
+        <v>0.8102616091150004</v>
+      </c>
+      <c r="N14">
+        <v>0.7969093107263368</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7499291368042438</v>
+        <v>0.7598319962646367</v>
       </c>
       <c r="D15">
-        <v>0.7701972471245121</v>
+        <v>0.7795921797439535</v>
       </c>
       <c r="E15">
-        <v>0.7903804470658892</v>
+        <v>0.7987676223877891</v>
       </c>
       <c r="F15">
-        <v>0.7896597674349821</v>
+        <v>0.7981812510824737</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9950644767947673</v>
+        <v>0.9970811778494749</v>
       </c>
       <c r="J15">
-        <v>0.7950269769706063</v>
+        <v>0.8039930203562218</v>
       </c>
       <c r="K15">
-        <v>0.7911967272111569</v>
+        <v>0.8002396697599666</v>
       </c>
       <c r="L15">
-        <v>0.8106381717852267</v>
+        <v>0.8187324700345013</v>
       </c>
       <c r="M15">
-        <v>0.8099430646816105</v>
+        <v>0.8181662953179962</v>
+      </c>
+      <c r="N15">
+        <v>0.8051347826644158</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.7935349778489886</v>
+        <v>0.8008851856832416</v>
       </c>
       <c r="D16">
-        <v>0.8111647461396819</v>
+        <v>0.8182075306196436</v>
       </c>
       <c r="E16">
-        <v>0.8275285631185572</v>
+        <v>0.8337933931179244</v>
       </c>
       <c r="F16">
-        <v>0.8284103271873871</v>
+        <v>0.8347313342678238</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.004423698821189</v>
+        <v>1.005927316561797</v>
       </c>
       <c r="J16">
-        <v>0.8331436031588008</v>
+        <v>0.8399310572456933</v>
       </c>
       <c r="K16">
-        <v>0.8300002144098689</v>
+        <v>0.8368233716700746</v>
       </c>
       <c r="L16">
-        <v>0.8458616280995493</v>
+        <v>0.8519412708330893</v>
       </c>
       <c r="M16">
-        <v>0.8467170944955699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.8528518146924648</v>
+      </c>
+      <c r="N16">
+        <v>0.8411238556884211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8137567243657635</v>
+        <v>0.820423644354396</v>
       </c>
       <c r="D17">
-        <v>0.8302440647841773</v>
+        <v>0.8366573542258904</v>
       </c>
       <c r="E17">
-        <v>0.844854473624814</v>
+        <v>0.8505503312233923</v>
       </c>
       <c r="F17">
-        <v>0.8465241025464262</v>
+        <v>0.8522531333993347</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.008826735832257</v>
+        <v>1.010192119123015</v>
       </c>
       <c r="J17">
-        <v>0.8508846855032197</v>
+        <v>0.8570914504171908</v>
       </c>
       <c r="K17">
-        <v>0.8480668067190649</v>
+        <v>0.8542974169187181</v>
       </c>
       <c r="L17">
-        <v>0.8622665447123852</v>
+        <v>0.867807497405083</v>
       </c>
       <c r="M17">
-        <v>0.8638904721502623</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.8694645363803513</v>
+      </c>
+      <c r="N17">
+        <v>0.8583086185865465</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8241703163424481</v>
+        <v>0.8305548543383484</v>
       </c>
       <c r="D18">
-        <v>0.8400869859637287</v>
+        <v>0.8462401984773487</v>
       </c>
       <c r="E18">
-        <v>0.8537979864515119</v>
+        <v>0.8592585602104874</v>
       </c>
       <c r="F18">
-        <v>0.8558830168568792</v>
+        <v>0.8613667543193008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.011106067936018</v>
+        <v>1.012414130335265</v>
       </c>
       <c r="J18">
-        <v>0.8600336491418615</v>
+        <v>0.8660010823956095</v>
       </c>
       <c r="K18">
-        <v>0.8573851909653577</v>
+        <v>0.863371367933949</v>
       </c>
       <c r="L18">
-        <v>0.870728457136138</v>
+        <v>0.8760469963868804</v>
       </c>
       <c r="M18">
-        <v>0.8727589641532169</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.8781010059825726</v>
+      </c>
+      <c r="N18">
+        <v>0.8672309032643241</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8275386977388396</v>
+        <v>0.833840000206426</v>
       </c>
       <c r="D19">
-        <v>0.843273203075698</v>
+        <v>0.8493497681669766</v>
       </c>
       <c r="E19">
-        <v>0.8566937423166698</v>
+        <v>0.86208494621681</v>
       </c>
       <c r="F19">
-        <v>0.8589144589471928</v>
+        <v>0.8643258029858069</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.011844812299612</v>
+        <v>1.013135952316883</v>
       </c>
       <c r="J19">
-        <v>0.862994637481408</v>
+        <v>0.8688916227198809</v>
       </c>
       <c r="K19">
-        <v>0.8604012477305552</v>
+        <v>0.8663154435849306</v>
       </c>
       <c r="L19">
-        <v>0.8734673424936545</v>
+        <v>0.878720357766255</v>
       </c>
       <c r="M19">
-        <v>0.8756308529402854</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.8809044610436894</v>
+      </c>
+      <c r="N19">
+        <v>0.8701255484874052</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8117442224787232</v>
+        <v>0.8184705244497268</v>
       </c>
       <c r="D20">
-        <v>0.8283431902634532</v>
+        <v>0.8348111784154837</v>
       </c>
       <c r="E20">
-        <v>0.8431276782998813</v>
+        <v>0.8488730024059936</v>
       </c>
       <c r="F20">
-        <v>0.844717760809505</v>
+        <v>0.850498319694093</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.008387097450029</v>
+        <v>1.009764518609083</v>
       </c>
       <c r="J20">
-        <v>0.8491175292058796</v>
+        <v>0.8553746802021653</v>
       </c>
       <c r="K20">
-        <v>0.8462670510032101</v>
+        <v>0.852549102712711</v>
       </c>
       <c r="L20">
-        <v>0.8606322412590149</v>
+        <v>0.866219984767972</v>
       </c>
       <c r="M20">
-        <v>0.8621784191016314</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.8678012489400425</v>
+      </c>
+      <c r="N20">
+        <v>0.8565894103608996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7338922364619914</v>
+        <v>0.7454668683664577</v>
       </c>
       <c r="D21">
-        <v>0.755199564358938</v>
+        <v>0.7661347907416577</v>
       </c>
       <c r="E21">
-        <v>0.7768035281739125</v>
+        <v>0.7865789232213364</v>
       </c>
       <c r="F21">
-        <v>0.7755315000192414</v>
+        <v>0.7854893015128382</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9916797805683605</v>
+        <v>0.9940310687723726</v>
       </c>
       <c r="J21">
-        <v>0.781067948880681</v>
+        <v>0.791464011641357</v>
       </c>
       <c r="K21">
-        <v>0.776990189498958</v>
+        <v>0.7874889172622994</v>
       </c>
       <c r="L21">
-        <v>0.7977484438354207</v>
+        <v>0.8071625483930628</v>
       </c>
       <c r="M21">
-        <v>0.79652437307232</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.806112573219384</v>
+      </c>
+      <c r="N21">
+        <v>0.7925879813200788</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7338922364619914</v>
+        <v>0.7454668683664577</v>
       </c>
       <c r="D22">
-        <v>0.755199564358938</v>
+        <v>0.7661347907416577</v>
       </c>
       <c r="E22">
-        <v>0.7768035281739125</v>
+        <v>0.7865789232213364</v>
       </c>
       <c r="F22">
-        <v>0.7755315000192414</v>
+        <v>0.7854893015128382</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9916797805683605</v>
+        <v>0.9940310687723726</v>
       </c>
       <c r="J22">
-        <v>0.781067948880681</v>
+        <v>0.791464011641357</v>
       </c>
       <c r="K22">
-        <v>0.776990189498958</v>
+        <v>0.7874889172622994</v>
       </c>
       <c r="L22">
-        <v>0.7977484438354207</v>
+        <v>0.8071625483930628</v>
       </c>
       <c r="M22">
-        <v>0.79652437307232</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.806112573219384</v>
+      </c>
+      <c r="N22">
+        <v>0.7925879813200788</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7338922364619914</v>
+        <v>0.7454668683664577</v>
       </c>
       <c r="D23">
-        <v>0.755199564358938</v>
+        <v>0.7661347907416577</v>
       </c>
       <c r="E23">
-        <v>0.7768035281739125</v>
+        <v>0.7865789232213364</v>
       </c>
       <c r="F23">
-        <v>0.7755315000192414</v>
+        <v>0.7854893015128382</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9916797805683605</v>
+        <v>0.9940310687723726</v>
       </c>
       <c r="J23">
-        <v>0.781067948880681</v>
+        <v>0.791464011641357</v>
       </c>
       <c r="K23">
-        <v>0.776990189498958</v>
+        <v>0.7874889172622994</v>
       </c>
       <c r="L23">
-        <v>0.7977484438354207</v>
+        <v>0.8071625483930628</v>
       </c>
       <c r="M23">
-        <v>0.79652437307232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.806112573219384</v>
+      </c>
+      <c r="N23">
+        <v>0.7925879813200788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7338922364619914</v>
+        <v>0.7454668683664577</v>
       </c>
       <c r="D24">
-        <v>0.755199564358938</v>
+        <v>0.7661347907416577</v>
       </c>
       <c r="E24">
-        <v>0.7768035281739125</v>
+        <v>0.7865789232213364</v>
       </c>
       <c r="F24">
-        <v>0.7755315000192414</v>
+        <v>0.7854893015128382</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9916797805683605</v>
+        <v>0.9940310687723726</v>
       </c>
       <c r="J24">
-        <v>0.781067948880681</v>
+        <v>0.791464011641357</v>
       </c>
       <c r="K24">
-        <v>0.776990189498958</v>
+        <v>0.7874889172622994</v>
       </c>
       <c r="L24">
-        <v>0.7977484438354207</v>
+        <v>0.8071625483930628</v>
       </c>
       <c r="M24">
-        <v>0.79652437307232</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.806112573219384</v>
+      </c>
+      <c r="N24">
+        <v>0.7925879813200788</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7338922364619914</v>
+        <v>0.7454668683664577</v>
       </c>
       <c r="D25">
-        <v>0.755199564358938</v>
+        <v>0.7661347907416577</v>
       </c>
       <c r="E25">
-        <v>0.7768035281739125</v>
+        <v>0.7865789232213364</v>
       </c>
       <c r="F25">
-        <v>0.7755315000192414</v>
+        <v>0.7854893015128382</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9916797805683605</v>
+        <v>0.9940310687723726</v>
       </c>
       <c r="J25">
-        <v>0.781067948880681</v>
+        <v>0.791464011641357</v>
       </c>
       <c r="K25">
-        <v>0.776990189498958</v>
+        <v>0.7874889172622994</v>
       </c>
       <c r="L25">
-        <v>0.7977484438354207</v>
+        <v>0.8071625483930628</v>
       </c>
       <c r="M25">
-        <v>0.79652437307232</v>
+        <v>0.806112573219384</v>
+      </c>
+      <c r="N25">
+        <v>0.7925879813200788</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9200103393119203</v>
+        <v>0.9308207071304723</v>
       </c>
       <c r="D2">
-        <v>0.931247944862591</v>
+        <v>0.9465582685670435</v>
       </c>
       <c r="E2">
-        <v>0.9366036513865811</v>
+        <v>0.9440957811821729</v>
       </c>
       <c r="F2">
-        <v>0.9424960880685427</v>
+        <v>0.9538766986050403</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.032150656367113</v>
+        <v>1.040746784409207</v>
       </c>
       <c r="J2">
-        <v>0.9448784255954471</v>
+        <v>0.9552876169853596</v>
       </c>
       <c r="K2">
-        <v>0.9437561556247842</v>
+        <v>0.9588159991132748</v>
       </c>
       <c r="L2">
-        <v>0.9490230437081641</v>
+        <v>0.9563930949444659</v>
       </c>
       <c r="M2">
-        <v>0.954819258371735</v>
+        <v>0.9660183326291338</v>
       </c>
       <c r="N2">
-        <v>0.9462202613388628</v>
+        <v>0.9566442349744998</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9429331333506741</v>
+        <v>0.9499814348228399</v>
       </c>
       <c r="D3">
-        <v>0.953123785092243</v>
+        <v>0.9648152365702751</v>
       </c>
       <c r="E3">
-        <v>0.9565231869632982</v>
+        <v>0.9606451795209587</v>
       </c>
       <c r="F3">
-        <v>0.9634281448965077</v>
+        <v>0.9720012658088172</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.037169717109032</v>
+        <v>1.042165640256315</v>
       </c>
       <c r="J3">
-        <v>0.9651103764971029</v>
+        <v>0.9719351883732956</v>
       </c>
       <c r="K3">
-        <v>0.9643938006642092</v>
+        <v>0.9759190281019433</v>
       </c>
       <c r="L3">
-        <v>0.9677443409679471</v>
+        <v>0.9718076722610203</v>
       </c>
       <c r="M3">
-        <v>0.9745513910424395</v>
+        <v>0.9830053901002364</v>
       </c>
       <c r="N3">
-        <v>0.9664809439314361</v>
+        <v>0.9733154478233105</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9564314579790705</v>
+        <v>0.9614687681571807</v>
       </c>
       <c r="D4">
-        <v>0.9660196352240303</v>
+        <v>0.9757726265514796</v>
       </c>
       <c r="E4">
-        <v>0.9682663922552446</v>
+        <v>0.9705784226828849</v>
       </c>
       <c r="F4">
-        <v>0.9757723648161547</v>
+        <v>0.9828785640546668</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040100035917579</v>
+        <v>1.042998132540094</v>
       </c>
       <c r="J4">
-        <v>0.9770193580112719</v>
+        <v>0.9819122414081854</v>
       </c>
       <c r="K4">
-        <v>0.976546244817441</v>
+        <v>0.9861725252681626</v>
       </c>
       <c r="L4">
-        <v>0.9787635284824209</v>
+        <v>0.9810454076518267</v>
       </c>
       <c r="M4">
-        <v>0.9861722668907914</v>
+        <v>0.9931881185427236</v>
       </c>
       <c r="N4">
-        <v>0.9784068375653344</v>
+        <v>0.9833066694178936</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9618410757975178</v>
+        <v>0.9661108798428554</v>
       </c>
       <c r="D5">
-        <v>0.9711904913431076</v>
+        <v>0.9802028790424445</v>
       </c>
       <c r="E5">
-        <v>0.972975023807248</v>
+        <v>0.9745946533063023</v>
       </c>
       <c r="F5">
-        <v>0.9807225911376231</v>
+        <v>0.9872759996826714</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.041267557674838</v>
+        <v>1.043329772332208</v>
       </c>
       <c r="J5">
-        <v>0.9817903438463934</v>
+        <v>0.9859427972800558</v>
       </c>
       <c r="K5">
-        <v>0.9814158340155543</v>
+        <v>0.9903154929969084</v>
       </c>
       <c r="L5">
-        <v>0.9831778383517163</v>
+        <v>0.9847771105331731</v>
       </c>
       <c r="M5">
-        <v>0.9908287830863087</v>
+        <v>0.9973019330403312</v>
       </c>
       <c r="N5">
-        <v>0.9831845987475816</v>
+        <v>0.987342949141413</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9627351120225638</v>
+        <v>0.9668800958445731</v>
       </c>
       <c r="D6">
-        <v>0.9720452099930803</v>
+        <v>0.9809371103973746</v>
       </c>
       <c r="E6">
-        <v>0.973753331558573</v>
+        <v>0.9752602690750323</v>
       </c>
       <c r="F6">
-        <v>0.9815408596911495</v>
+        <v>0.9880047594308893</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.041460088815374</v>
+        <v>1.04338443383115</v>
       </c>
       <c r="J6">
-        <v>0.9825787229268482</v>
+        <v>0.9866105935241656</v>
       </c>
       <c r="K6">
-        <v>0.9822205684039209</v>
+        <v>0.9910019545876086</v>
       </c>
       <c r="L6">
-        <v>0.9839072651111969</v>
+        <v>0.9853953788561597</v>
       </c>
       <c r="M6">
-        <v>0.9915982904041564</v>
+        <v>0.9979835245230788</v>
       </c>
       <c r="N6">
-        <v>0.9839740974167591</v>
+        <v>0.988011693732787</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9565047233477698</v>
+        <v>0.9615314964265219</v>
       </c>
       <c r="D7">
-        <v>0.9660896569279044</v>
+        <v>0.9758324834877846</v>
       </c>
       <c r="E7">
-        <v>0.9683301550993497</v>
+        <v>0.9706326856820811</v>
       </c>
       <c r="F7">
-        <v>0.9758393972596716</v>
+        <v>0.9829379796743219</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040115876585201</v>
+        <v>1.043002633523649</v>
       </c>
       <c r="J7">
-        <v>0.9770839813721069</v>
+        <v>0.9819667111964033</v>
       </c>
       <c r="K7">
-        <v>0.9766121995555751</v>
+        <v>0.986228511410003</v>
       </c>
       <c r="L7">
-        <v>0.978823321533834</v>
+        <v>0.9810958395070576</v>
       </c>
       <c r="M7">
-        <v>0.9862353365250677</v>
+        <v>0.9932437132632356</v>
       </c>
       <c r="N7">
-        <v>0.9784715526987545</v>
+        <v>0.9833612165594585</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9280722361473609</v>
+        <v>0.9375060999139903</v>
       </c>
       <c r="D8">
-        <v>0.938938022583771</v>
+        <v>0.9529253406136731</v>
       </c>
       <c r="E8">
-        <v>0.9436057434466614</v>
+        <v>0.9498671096978296</v>
       </c>
       <c r="F8">
-        <v>0.9498529161710753</v>
+        <v>0.9601975310005787</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033920819185062</v>
+        <v>1.041245497978328</v>
       </c>
       <c r="J8">
-        <v>0.9519946155142941</v>
+        <v>0.9610966433230734</v>
       </c>
       <c r="K8">
-        <v>0.9510139745893722</v>
+        <v>0.9647831219534198</v>
       </c>
       <c r="L8">
-        <v>0.9556079696152849</v>
+        <v>0.9617718917314795</v>
       </c>
       <c r="M8">
-        <v>0.9617579172401083</v>
+        <v>0.9719450796502156</v>
       </c>
       <c r="N8">
-        <v>0.9533465570636329</v>
+        <v>0.9624615107959181</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8637362014170095</v>
+        <v>0.8861706063360379</v>
       </c>
       <c r="D9">
-        <v>0.8776950406006249</v>
+        <v>0.9041289018474171</v>
       </c>
       <c r="E9">
-        <v>0.8878611549680101</v>
+        <v>0.9056478606146041</v>
       </c>
       <c r="F9">
-        <v>0.8913342781305711</v>
+        <v>0.9117708568945044</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.019726705261288</v>
+        <v>1.037354059897527</v>
       </c>
       <c r="J9">
-        <v>0.8952252187651007</v>
+        <v>0.9164997823030658</v>
       </c>
       <c r="K9">
-        <v>0.8931421809450916</v>
+        <v>0.9189958384387147</v>
       </c>
       <c r="L9">
-        <v>0.9030797160646961</v>
+        <v>0.9204828179464758</v>
       </c>
       <c r="M9">
-        <v>0.9064763359233059</v>
+        <v>0.9264783304001785</v>
       </c>
       <c r="N9">
-        <v>0.8964965412595149</v>
+        <v>0.9178013171179304</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.798458453080627</v>
+        <v>0.8410081355779238</v>
       </c>
       <c r="D10">
-        <v>0.8159190249998834</v>
+        <v>0.861415039413191</v>
       </c>
       <c r="E10">
-        <v>0.8317157731666823</v>
+        <v>0.8669769107308849</v>
       </c>
       <c r="F10">
-        <v>0.8325603700825579</v>
+        <v>0.8694408184838975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.005399768868802</v>
+        <v>1.033892569505112</v>
       </c>
       <c r="J10">
-        <v>0.8378019495037514</v>
+        <v>0.877339470459289</v>
       </c>
       <c r="K10">
-        <v>0.8346555990943582</v>
+        <v>0.8788358671534734</v>
       </c>
       <c r="L10">
-        <v>0.8499730881890325</v>
+        <v>0.8842497229425214</v>
       </c>
       <c r="M10">
-        <v>0.8507927637362279</v>
+        <v>0.8866488802390385</v>
       </c>
       <c r="N10">
-        <v>0.8389917243692733</v>
+        <v>0.8785853931395852</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.752305663139437</v>
+        <v>0.8163099595243256</v>
       </c>
       <c r="D11">
-        <v>0.7725375984552206</v>
+        <v>0.8381609048497085</v>
       </c>
       <c r="E11">
-        <v>0.7923768318871161</v>
+        <v>0.8459465968871662</v>
       </c>
       <c r="F11">
-        <v>0.7915246822357074</v>
+        <v>0.8464340194225404</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.9954798650846303</v>
+        <v>1.032017430402998</v>
       </c>
       <c r="J11">
-        <v>0.7974253282638747</v>
+        <v>0.8559816938671965</v>
       </c>
       <c r="K11">
-        <v>0.7935555293535487</v>
+        <v>0.8569517852605345</v>
       </c>
       <c r="L11">
-        <v>0.8126669682619057</v>
+        <v>0.8645046522756297</v>
       </c>
       <c r="M11">
-        <v>0.8118450303170832</v>
+        <v>0.8649776944170751</v>
       </c>
       <c r="N11">
-        <v>0.7985577636959728</v>
+        <v>0.8571972860549605</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.7249040144554234</v>
+        <v>0.8058369012703317</v>
       </c>
       <c r="D12">
-        <v>0.746927595087688</v>
+        <v>0.8283257353973889</v>
       </c>
       <c r="E12">
-        <v>0.7692013659495326</v>
+        <v>0.8370581809025796</v>
       </c>
       <c r="F12">
-        <v>0.7674221864180091</v>
+        <v>0.8367135214228538</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9897131251422375</v>
+        <v>1.031229552491215</v>
       </c>
       <c r="J12">
-        <v>0.7735794252164089</v>
+        <v>0.8469415294214911</v>
       </c>
       <c r="K12">
-        <v>0.7692907097419397</v>
+        <v>0.8476930292545279</v>
       </c>
       <c r="L12">
-        <v>0.790655453313739</v>
+        <v>0.8561516404513919</v>
       </c>
       <c r="M12">
-        <v>0.7889461443934176</v>
+        <v>0.8558176393760706</v>
       </c>
       <c r="N12">
-        <v>0.7746779967310166</v>
+        <v>0.8481442835388209</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.7318824124945865</v>
+        <v>0.8081576333244936</v>
       </c>
       <c r="D13">
-        <v>0.7534381212197425</v>
+        <v>0.830503732904643</v>
       </c>
       <c r="E13">
-        <v>0.7750890649509732</v>
+        <v>0.8390261707998352</v>
       </c>
       <c r="F13">
-        <v>0.7735396435762061</v>
+        <v>0.8388655696157993</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9911718152144097</v>
+        <v>1.031403705097915</v>
       </c>
       <c r="J13">
-        <v>0.7796418796399943</v>
+        <v>0.8489438149687447</v>
       </c>
       <c r="K13">
-        <v>0.7754590922372979</v>
+        <v>0.8497435119636261</v>
       </c>
       <c r="L13">
-        <v>0.7962497710228955</v>
+        <v>0.8580014733011255</v>
       </c>
       <c r="M13">
-        <v>0.7947596580887785</v>
+        <v>0.8578457875674644</v>
       </c>
       <c r="N13">
-        <v>0.7807490605352565</v>
+        <v>0.8501494125612171</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.7504179624196194</v>
+        <v>0.8154759719216544</v>
       </c>
       <c r="D14">
-        <v>0.7707695335767578</v>
+        <v>0.8373771322181114</v>
       </c>
       <c r="E14">
-        <v>0.7907755665495201</v>
+        <v>0.8452381263304848</v>
       </c>
       <c r="F14">
-        <v>0.7898574787871905</v>
+        <v>0.8456591525807639</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9950793516883137</v>
+        <v>1.031954511472361</v>
       </c>
       <c r="J14">
-        <v>0.7957792129667727</v>
+        <v>0.8552614229714106</v>
       </c>
       <c r="K14">
-        <v>0.7918803004505963</v>
+        <v>0.8562140057857888</v>
       </c>
       <c r="L14">
-        <v>0.8111469124739549</v>
+        <v>0.8638390230609355</v>
       </c>
       <c r="M14">
-        <v>0.8102616091150004</v>
+        <v>0.8642475806569055</v>
       </c>
       <c r="N14">
-        <v>0.7969093107263368</v>
+        <v>0.8564759922918864</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.7598319962646367</v>
+        <v>0.8197874508214572</v>
       </c>
       <c r="D15">
-        <v>0.7795921797439535</v>
+        <v>0.8414300734543613</v>
       </c>
       <c r="E15">
-        <v>0.7987676223877891</v>
+        <v>0.8489019364866933</v>
       </c>
       <c r="F15">
-        <v>0.7981812510824737</v>
+        <v>0.8496664621986385</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9970811778494749</v>
+        <v>1.032280098164055</v>
       </c>
       <c r="J15">
-        <v>0.8039930203562218</v>
+        <v>0.8589857113228558</v>
       </c>
       <c r="K15">
-        <v>0.8002396697599666</v>
+        <v>0.8600289965078237</v>
       </c>
       <c r="L15">
-        <v>0.8187324700345013</v>
+        <v>0.8672809682550087</v>
       </c>
       <c r="M15">
-        <v>0.8181662953179962</v>
+        <v>0.868023293465798</v>
       </c>
       <c r="N15">
-        <v>0.8051347826644158</v>
+        <v>0.8602055695599723</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.8008851856832416</v>
+        <v>0.842504932190586</v>
       </c>
       <c r="D16">
-        <v>0.8182075306196436</v>
+        <v>0.8628268824653671</v>
       </c>
       <c r="E16">
-        <v>0.8337933931179244</v>
+        <v>0.8682543315885982</v>
       </c>
       <c r="F16">
-        <v>0.8347313342678238</v>
+        <v>0.870838629160687</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.005927316561797</v>
+        <v>1.034006830626026</v>
       </c>
       <c r="J16">
-        <v>0.8399310572456933</v>
+        <v>0.8786353768850417</v>
       </c>
       <c r="K16">
-        <v>0.8368233716700746</v>
+        <v>0.8801641457489009</v>
       </c>
       <c r="L16">
-        <v>0.8519412708330893</v>
+        <v>0.8854482069359125</v>
       </c>
       <c r="M16">
-        <v>0.8528518146924648</v>
+        <v>0.8879650805390233</v>
       </c>
       <c r="N16">
-        <v>0.8411238556884211</v>
+        <v>0.8798831399011048</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.820423644354396</v>
+        <v>0.8551391811765305</v>
       </c>
       <c r="D17">
-        <v>0.8366573542258904</v>
+        <v>0.874754978878539</v>
       </c>
       <c r="E17">
-        <v>0.8505503312233923</v>
+        <v>0.8790491425787608</v>
       </c>
       <c r="F17">
-        <v>0.8522531333993347</v>
+        <v>0.8826522169062946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.010192119123015</v>
+        <v>1.034973308677717</v>
       </c>
       <c r="J17">
-        <v>0.8570914504171908</v>
+        <v>0.8895800534175402</v>
       </c>
       <c r="K17">
-        <v>0.8542974169187181</v>
+        <v>0.8913841856730027</v>
       </c>
       <c r="L17">
-        <v>0.867807497405083</v>
+        <v>0.8955718035791187</v>
       </c>
       <c r="M17">
-        <v>0.8694645363803513</v>
+        <v>0.8990865549129466</v>
       </c>
       <c r="N17">
-        <v>0.8583086185865465</v>
+        <v>0.8908433591296512</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.8305548543383484</v>
+        <v>0.862059345822565</v>
       </c>
       <c r="D18">
-        <v>0.8462401984773487</v>
+        <v>0.8812963583939563</v>
       </c>
       <c r="E18">
-        <v>0.8592585602104874</v>
+        <v>0.8849707191002467</v>
       </c>
       <c r="F18">
-        <v>0.8613667543193008</v>
+        <v>0.8891336819024416</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.012414130335265</v>
+        <v>1.035503838377508</v>
       </c>
       <c r="J18">
-        <v>0.8660010823956095</v>
+        <v>0.8955790360493681</v>
       </c>
       <c r="K18">
-        <v>0.863371367933949</v>
+        <v>0.8975355745089574</v>
       </c>
       <c r="L18">
-        <v>0.8760469963868804</v>
+        <v>0.9011219313002001</v>
       </c>
       <c r="M18">
-        <v>0.8781010059825726</v>
+        <v>0.905186364965587</v>
       </c>
       <c r="N18">
-        <v>0.8672309032643241</v>
+        <v>0.8968508610049093</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.833840000206426</v>
+        <v>0.8643519054615025</v>
       </c>
       <c r="D19">
-        <v>0.8493497681669766</v>
+        <v>0.8834646340430566</v>
       </c>
       <c r="E19">
-        <v>0.86208494621681</v>
+        <v>0.8869337927545919</v>
       </c>
       <c r="F19">
-        <v>0.8643258029858069</v>
+        <v>0.8912825170960025</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.013135952316883</v>
+        <v>1.035679714255604</v>
       </c>
       <c r="J19">
-        <v>0.8688916227198809</v>
+        <v>0.8975670209863734</v>
       </c>
       <c r="K19">
-        <v>0.8663154435849306</v>
+        <v>0.8995742930032935</v>
       </c>
       <c r="L19">
-        <v>0.878720357766255</v>
+        <v>0.9029613417830648</v>
       </c>
       <c r="M19">
-        <v>0.8809044610436894</v>
+        <v>0.9072083458286953</v>
       </c>
       <c r="N19">
-        <v>0.8701255484874052</v>
+        <v>0.8988416691085503</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8184705244497268</v>
+        <v>0.8538324455892308</v>
       </c>
       <c r="D20">
-        <v>0.8348111784154837</v>
+        <v>0.8735203924711331</v>
       </c>
       <c r="E20">
-        <v>0.8488730024059936</v>
+        <v>0.8779316637386563</v>
       </c>
       <c r="F20">
-        <v>0.850498319694093</v>
+        <v>0.8814291593376653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.009764518609083</v>
+        <v>1.034873204678809</v>
       </c>
       <c r="J20">
-        <v>0.8553746802021653</v>
+        <v>0.8884475858238652</v>
       </c>
       <c r="K20">
-        <v>0.852549102712711</v>
+        <v>0.890223063910028</v>
       </c>
       <c r="L20">
-        <v>0.866219984767972</v>
+        <v>0.8945241598620362</v>
       </c>
       <c r="M20">
-        <v>0.8678012489400425</v>
+        <v>0.8979353572976101</v>
       </c>
       <c r="N20">
-        <v>0.8565894103608996</v>
+        <v>0.8897092833020976</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.7454668683664577</v>
+        <v>0.8133640166733002</v>
       </c>
       <c r="D21">
-        <v>0.7661347907416577</v>
+        <v>0.8353927835504361</v>
       </c>
       <c r="E21">
-        <v>0.7865789232213364</v>
+        <v>0.8434445370321028</v>
       </c>
       <c r="F21">
-        <v>0.7854893015128382</v>
+        <v>0.8436975285225974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9940310687723726</v>
+        <v>1.031795312246236</v>
       </c>
       <c r="J21">
-        <v>0.791464011641357</v>
+        <v>0.8534377321201915</v>
       </c>
       <c r="K21">
-        <v>0.7874889172622994</v>
+        <v>0.8543460552942049</v>
       </c>
       <c r="L21">
-        <v>0.8071625483930628</v>
+        <v>0.8621537631901259</v>
       </c>
       <c r="M21">
-        <v>0.806112573219384</v>
+        <v>0.8623991903830636</v>
       </c>
       <c r="N21">
-        <v>0.7925879813200788</v>
+        <v>0.8546497115904781</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7454668683664577</v>
+        <v>0.7794353244078051</v>
       </c>
       <c r="D22">
-        <v>0.7661347907416577</v>
+        <v>0.8036069304563024</v>
       </c>
       <c r="E22">
-        <v>0.7865789232213364</v>
+        <v>0.8147382324389675</v>
       </c>
       <c r="F22">
-        <v>0.7854893015128382</v>
+        <v>0.8123131469924819</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9940310687723726</v>
+        <v>1.02926811836357</v>
       </c>
       <c r="J22">
-        <v>0.791464011641357</v>
+        <v>0.8242040671424031</v>
       </c>
       <c r="K22">
-        <v>0.7874889172622994</v>
+        <v>0.8244171588697944</v>
       </c>
       <c r="L22">
-        <v>0.8071625483930628</v>
+        <v>0.8351567818101941</v>
       </c>
       <c r="M22">
-        <v>0.806112573219384</v>
+        <v>0.8328157506013029</v>
       </c>
       <c r="N22">
-        <v>0.7925879813200788</v>
+        <v>0.8253745314552734</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7454668683664577</v>
+        <v>0.7986350998682816</v>
       </c>
       <c r="D23">
-        <v>0.7661347907416577</v>
+        <v>0.8215720395063097</v>
       </c>
       <c r="E23">
-        <v>0.7865789232213364</v>
+        <v>0.8309570185115572</v>
       </c>
       <c r="F23">
-        <v>0.7854893015128382</v>
+        <v>0.8300423770387426</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9940310687723726</v>
+        <v>1.030690795186582</v>
       </c>
       <c r="J23">
-        <v>0.791464011641357</v>
+        <v>0.8407314920938964</v>
       </c>
       <c r="K23">
-        <v>0.7874889172622994</v>
+        <v>0.8413343075218951</v>
       </c>
       <c r="L23">
-        <v>0.8071625483930628</v>
+        <v>0.8504154092595447</v>
       </c>
       <c r="M23">
-        <v>0.806112573219384</v>
+        <v>0.8495299645683585</v>
       </c>
       <c r="N23">
-        <v>0.7925879813200788</v>
+        <v>0.8419254272459196</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.7454668683664577</v>
+        <v>0.8544242610691627</v>
       </c>
       <c r="D24">
-        <v>0.7661347907416577</v>
+        <v>0.8740795070243347</v>
       </c>
       <c r="E24">
-        <v>0.7865789232213364</v>
+        <v>0.8784377378661936</v>
       </c>
       <c r="F24">
-        <v>0.7854893015128382</v>
+        <v>0.8819830438497237</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>0.9940310687723726</v>
+        <v>1.034918537960642</v>
       </c>
       <c r="J24">
-        <v>0.791464011641357</v>
+        <v>0.8889604629325395</v>
       </c>
       <c r="K24">
-        <v>0.7874889172622994</v>
+        <v>0.8907489134485768</v>
       </c>
       <c r="L24">
-        <v>0.8071625483930628</v>
+        <v>0.8949986178671872</v>
       </c>
       <c r="M24">
-        <v>0.806112573219384</v>
+        <v>0.898456704782431</v>
       </c>
       <c r="N24">
-        <v>0.7925879813200788</v>
+        <v>0.890222888755094</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.7454668683664577</v>
+        <v>0.9008684658658336</v>
       </c>
       <c r="D25">
-        <v>0.7661347907416577</v>
+        <v>0.9180761492896344</v>
       </c>
       <c r="E25">
-        <v>0.7865789232213364</v>
+        <v>0.9182835565890474</v>
       </c>
       <c r="F25">
-        <v>0.7854893015128382</v>
+        <v>0.9256074161198158</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>0.9940310687723726</v>
+        <v>1.038479011576236</v>
       </c>
       <c r="J25">
-        <v>0.791464011641357</v>
+        <v>0.9292637250570565</v>
       </c>
       <c r="K25">
-        <v>0.7874889172622994</v>
+        <v>0.9320949584600688</v>
       </c>
       <c r="L25">
-        <v>0.8071625483930628</v>
+        <v>0.9322983500559083</v>
       </c>
       <c r="M25">
-        <v>0.806112573219384</v>
+        <v>0.939481917444993</v>
       </c>
       <c r="N25">
-        <v>0.7925879813200788</v>
+        <v>0.9305833861346765</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9308207071304723</v>
+        <v>1.018839458330519</v>
       </c>
       <c r="D2">
-        <v>0.9465582685670435</v>
+        <v>1.030982093100157</v>
       </c>
       <c r="E2">
-        <v>0.9440957811821729</v>
+        <v>1.022042629096099</v>
       </c>
       <c r="F2">
-        <v>0.9538766986050403</v>
+        <v>1.037436289865793</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040746784409207</v>
+        <v>1.056658189302772</v>
       </c>
       <c r="J2">
-        <v>0.9552876169853596</v>
+        <v>1.040470923694261</v>
       </c>
       <c r="K2">
-        <v>0.9588159991132748</v>
+        <v>1.042026034397609</v>
       </c>
       <c r="L2">
-        <v>0.9563930949444659</v>
+        <v>1.033203184430886</v>
       </c>
       <c r="M2">
-        <v>0.9660183326291338</v>
+        <v>1.048397597486219</v>
       </c>
       <c r="N2">
-        <v>0.9566442349744998</v>
+        <v>1.04194851174959</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9499814348228399</v>
+        <v>1.026471431414206</v>
       </c>
       <c r="D3">
-        <v>0.9648152365702751</v>
+        <v>1.037729037699856</v>
       </c>
       <c r="E3">
-        <v>0.9606451795209587</v>
+        <v>1.028436445139277</v>
       </c>
       <c r="F3">
-        <v>0.9720012658088172</v>
+        <v>1.044530999042919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042165640256315</v>
+        <v>1.059253866446989</v>
       </c>
       <c r="J3">
-        <v>0.9719351883732956</v>
+        <v>1.046265579317238</v>
       </c>
       <c r="K3">
-        <v>0.9759190281019433</v>
+        <v>1.047900896808476</v>
       </c>
       <c r="L3">
-        <v>0.9718076722610203</v>
+        <v>1.038717959223443</v>
       </c>
       <c r="M3">
-        <v>0.9830053901002364</v>
+        <v>1.054624120569845</v>
       </c>
       <c r="N3">
-        <v>0.9733154478233105</v>
+        <v>1.047751396448207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9614687681571807</v>
+        <v>1.031260009731148</v>
       </c>
       <c r="D4">
-        <v>0.9757726265514796</v>
+        <v>1.041967286534255</v>
       </c>
       <c r="E4">
-        <v>0.9705784226828849</v>
+        <v>1.032453591470217</v>
       </c>
       <c r="F4">
-        <v>0.9828785640546668</v>
+        <v>1.048988633983533</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.042998132540094</v>
+        <v>1.060865953563889</v>
       </c>
       <c r="J4">
-        <v>0.9819122414081854</v>
+        <v>1.049896528158336</v>
       </c>
       <c r="K4">
-        <v>0.9861725252681626</v>
+        <v>1.051584273413608</v>
       </c>
       <c r="L4">
-        <v>0.9810454076518267</v>
+        <v>1.04217549421582</v>
       </c>
       <c r="M4">
-        <v>0.9931881185427236</v>
+        <v>1.05852968618636</v>
       </c>
       <c r="N4">
-        <v>0.9833066694178936</v>
+        <v>1.051387501653136</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9661108798428554</v>
+        <v>1.033239287310173</v>
       </c>
       <c r="D5">
-        <v>0.9802028790424445</v>
+        <v>1.043720206708898</v>
       </c>
       <c r="E5">
-        <v>0.9745946533063023</v>
+        <v>1.03411522543798</v>
       </c>
       <c r="F5">
-        <v>0.9872759996826714</v>
+        <v>1.050832517652487</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043329772332208</v>
+        <v>1.061528250009064</v>
       </c>
       <c r="J5">
-        <v>0.9859427972800558</v>
+        <v>1.051396096276699</v>
       </c>
       <c r="K5">
-        <v>0.9903154929969084</v>
+        <v>1.053106011180447</v>
       </c>
       <c r="L5">
-        <v>0.9847771105331731</v>
+        <v>1.043603904303384</v>
       </c>
       <c r="M5">
-        <v>0.9973019330403312</v>
+        <v>1.060143625996704</v>
       </c>
       <c r="N5">
-        <v>0.987342949141413</v>
+        <v>1.05288919933023</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9668800958445731</v>
+        <v>1.033569688001806</v>
       </c>
       <c r="D6">
-        <v>0.9809371103973746</v>
+        <v>1.044012884743157</v>
       </c>
       <c r="E6">
-        <v>0.9752602690750323</v>
+        <v>1.034392670882683</v>
       </c>
       <c r="F6">
-        <v>0.9880047594308893</v>
+        <v>1.051140396905322</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04338443383115</v>
+        <v>1.061638568110109</v>
       </c>
       <c r="J6">
-        <v>0.9866105935241656</v>
+        <v>1.051646345374484</v>
       </c>
       <c r="K6">
-        <v>0.9910019545876086</v>
+        <v>1.053359990299123</v>
       </c>
       <c r="L6">
-        <v>0.9853953788561597</v>
+        <v>1.043842305377542</v>
       </c>
       <c r="M6">
-        <v>0.9979835245230788</v>
+        <v>1.060413017625062</v>
       </c>
       <c r="N6">
-        <v>0.988011693732787</v>
+        <v>1.053139803810437</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9615314964265219</v>
+        <v>1.031286587354922</v>
       </c>
       <c r="D7">
-        <v>0.9758324834877846</v>
+        <v>1.041990820344297</v>
       </c>
       <c r="E7">
-        <v>0.9706326856820811</v>
+        <v>1.032475899098247</v>
       </c>
       <c r="F7">
-        <v>0.9829379796743219</v>
+        <v>1.04901338812261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043002633523649</v>
+        <v>1.060874862888239</v>
       </c>
       <c r="J7">
-        <v>0.9819667111964033</v>
+        <v>1.04991666919456</v>
       </c>
       <c r="K7">
-        <v>0.986228511410003</v>
+        <v>1.051604710171484</v>
       </c>
       <c r="L7">
-        <v>0.9810958395070576</v>
+        <v>1.042194677697431</v>
       </c>
       <c r="M7">
-        <v>0.9932437132632356</v>
+        <v>1.058551359595282</v>
       </c>
       <c r="N7">
-        <v>0.9833612165594585</v>
+        <v>1.051407671291942</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9375060999139903</v>
+        <v>1.021451016749117</v>
       </c>
       <c r="D8">
-        <v>0.9529253406136731</v>
+        <v>1.033289705721593</v>
       </c>
       <c r="E8">
-        <v>0.9498671096978296</v>
+        <v>1.024229302689129</v>
       </c>
       <c r="F8">
-        <v>0.9601975310005787</v>
+        <v>1.039862652018543</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041245497978328</v>
+        <v>1.057549845776014</v>
       </c>
       <c r="J8">
-        <v>0.9610966433230734</v>
+        <v>1.042454755724204</v>
       </c>
       <c r="K8">
-        <v>0.9647831219534198</v>
+        <v>1.044036864683786</v>
       </c>
       <c r="L8">
-        <v>0.9617718917314795</v>
+        <v>1.035090777445271</v>
       </c>
       <c r="M8">
-        <v>0.9719450796502156</v>
+        <v>1.050528431014994</v>
       </c>
       <c r="N8">
-        <v>0.9624615107959181</v>
+        <v>1.043935161048565</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.8861706063360379</v>
+        <v>1.002870780180323</v>
       </c>
       <c r="D9">
-        <v>0.9041289018474171</v>
+        <v>1.016897204682457</v>
       </c>
       <c r="E9">
-        <v>0.9056478606146041</v>
+        <v>1.008699633411592</v>
       </c>
       <c r="F9">
-        <v>0.9117708568945044</v>
+        <v>1.022630465282194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037354059897527</v>
+        <v>1.051137301546667</v>
       </c>
       <c r="J9">
-        <v>0.9164997823030658</v>
+        <v>1.028322569498823</v>
       </c>
       <c r="K9">
-        <v>0.9189958384387147</v>
+        <v>1.029721958616311</v>
       </c>
       <c r="L9">
-        <v>0.9204828179464758</v>
+        <v>1.021653124554412</v>
       </c>
       <c r="M9">
-        <v>0.9264783304001785</v>
+        <v>1.035366747258105</v>
       </c>
       <c r="N9">
-        <v>0.9178013171179304</v>
+        <v>1.029782905497759</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.8410081355779238</v>
+        <v>0.9894840407167962</v>
       </c>
       <c r="D10">
-        <v>0.861415039413191</v>
+        <v>1.005123937965245</v>
       </c>
       <c r="E10">
-        <v>0.8669769107308849</v>
+        <v>0.9975515958922715</v>
       </c>
       <c r="F10">
-        <v>0.8694408184838975</v>
+        <v>1.010258912950275</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.033892569505112</v>
+        <v>1.04643241435998</v>
       </c>
       <c r="J10">
-        <v>0.877339470459289</v>
+        <v>1.01812118779012</v>
       </c>
       <c r="K10">
-        <v>0.8788358671534734</v>
+        <v>1.019401290337504</v>
       </c>
       <c r="L10">
-        <v>0.8842497229425214</v>
+        <v>1.01196519819518</v>
       </c>
       <c r="M10">
-        <v>0.8866488802390385</v>
+        <v>1.024445377499197</v>
       </c>
       <c r="N10">
-        <v>0.8785853931395852</v>
+        <v>1.019567036656915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8163099595243256</v>
+        <v>0.9834078475085846</v>
       </c>
       <c r="D11">
-        <v>0.8381609048497085</v>
+        <v>0.9997907128484791</v>
       </c>
       <c r="E11">
-        <v>0.8459465968871662</v>
+        <v>0.9925031911134108</v>
       </c>
       <c r="F11">
-        <v>0.8464340194225404</v>
+        <v>1.004655742952361</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032017430402998</v>
+        <v>1.044277960967023</v>
       </c>
       <c r="J11">
-        <v>0.8559816938671965</v>
+        <v>1.013487549073935</v>
       </c>
       <c r="K11">
-        <v>0.8569517852605345</v>
+        <v>1.014716577098109</v>
       </c>
       <c r="L11">
-        <v>0.8645046522756297</v>
+        <v>1.007567884762218</v>
       </c>
       <c r="M11">
-        <v>0.8649776944170751</v>
+        <v>1.019490389654899</v>
       </c>
       <c r="N11">
-        <v>0.8571972860549605</v>
+        <v>1.014926817642266</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8058369012703317</v>
+        <v>0.9811046432954077</v>
       </c>
       <c r="D12">
-        <v>0.8283257353973889</v>
+        <v>0.9977709010191713</v>
       </c>
       <c r="E12">
-        <v>0.8370581809025796</v>
+        <v>0.9905915139743224</v>
       </c>
       <c r="F12">
-        <v>0.8367135214228538</v>
+        <v>1.002533852637636</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031229552491215</v>
+        <v>1.043458581182059</v>
       </c>
       <c r="J12">
-        <v>0.8469415294214911</v>
+        <v>1.011730789787961</v>
       </c>
       <c r="K12">
-        <v>0.8476930292545279</v>
+        <v>1.012940932015688</v>
       </c>
       <c r="L12">
-        <v>0.8561516404513919</v>
+        <v>1.00590121314311</v>
       </c>
       <c r="M12">
-        <v>0.8558176393760706</v>
+        <v>1.017612668504969</v>
       </c>
       <c r="N12">
-        <v>0.8481442835388209</v>
+        <v>1.013167563556604</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8081576333244936</v>
+        <v>0.9816008549505547</v>
       </c>
       <c r="D13">
-        <v>0.830503732904643</v>
+        <v>0.9982059747346836</v>
       </c>
       <c r="E13">
-        <v>0.8390261707998352</v>
+        <v>0.9910032826298403</v>
       </c>
       <c r="F13">
-        <v>0.8388655696157993</v>
+        <v>1.002990907448774</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031403705097915</v>
+        <v>1.043635232675264</v>
       </c>
       <c r="J13">
-        <v>0.8489438149687447</v>
+        <v>1.012109287159521</v>
       </c>
       <c r="K13">
-        <v>0.8497435119636261</v>
+        <v>1.013323476595485</v>
       </c>
       <c r="L13">
-        <v>0.8580014733011255</v>
+        <v>1.006260278470765</v>
       </c>
       <c r="M13">
-        <v>0.8578457875674644</v>
+        <v>1.018017187701052</v>
       </c>
       <c r="N13">
-        <v>0.8501494125612171</v>
+        <v>1.013546598437845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8154759719216544</v>
+        <v>0.9832184336446822</v>
       </c>
       <c r="D14">
-        <v>0.8373771322181114</v>
+        <v>0.9996245680849257</v>
       </c>
       <c r="E14">
-        <v>0.8452381263304848</v>
+        <v>0.9923459356661986</v>
       </c>
       <c r="F14">
-        <v>0.8456591525807639</v>
+        <v>1.004481198342412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031954511472361</v>
+        <v>1.04421063029422</v>
       </c>
       <c r="J14">
-        <v>0.8552614229714106</v>
+        <v>1.01334308095972</v>
       </c>
       <c r="K14">
-        <v>0.8562140057857888</v>
+        <v>1.014570546137407</v>
       </c>
       <c r="L14">
-        <v>0.8638390230609355</v>
+        <v>1.007430815002305</v>
       </c>
       <c r="M14">
-        <v>0.8642475806569055</v>
+        <v>1.019335956389686</v>
       </c>
       <c r="N14">
-        <v>0.8564759922918864</v>
+        <v>1.014782144366759</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8197874508214572</v>
+        <v>0.9842088142901851</v>
       </c>
       <c r="D15">
-        <v>0.8414300734543613</v>
+        <v>1.000493355386292</v>
       </c>
       <c r="E15">
-        <v>0.8489019364866933</v>
+        <v>0.9931682508707149</v>
       </c>
       <c r="F15">
-        <v>0.8496664621986385</v>
+        <v>1.005393915555845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032280098164055</v>
+        <v>1.044562569479488</v>
       </c>
       <c r="J15">
-        <v>0.8589857113228558</v>
+        <v>1.014098441729371</v>
       </c>
       <c r="K15">
-        <v>0.8600289965078237</v>
+        <v>1.015334097841595</v>
       </c>
       <c r="L15">
-        <v>0.8672809682550087</v>
+        <v>1.008147513016787</v>
       </c>
       <c r="M15">
-        <v>0.868023293465798</v>
+        <v>1.02014345610895</v>
       </c>
       <c r="N15">
-        <v>0.8602055695599723</v>
+        <v>1.015538577835343</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.842504932190586</v>
+        <v>0.9898810585770995</v>
       </c>
       <c r="D16">
-        <v>0.8628268824653671</v>
+        <v>1.005472643802313</v>
       </c>
       <c r="E16">
-        <v>0.8682543315885982</v>
+        <v>0.9978817143340928</v>
       </c>
       <c r="F16">
-        <v>0.870838629160687</v>
+        <v>1.010625290537283</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034006830626026</v>
+        <v>1.046572804560777</v>
       </c>
       <c r="J16">
-        <v>0.8786353768850417</v>
+        <v>1.018423892302798</v>
       </c>
       <c r="K16">
-        <v>0.8801641457489009</v>
+        <v>1.019707396547749</v>
       </c>
       <c r="L16">
-        <v>0.8854482069359125</v>
+        <v>1.012252530148009</v>
       </c>
       <c r="M16">
-        <v>0.8879650805390233</v>
+        <v>1.024769193844647</v>
       </c>
       <c r="N16">
-        <v>0.8798831399011048</v>
+        <v>1.019870171044721</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.8551391811765305</v>
+        <v>0.9933614353254991</v>
       </c>
       <c r="D17">
-        <v>0.874754978878539</v>
+        <v>1.008530717647301</v>
       </c>
       <c r="E17">
-        <v>0.8790491425787608</v>
+        <v>1.00077696358869</v>
       </c>
       <c r="F17">
-        <v>0.8826522169062946</v>
+        <v>1.013838462367106</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034973308677717</v>
+        <v>1.047801388020168</v>
       </c>
       <c r="J17">
-        <v>0.8895800534175402</v>
+        <v>1.021077136019846</v>
       </c>
       <c r="K17">
-        <v>0.8913841856730027</v>
+        <v>1.022390807693059</v>
       </c>
       <c r="L17">
-        <v>0.8955718035791187</v>
+        <v>1.014771383519756</v>
       </c>
       <c r="M17">
-        <v>0.8990865549129466</v>
+        <v>1.027608127179666</v>
       </c>
       <c r="N17">
-        <v>0.8908433591296512</v>
+        <v>1.022527182672178</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.862059345822565</v>
+        <v>0.9953648124571058</v>
       </c>
       <c r="D18">
-        <v>0.8812963583939563</v>
+        <v>1.010291992166112</v>
       </c>
       <c r="E18">
-        <v>0.8849707191002467</v>
+        <v>1.002444608355231</v>
       </c>
       <c r="F18">
-        <v>0.8891336819024416</v>
+        <v>1.015689165762168</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035503838377508</v>
+        <v>1.048506803485839</v>
       </c>
       <c r="J18">
-        <v>0.8955790360493681</v>
+        <v>1.022604082566149</v>
       </c>
       <c r="K18">
-        <v>0.8975355745089574</v>
+        <v>1.023935406147083</v>
       </c>
       <c r="L18">
-        <v>0.9011219313002001</v>
+        <v>1.01622127767364</v>
       </c>
       <c r="M18">
-        <v>0.905186364965587</v>
+        <v>1.029242469753064</v>
       </c>
       <c r="N18">
-        <v>0.8968508610049093</v>
+        <v>1.024056297657721</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.8643519054615025</v>
+        <v>0.9960435078991484</v>
       </c>
       <c r="D19">
-        <v>0.8834646340430566</v>
+        <v>1.010888831248898</v>
       </c>
       <c r="E19">
-        <v>0.8869337927545919</v>
+        <v>1.003009743662405</v>
       </c>
       <c r="F19">
-        <v>0.8912825170960025</v>
+        <v>1.016316326762682</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035679714255604</v>
+        <v>1.048745475444377</v>
       </c>
       <c r="J19">
-        <v>0.8975670209863734</v>
+        <v>1.023121317780979</v>
       </c>
       <c r="K19">
-        <v>0.8995742930032935</v>
+        <v>1.024458669708911</v>
       </c>
       <c r="L19">
-        <v>0.9029613417830648</v>
+        <v>1.016712460779034</v>
       </c>
       <c r="M19">
-        <v>0.9072083458286953</v>
+        <v>1.029796173745334</v>
       </c>
       <c r="N19">
-        <v>0.8988416691085503</v>
+        <v>1.024574267405883</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.8538324455892308</v>
+        <v>0.992990810868165</v>
       </c>
       <c r="D20">
-        <v>0.8735203924711331</v>
+        <v>1.00820496070429</v>
       </c>
       <c r="E20">
-        <v>0.8779316637386563</v>
+        <v>1.000468535753814</v>
       </c>
       <c r="F20">
-        <v>0.8814291593376653</v>
+        <v>1.013496173336917</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034873204678809</v>
+        <v>1.047670741018391</v>
       </c>
       <c r="J20">
-        <v>0.8884475858238652</v>
+        <v>1.020794624698707</v>
       </c>
       <c r="K20">
-        <v>0.890223063910028</v>
+        <v>1.022105053935569</v>
       </c>
       <c r="L20">
-        <v>0.8945241598620362</v>
+        <v>1.014503151525483</v>
       </c>
       <c r="M20">
-        <v>0.8979353572976101</v>
+        <v>1.027305788692033</v>
       </c>
       <c r="N20">
-        <v>0.8897092833020976</v>
+        <v>1.02224427015256</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8133640166733002</v>
+        <v>0.9827434102407985</v>
       </c>
       <c r="D21">
-        <v>0.8353927835504361</v>
+        <v>0.9992079293528797</v>
       </c>
       <c r="E21">
-        <v>0.8434445370321028</v>
+        <v>0.9919515929278209</v>
       </c>
       <c r="F21">
-        <v>0.8436975285225974</v>
+        <v>1.004043497923623</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031795312246236</v>
+        <v>1.044041731014151</v>
       </c>
       <c r="J21">
-        <v>0.8534377321201915</v>
+        <v>1.012980769862095</v>
       </c>
       <c r="K21">
-        <v>0.8543460552942049</v>
+        <v>1.014204323309437</v>
       </c>
       <c r="L21">
-        <v>0.8621537631901259</v>
+        <v>1.00708706615896</v>
       </c>
       <c r="M21">
-        <v>0.8623991903830636</v>
+        <v>1.018948667801958</v>
       </c>
       <c r="N21">
-        <v>0.8546497115904781</v>
+        <v>1.014419318745818</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.7794353244078051</v>
+        <v>0.9760304112368741</v>
       </c>
       <c r="D22">
-        <v>0.8036069304563024</v>
+        <v>0.9933244890202843</v>
       </c>
       <c r="E22">
-        <v>0.8147382324389675</v>
+        <v>0.9863836751503912</v>
       </c>
       <c r="F22">
-        <v>0.8123131469924819</v>
+        <v>0.9978630054656146</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02926811836357</v>
+        <v>1.041648498900832</v>
       </c>
       <c r="J22">
-        <v>0.8242040671424031</v>
+        <v>1.007859933156506</v>
       </c>
       <c r="K22">
-        <v>0.8244171588697944</v>
+        <v>1.009029359247971</v>
       </c>
       <c r="L22">
-        <v>0.8351567818101941</v>
+        <v>1.002229787629723</v>
       </c>
       <c r="M22">
-        <v>0.8328157506013029</v>
+        <v>1.013476915838264</v>
       </c>
       <c r="N22">
-        <v>0.8253745314552734</v>
+        <v>1.009291209864739</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.7986350998682816</v>
+        <v>0.9796162679201488</v>
       </c>
       <c r="D23">
-        <v>0.8215720395063097</v>
+        <v>0.9964661810347563</v>
       </c>
       <c r="E23">
-        <v>0.8309570185115572</v>
+        <v>0.9893567237224665</v>
       </c>
       <c r="F23">
-        <v>0.8300423770387426</v>
+        <v>1.001163237026079</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030690795186582</v>
+        <v>1.042928329226509</v>
       </c>
       <c r="J23">
-        <v>0.8407314920938964</v>
+        <v>1.010595453702</v>
       </c>
       <c r="K23">
-        <v>0.8413343075218951</v>
+        <v>1.01179352704231</v>
       </c>
       <c r="L23">
-        <v>0.8504154092595447</v>
+        <v>1.004824238825464</v>
       </c>
       <c r="M23">
-        <v>0.8495299645683585</v>
+        <v>1.016399407031026</v>
       </c>
       <c r="N23">
-        <v>0.8419254272459196</v>
+        <v>1.012030615163175</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.8544242610691627</v>
+        <v>0.9931583622059172</v>
       </c>
       <c r="D24">
-        <v>0.8740795070243347</v>
+        <v>1.008352225360506</v>
       </c>
       <c r="E24">
-        <v>0.8784377378661936</v>
+        <v>1.000607965997964</v>
       </c>
       <c r="F24">
-        <v>0.8819830438497237</v>
+        <v>1.013650911323975</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034918537960642</v>
+        <v>1.047729809263334</v>
       </c>
       <c r="J24">
-        <v>0.8889604629325395</v>
+        <v>1.020922342974963</v>
       </c>
       <c r="K24">
-        <v>0.8907489134485768</v>
+        <v>1.022234237156875</v>
       </c>
       <c r="L24">
-        <v>0.8949986178671872</v>
+        <v>1.01462441347741</v>
       </c>
       <c r="M24">
-        <v>0.898456704782431</v>
+        <v>1.027442468823001</v>
       </c>
       <c r="N24">
-        <v>0.890222888755094</v>
+        <v>1.022372169803417</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9008684658658336</v>
+        <v>1.007837538632919</v>
       </c>
       <c r="D25">
-        <v>0.9180761492896344</v>
+        <v>1.021273347297513</v>
       </c>
       <c r="E25">
-        <v>0.9182835565890474</v>
+        <v>1.012844575974427</v>
       </c>
       <c r="F25">
-        <v>0.9256074161198158</v>
+        <v>1.027229938203827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038479011576236</v>
+        <v>1.052866216713735</v>
       </c>
       <c r="J25">
-        <v>0.9292637250570565</v>
+        <v>1.032103986872185</v>
       </c>
       <c r="K25">
-        <v>0.9320949584600688</v>
+        <v>1.033550159724075</v>
       </c>
       <c r="L25">
-        <v>0.9322983500559083</v>
+        <v>1.025246715786212</v>
       </c>
       <c r="M25">
-        <v>0.939481917444993</v>
+        <v>1.039419754692071</v>
       </c>
       <c r="N25">
-        <v>0.9305833861346765</v>
+        <v>1.033569692917526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.018839458330519</v>
+        <v>1.061049720912395</v>
       </c>
       <c r="D2">
-        <v>1.030982093100157</v>
+        <v>1.066633807911769</v>
       </c>
       <c r="E2">
-        <v>1.022042629096099</v>
+        <v>1.056691385512943</v>
       </c>
       <c r="F2">
-        <v>1.037436289865793</v>
+        <v>1.074611611373777</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056658189302772</v>
+        <v>1.04698292226123</v>
       </c>
       <c r="J2">
-        <v>1.040470923694261</v>
+        <v>1.066027408165287</v>
       </c>
       <c r="K2">
-        <v>1.042026034397609</v>
+        <v>1.069343830705615</v>
       </c>
       <c r="L2">
-        <v>1.033203184430886</v>
+        <v>1.059428401738694</v>
       </c>
       <c r="M2">
-        <v>1.048397597486219</v>
+        <v>1.077300365105973</v>
       </c>
       <c r="N2">
-        <v>1.04194851174959</v>
+        <v>1.067541289359935</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.026471431414206</v>
+        <v>1.062556202126101</v>
       </c>
       <c r="D3">
-        <v>1.037729037699856</v>
+        <v>1.068007345698905</v>
       </c>
       <c r="E3">
-        <v>1.028436445139277</v>
+        <v>1.057993591883989</v>
       </c>
       <c r="F3">
-        <v>1.044530999042919</v>
+        <v>1.07606399533798</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059253866446989</v>
+        <v>1.047372343799747</v>
       </c>
       <c r="J3">
-        <v>1.046265579317238</v>
+        <v>1.067185121795014</v>
       </c>
       <c r="K3">
-        <v>1.047900896808476</v>
+        <v>1.070531607977588</v>
       </c>
       <c r="L3">
-        <v>1.038717959223443</v>
+        <v>1.06054305454678</v>
       </c>
       <c r="M3">
-        <v>1.054624120569845</v>
+        <v>1.078568348806519</v>
       </c>
       <c r="N3">
-        <v>1.047751396448207</v>
+        <v>1.068700647075808</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.031260009731148</v>
+        <v>1.063529455790313</v>
       </c>
       <c r="D4">
-        <v>1.041967286534255</v>
+        <v>1.068894872495675</v>
       </c>
       <c r="E4">
-        <v>1.032453591470217</v>
+        <v>1.058835034177963</v>
       </c>
       <c r="F4">
-        <v>1.048988633983533</v>
+        <v>1.077002610832716</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060865953563889</v>
+        <v>1.047621890076945</v>
       </c>
       <c r="J4">
-        <v>1.049896528158336</v>
+        <v>1.067932279627217</v>
       </c>
       <c r="K4">
-        <v>1.051584273413608</v>
+        <v>1.071298400105542</v>
       </c>
       <c r="L4">
-        <v>1.04217549421582</v>
+        <v>1.061262590693808</v>
       </c>
       <c r="M4">
-        <v>1.05852968618636</v>
+        <v>1.079387122754626</v>
       </c>
       <c r="N4">
-        <v>1.051387501653136</v>
+        <v>1.069448865957832</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.033239287310173</v>
+        <v>1.063938250358308</v>
       </c>
       <c r="D5">
-        <v>1.043720206708898</v>
+        <v>1.069267697061578</v>
       </c>
       <c r="E5">
-        <v>1.03411522543798</v>
+        <v>1.059188501559345</v>
       </c>
       <c r="F5">
-        <v>1.050832517652487</v>
+        <v>1.077396930139711</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061528250009064</v>
+        <v>1.047726218491433</v>
       </c>
       <c r="J5">
-        <v>1.051396096276699</v>
+        <v>1.068245921063046</v>
       </c>
       <c r="K5">
-        <v>1.053106011180447</v>
+        <v>1.071620339195516</v>
       </c>
       <c r="L5">
-        <v>1.043603904303384</v>
+        <v>1.061564677479499</v>
       </c>
       <c r="M5">
-        <v>1.060143625996704</v>
+        <v>1.079730935090483</v>
       </c>
       <c r="N5">
-        <v>1.05288919933023</v>
+        <v>1.069762952800476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.033569688001806</v>
+        <v>1.064006867797172</v>
       </c>
       <c r="D6">
-        <v>1.044012884743157</v>
+        <v>1.069330279018318</v>
       </c>
       <c r="E6">
-        <v>1.034392670882683</v>
+        <v>1.059247834329063</v>
       </c>
       <c r="F6">
-        <v>1.051140396905322</v>
+        <v>1.077463122166894</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061638568110109</v>
+        <v>1.047743701694726</v>
       </c>
       <c r="J6">
-        <v>1.051646345374484</v>
+        <v>1.068298555809172</v>
       </c>
       <c r="K6">
-        <v>1.053359990299123</v>
+        <v>1.071674369700194</v>
       </c>
       <c r="L6">
-        <v>1.043842305377542</v>
+        <v>1.061615375511994</v>
       </c>
       <c r="M6">
-        <v>1.060413017625062</v>
+        <v>1.079788639394416</v>
       </c>
       <c r="N6">
-        <v>1.053139803810437</v>
+        <v>1.069815662293979</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.031286587354922</v>
+        <v>1.063534919533614</v>
       </c>
       <c r="D7">
-        <v>1.041990820344297</v>
+        <v>1.068899855334395</v>
       </c>
       <c r="E7">
-        <v>1.032475899098247</v>
+        <v>1.058839758299778</v>
       </c>
       <c r="F7">
-        <v>1.04901338812261</v>
+        <v>1.077007880817835</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060874862888239</v>
+        <v>1.047623286397908</v>
       </c>
       <c r="J7">
-        <v>1.04991666919456</v>
+        <v>1.06793647233464</v>
       </c>
       <c r="K7">
-        <v>1.051604710171484</v>
+        <v>1.071302703516056</v>
       </c>
       <c r="L7">
-        <v>1.042194677697431</v>
+        <v>1.061266628781858</v>
       </c>
       <c r="M7">
-        <v>1.058551359595282</v>
+        <v>1.079391718357288</v>
       </c>
       <c r="N7">
-        <v>1.051407671291942</v>
+        <v>1.069453064619381</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.021451016749117</v>
+        <v>1.061559166776242</v>
       </c>
       <c r="D8">
-        <v>1.033289705721593</v>
+        <v>1.067098262708112</v>
       </c>
       <c r="E8">
-        <v>1.024229302689129</v>
+        <v>1.057131718423172</v>
       </c>
       <c r="F8">
-        <v>1.039862652018543</v>
+        <v>1.075102698306535</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057549845776014</v>
+        <v>1.047115034723435</v>
       </c>
       <c r="J8">
-        <v>1.042454755724204</v>
+        <v>1.06641907217128</v>
       </c>
       <c r="K8">
-        <v>1.044036864683786</v>
+        <v>1.069745617383267</v>
       </c>
       <c r="L8">
-        <v>1.035090777445271</v>
+        <v>1.059805462930798</v>
       </c>
       <c r="M8">
-        <v>1.050528431014994</v>
+        <v>1.077729240904035</v>
       </c>
       <c r="N8">
-        <v>1.043935161048565</v>
+        <v>1.06793350957374</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.002870780180323</v>
+        <v>1.05806550271174</v>
       </c>
       <c r="D9">
-        <v>1.016897204682457</v>
+        <v>1.063913823573324</v>
       </c>
       <c r="E9">
-        <v>1.008699633411592</v>
+        <v>1.054112699313346</v>
       </c>
       <c r="F9">
-        <v>1.022630465282194</v>
+        <v>1.0717362424809</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051137301546667</v>
+        <v>1.046200676852647</v>
       </c>
       <c r="J9">
-        <v>1.028322569498823</v>
+        <v>1.063729954301296</v>
       </c>
       <c r="K9">
-        <v>1.029721958616311</v>
+        <v>1.066987953181933</v>
       </c>
       <c r="L9">
-        <v>1.021653124554412</v>
+        <v>1.057217301570183</v>
       </c>
       <c r="M9">
-        <v>1.035366747258105</v>
+        <v>1.074786487653932</v>
       </c>
       <c r="N9">
-        <v>1.029782905497759</v>
+        <v>1.065240572847935</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9894840407167962</v>
+        <v>1.055727759974409</v>
       </c>
       <c r="D10">
-        <v>1.005123937965245</v>
+        <v>1.061783885965812</v>
       </c>
       <c r="E10">
-        <v>0.9975515958922715</v>
+        <v>1.05209345045221</v>
       </c>
       <c r="F10">
-        <v>1.010258912950275</v>
+        <v>1.069485291888571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04643241435998</v>
+        <v>1.045578353757689</v>
       </c>
       <c r="J10">
-        <v>1.01812118779012</v>
+        <v>1.061926591817482</v>
       </c>
       <c r="K10">
-        <v>1.019401290337504</v>
+        <v>1.065139822381255</v>
       </c>
       <c r="L10">
-        <v>1.01196519819518</v>
+        <v>1.055482517547885</v>
       </c>
       <c r="M10">
-        <v>1.024445377499197</v>
+        <v>1.072815368109503</v>
       </c>
       <c r="N10">
-        <v>1.019567036656915</v>
+        <v>1.063434649382545</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9834078475085846</v>
+        <v>1.054713337615693</v>
       </c>
       <c r="D11">
-        <v>0.9997907128484791</v>
+        <v>1.060859857379696</v>
       </c>
       <c r="E11">
-        <v>0.9925031911134108</v>
+        <v>1.051217454248732</v>
       </c>
       <c r="F11">
-        <v>1.004655742952361</v>
+        <v>1.068508937603825</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044277960967023</v>
+        <v>1.045305824305496</v>
       </c>
       <c r="J11">
-        <v>1.013487549073935</v>
+        <v>1.061143118167658</v>
       </c>
       <c r="K11">
-        <v>1.014716577098109</v>
+        <v>1.064337183485568</v>
       </c>
       <c r="L11">
-        <v>1.007567884762218</v>
+        <v>1.054729045986332</v>
       </c>
       <c r="M11">
-        <v>1.019490389654899</v>
+        <v>1.071959566030656</v>
       </c>
       <c r="N11">
-        <v>1.014926817642266</v>
+        <v>1.062650063110274</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9811046432954077</v>
+        <v>1.054336201579225</v>
       </c>
       <c r="D12">
-        <v>0.9977709010191713</v>
+        <v>1.060516361287374</v>
       </c>
       <c r="E12">
-        <v>0.9905915139743224</v>
+        <v>1.05089181558003</v>
       </c>
       <c r="F12">
-        <v>1.002533852637636</v>
+        <v>1.068146016114691</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043458581182059</v>
+        <v>1.045204132222783</v>
       </c>
       <c r="J12">
-        <v>1.011730789787961</v>
+        <v>1.060851702731177</v>
       </c>
       <c r="K12">
-        <v>1.012940932015688</v>
+        <v>1.064038682198271</v>
       </c>
       <c r="L12">
-        <v>1.00590121314311</v>
+        <v>1.054448821218485</v>
       </c>
       <c r="M12">
-        <v>1.017612668504969</v>
+        <v>1.071641331048326</v>
       </c>
       <c r="N12">
-        <v>1.013167563556604</v>
+        <v>1.062358233830446</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9816008549505547</v>
+        <v>1.054417113820939</v>
       </c>
       <c r="D13">
-        <v>0.9982059747346836</v>
+        <v>1.060590054738858</v>
       </c>
       <c r="E13">
-        <v>0.9910032826298403</v>
+        <v>1.050961677818475</v>
       </c>
       <c r="F13">
-        <v>1.002990907448774</v>
+        <v>1.068223875901765</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043635232675264</v>
+        <v>1.045225966495537</v>
       </c>
       <c r="J13">
-        <v>1.012109287159521</v>
+        <v>1.0609142304739</v>
       </c>
       <c r="K13">
-        <v>1.013323476595485</v>
+        <v>1.064102728388458</v>
       </c>
       <c r="L13">
-        <v>1.006260278470765</v>
+        <v>1.054508946411355</v>
       </c>
       <c r="M13">
-        <v>1.018017187701052</v>
+        <v>1.071709609578127</v>
       </c>
       <c r="N13">
-        <v>1.013546598437845</v>
+        <v>1.062420850369736</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9832184336446822</v>
+        <v>1.054682170308745</v>
       </c>
       <c r="D14">
-        <v>0.9996245680849257</v>
+        <v>1.060831469452509</v>
       </c>
       <c r="E14">
-        <v>0.9923459356661986</v>
+        <v>1.051190542091149</v>
       </c>
       <c r="F14">
-        <v>1.004481198342412</v>
+        <v>1.068478943751255</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04421063029422</v>
+        <v>1.045297427857939</v>
       </c>
       <c r="J14">
-        <v>1.01334308095972</v>
+        <v>1.0611190378452</v>
       </c>
       <c r="K14">
-        <v>1.014570546137407</v>
+        <v>1.064312516772006</v>
       </c>
       <c r="L14">
-        <v>1.007430815002305</v>
+        <v>1.054705889735892</v>
       </c>
       <c r="M14">
-        <v>1.019335956389686</v>
+        <v>1.07193326785054</v>
       </c>
       <c r="N14">
-        <v>1.014782144366759</v>
+        <v>1.062625948590994</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9842088142901851</v>
+        <v>1.054845435769244</v>
       </c>
       <c r="D15">
-        <v>1.000493355386292</v>
+        <v>1.060980176922607</v>
       </c>
       <c r="E15">
-        <v>0.9931682508707149</v>
+        <v>1.051331518963821</v>
       </c>
       <c r="F15">
-        <v>1.005393915555845</v>
+        <v>1.068636064775087</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044562569479488</v>
+        <v>1.045341396188665</v>
       </c>
       <c r="J15">
-        <v>1.014098441729371</v>
+        <v>1.061245173420304</v>
       </c>
       <c r="K15">
-        <v>1.015334097841595</v>
+        <v>1.064441725681536</v>
       </c>
       <c r="L15">
-        <v>1.008147513016787</v>
+        <v>1.054827186193865</v>
       </c>
       <c r="M15">
-        <v>1.02014345610895</v>
+        <v>1.072071024233131</v>
       </c>
       <c r="N15">
-        <v>1.015538577835343</v>
+        <v>1.062752263293083</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9898810585770995</v>
+        <v>1.055795037458577</v>
       </c>
       <c r="D16">
-        <v>1.005472643802313</v>
+        <v>1.061845173150958</v>
       </c>
       <c r="E16">
-        <v>0.9978817143340928</v>
+        <v>1.052151552109604</v>
       </c>
       <c r="F16">
-        <v>1.010625290537283</v>
+        <v>1.069550053279026</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046572804560777</v>
+        <v>1.045596375937192</v>
       </c>
       <c r="J16">
-        <v>1.018423892302798</v>
+        <v>1.061978532890542</v>
       </c>
       <c r="K16">
-        <v>1.019707396547749</v>
+        <v>1.065193040014843</v>
       </c>
       <c r="L16">
-        <v>1.012252530148009</v>
+        <v>1.055532473987546</v>
       </c>
       <c r="M16">
-        <v>1.024769193844647</v>
+        <v>1.072872115915524</v>
       </c>
       <c r="N16">
-        <v>1.019870171044721</v>
+        <v>1.063486664217887</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9933614353254991</v>
+        <v>1.056390111558</v>
       </c>
       <c r="D17">
-        <v>1.008530717647301</v>
+        <v>1.062387288159072</v>
       </c>
       <c r="E17">
-        <v>1.00077696358869</v>
+        <v>1.052665491019124</v>
       </c>
       <c r="F17">
-        <v>1.013838462367106</v>
+        <v>1.070122919318725</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047801388020168</v>
+        <v>1.045755496884469</v>
       </c>
       <c r="J17">
-        <v>1.021077136019846</v>
+        <v>1.062437847379182</v>
       </c>
       <c r="K17">
-        <v>1.022390807693059</v>
+        <v>1.065663675916361</v>
       </c>
       <c r="L17">
-        <v>1.014771383519756</v>
+        <v>1.055974262378615</v>
       </c>
       <c r="M17">
-        <v>1.027608127179666</v>
+        <v>1.073374000182777</v>
       </c>
       <c r="N17">
-        <v>1.022527182672178</v>
+        <v>1.063946630985785</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9953648124571058</v>
+        <v>1.056737000014648</v>
       </c>
       <c r="D18">
-        <v>1.010291992166112</v>
+        <v>1.0627033261887</v>
       </c>
       <c r="E18">
-        <v>1.002444608355231</v>
+        <v>1.0529651043508</v>
       </c>
       <c r="F18">
-        <v>1.015689165762168</v>
+        <v>1.070456901043731</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048506803485839</v>
+        <v>1.045848014444083</v>
       </c>
       <c r="J18">
-        <v>1.022604082566149</v>
+        <v>1.06270550680103</v>
       </c>
       <c r="K18">
-        <v>1.023935406147083</v>
+        <v>1.065937960130102</v>
       </c>
       <c r="L18">
-        <v>1.01622127767364</v>
+        <v>1.056231728732958</v>
       </c>
       <c r="M18">
-        <v>1.029242469753064</v>
+        <v>1.073666519913499</v>
       </c>
       <c r="N18">
-        <v>1.024056297657721</v>
+        <v>1.064214670514713</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9960435078991484</v>
+        <v>1.056855244978174</v>
       </c>
       <c r="D19">
-        <v>1.010888831248898</v>
+        <v>1.062811058640217</v>
       </c>
       <c r="E19">
-        <v>1.003009743662405</v>
+        <v>1.053067238075744</v>
       </c>
       <c r="F19">
-        <v>1.016316326762682</v>
+        <v>1.070570753053933</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048745475444377</v>
+        <v>1.045879510590461</v>
       </c>
       <c r="J19">
-        <v>1.023121317780979</v>
+        <v>1.062796729390768</v>
       </c>
       <c r="K19">
-        <v>1.024458669708911</v>
+        <v>1.066031445200262</v>
       </c>
       <c r="L19">
-        <v>1.016712460779034</v>
+        <v>1.056319480759938</v>
       </c>
       <c r="M19">
-        <v>1.029796173745334</v>
+        <v>1.073766224338084</v>
       </c>
       <c r="N19">
-        <v>1.024574267405883</v>
+        <v>1.064306022650992</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.992990810868165</v>
+        <v>1.056326287340671</v>
       </c>
       <c r="D20">
-        <v>1.00820496070429</v>
+        <v>1.062329141831161</v>
       </c>
       <c r="E20">
-        <v>1.000468535753814</v>
+        <v>1.052610366687657</v>
       </c>
       <c r="F20">
-        <v>1.013496173336917</v>
+        <v>1.07006147296048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.047670741018391</v>
+        <v>1.045738455246389</v>
       </c>
       <c r="J20">
-        <v>1.020794624698707</v>
+        <v>1.062388593288589</v>
       </c>
       <c r="K20">
-        <v>1.022105053935569</v>
+        <v>1.065613204952427</v>
       </c>
       <c r="L20">
-        <v>1.014503151525483</v>
+        <v>1.055926885606899</v>
       </c>
       <c r="M20">
-        <v>1.027305788692033</v>
+        <v>1.073320175649283</v>
       </c>
       <c r="N20">
-        <v>1.02224427015256</v>
+        <v>1.063897306948733</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9827434102407985</v>
+        <v>1.054604127085237</v>
       </c>
       <c r="D21">
-        <v>0.9992079293528797</v>
+        <v>1.06076038637121</v>
       </c>
       <c r="E21">
-        <v>0.9919515929278209</v>
+        <v>1.051123154354429</v>
       </c>
       <c r="F21">
-        <v>1.004043497923623</v>
+        <v>1.068403839869502</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044041731014151</v>
+        <v>1.045276397058508</v>
       </c>
       <c r="J21">
-        <v>1.012980769862095</v>
+        <v>1.06105873823399</v>
       </c>
       <c r="K21">
-        <v>1.014204323309437</v>
+        <v>1.064250749466866</v>
       </c>
       <c r="L21">
-        <v>1.00708706615896</v>
+        <v>1.054647904601925</v>
       </c>
       <c r="M21">
-        <v>1.018948667801958</v>
+        <v>1.071867415839243</v>
       </c>
       <c r="N21">
-        <v>1.014419318745818</v>
+        <v>1.062565563347421</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9760304112368741</v>
+        <v>1.053519397184751</v>
       </c>
       <c r="D22">
-        <v>0.9933244890202843</v>
+        <v>1.059772477370504</v>
       </c>
       <c r="E22">
-        <v>0.9863836751503912</v>
+        <v>1.050186607921747</v>
       </c>
       <c r="F22">
-        <v>0.9978630054656146</v>
+        <v>1.067360111676771</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041648498900832</v>
+        <v>1.04498320535873</v>
       </c>
       <c r="J22">
-        <v>1.007859933156506</v>
+        <v>1.060220296851691</v>
       </c>
       <c r="K22">
-        <v>1.009029359247971</v>
+        <v>1.063392001664018</v>
       </c>
       <c r="L22">
-        <v>1.002229787629723</v>
+        <v>1.053841719326158</v>
       </c>
       <c r="M22">
-        <v>1.013476915838264</v>
+        <v>1.07095196795015</v>
       </c>
       <c r="N22">
-        <v>1.009291209864739</v>
+        <v>1.061725931282189</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9796162679201488</v>
+        <v>1.054094619964086</v>
       </c>
       <c r="D23">
-        <v>0.9964661810347563</v>
+        <v>1.060296338005646</v>
       </c>
       <c r="E23">
-        <v>0.9893567237224665</v>
+        <v>1.050683231281858</v>
       </c>
       <c r="F23">
-        <v>1.001163237026079</v>
+        <v>1.06791355740035</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042928329226509</v>
+        <v>1.045138886573602</v>
       </c>
       <c r="J23">
-        <v>1.010595453702</v>
+        <v>1.060664991667118</v>
       </c>
       <c r="K23">
-        <v>1.01179352704231</v>
+        <v>1.063847443227165</v>
       </c>
       <c r="L23">
-        <v>1.004824238825464</v>
+        <v>1.054269288878772</v>
       </c>
       <c r="M23">
-        <v>1.016399407031026</v>
+        <v>1.07143746002803</v>
       </c>
       <c r="N23">
-        <v>1.012030615163175</v>
+        <v>1.06217125761526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9931583622059172</v>
+        <v>1.056355127400746</v>
       </c>
       <c r="D24">
-        <v>1.008352225360506</v>
+        <v>1.062355416174731</v>
       </c>
       <c r="E24">
-        <v>1.000607965997964</v>
+        <v>1.052635275490384</v>
       </c>
       <c r="F24">
-        <v>1.013650911323975</v>
+        <v>1.070089238423664</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047729809263334</v>
+        <v>1.045746156540722</v>
       </c>
       <c r="J24">
-        <v>1.020922342974963</v>
+        <v>1.062410849867646</v>
       </c>
       <c r="K24">
-        <v>1.022234237156875</v>
+        <v>1.065636011318656</v>
       </c>
       <c r="L24">
-        <v>1.01462441347741</v>
+        <v>1.05594829381487</v>
       </c>
       <c r="M24">
-        <v>1.027442468823001</v>
+        <v>1.073344497321843</v>
       </c>
       <c r="N24">
-        <v>1.022372169803417</v>
+        <v>1.063919595134685</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.007837538632919</v>
+        <v>1.058970185319039</v>
       </c>
       <c r="D25">
-        <v>1.021273347297513</v>
+        <v>1.06473827878961</v>
       </c>
       <c r="E25">
-        <v>1.012844575974427</v>
+        <v>1.054894319422229</v>
       </c>
       <c r="F25">
-        <v>1.027229938203827</v>
+        <v>1.072607693514297</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052866216713735</v>
+        <v>1.04643929723024</v>
       </c>
       <c r="J25">
-        <v>1.032103986872185</v>
+        <v>1.064427000963105</v>
       </c>
       <c r="K25">
-        <v>1.033550159724075</v>
+        <v>1.067702556768185</v>
       </c>
       <c r="L25">
-        <v>1.025246715786212</v>
+        <v>1.0578880255063</v>
       </c>
       <c r="M25">
-        <v>1.039419754692071</v>
+        <v>1.075548868846291</v>
       </c>
       <c r="N25">
-        <v>1.033569692917526</v>
+        <v>1.065938609395956</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.061049720912395</v>
+        <v>1.018839458330516</v>
       </c>
       <c r="D2">
-        <v>1.066633807911769</v>
+        <v>1.030982093100153</v>
       </c>
       <c r="E2">
-        <v>1.056691385512943</v>
+        <v>1.022042629096096</v>
       </c>
       <c r="F2">
-        <v>1.074611611373777</v>
+        <v>1.03743628986579</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04698292226123</v>
+        <v>1.05665818930277</v>
       </c>
       <c r="J2">
-        <v>1.066027408165287</v>
+        <v>1.040470923694258</v>
       </c>
       <c r="K2">
-        <v>1.069343830705615</v>
+        <v>1.042026034397606</v>
       </c>
       <c r="L2">
-        <v>1.059428401738694</v>
+        <v>1.033203184430883</v>
       </c>
       <c r="M2">
-        <v>1.077300365105973</v>
+        <v>1.048397597486215</v>
       </c>
       <c r="N2">
-        <v>1.067541289359935</v>
+        <v>1.041948511749587</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.062556202126101</v>
+        <v>1.026471431414206</v>
       </c>
       <c r="D3">
-        <v>1.068007345698905</v>
+        <v>1.037729037699855</v>
       </c>
       <c r="E3">
-        <v>1.057993591883989</v>
+        <v>1.028436445139277</v>
       </c>
       <c r="F3">
-        <v>1.07606399533798</v>
+        <v>1.044530999042919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047372343799747</v>
+        <v>1.059253866446989</v>
       </c>
       <c r="J3">
-        <v>1.067185121795014</v>
+        <v>1.046265579317238</v>
       </c>
       <c r="K3">
-        <v>1.070531607977588</v>
+        <v>1.047900896808476</v>
       </c>
       <c r="L3">
-        <v>1.06054305454678</v>
+        <v>1.038717959223442</v>
       </c>
       <c r="M3">
-        <v>1.078568348806519</v>
+        <v>1.054624120569845</v>
       </c>
       <c r="N3">
-        <v>1.068700647075808</v>
+        <v>1.047751396448207</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.063529455790313</v>
+        <v>1.031260009731148</v>
       </c>
       <c r="D4">
-        <v>1.068894872495675</v>
+        <v>1.041967286534255</v>
       </c>
       <c r="E4">
-        <v>1.058835034177963</v>
+        <v>1.032453591470217</v>
       </c>
       <c r="F4">
-        <v>1.077002610832716</v>
+        <v>1.048988633983532</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047621890076945</v>
+        <v>1.060865953563889</v>
       </c>
       <c r="J4">
-        <v>1.067932279627217</v>
+        <v>1.049896528158335</v>
       </c>
       <c r="K4">
-        <v>1.071298400105542</v>
+        <v>1.051584273413608</v>
       </c>
       <c r="L4">
-        <v>1.061262590693808</v>
+        <v>1.042175494215819</v>
       </c>
       <c r="M4">
-        <v>1.079387122754626</v>
+        <v>1.05852968618636</v>
       </c>
       <c r="N4">
-        <v>1.069448865957832</v>
+        <v>1.051387501653136</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.063938250358308</v>
+        <v>1.033239287310176</v>
       </c>
       <c r="D5">
-        <v>1.069267697061578</v>
+        <v>1.043720206708901</v>
       </c>
       <c r="E5">
-        <v>1.059188501559345</v>
+        <v>1.034115225437983</v>
       </c>
       <c r="F5">
-        <v>1.077396930139711</v>
+        <v>1.050832517652489</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047726218491433</v>
+        <v>1.061528250009065</v>
       </c>
       <c r="J5">
-        <v>1.068245921063046</v>
+        <v>1.051396096276701</v>
       </c>
       <c r="K5">
-        <v>1.071620339195516</v>
+        <v>1.053106011180449</v>
       </c>
       <c r="L5">
-        <v>1.061564677479499</v>
+        <v>1.043603904303386</v>
       </c>
       <c r="M5">
-        <v>1.079730935090483</v>
+        <v>1.060143625996707</v>
       </c>
       <c r="N5">
-        <v>1.069762952800476</v>
+        <v>1.052889199330232</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.064006867797172</v>
+        <v>1.033569688001805</v>
       </c>
       <c r="D6">
-        <v>1.069330279018318</v>
+        <v>1.044012884743156</v>
       </c>
       <c r="E6">
-        <v>1.059247834329063</v>
+        <v>1.034392670882682</v>
       </c>
       <c r="F6">
-        <v>1.077463122166894</v>
+        <v>1.051140396905321</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047743701694726</v>
+        <v>1.061638568110108</v>
       </c>
       <c r="J6">
-        <v>1.068298555809172</v>
+        <v>1.051646345374482</v>
       </c>
       <c r="K6">
-        <v>1.071674369700194</v>
+        <v>1.053359990299122</v>
       </c>
       <c r="L6">
-        <v>1.061615375511994</v>
+        <v>1.043842305377541</v>
       </c>
       <c r="M6">
-        <v>1.079788639394416</v>
+        <v>1.060413017625061</v>
       </c>
       <c r="N6">
-        <v>1.069815662293979</v>
+        <v>1.053139803810436</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.063534919533614</v>
+        <v>1.031286587354922</v>
       </c>
       <c r="D7">
-        <v>1.068899855334395</v>
+        <v>1.041990820344296</v>
       </c>
       <c r="E7">
-        <v>1.058839758299778</v>
+        <v>1.032475899098247</v>
       </c>
       <c r="F7">
-        <v>1.077007880817835</v>
+        <v>1.04901338812261</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047623286397908</v>
+        <v>1.060874862888238</v>
       </c>
       <c r="J7">
-        <v>1.06793647233464</v>
+        <v>1.049916669194559</v>
       </c>
       <c r="K7">
-        <v>1.071302703516056</v>
+        <v>1.051604710171484</v>
       </c>
       <c r="L7">
-        <v>1.061266628781858</v>
+        <v>1.04219467769743</v>
       </c>
       <c r="M7">
-        <v>1.079391718357288</v>
+        <v>1.058551359595281</v>
       </c>
       <c r="N7">
-        <v>1.069453064619381</v>
+        <v>1.051407671291941</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.061559166776242</v>
+        <v>1.021451016749115</v>
       </c>
       <c r="D8">
-        <v>1.067098262708112</v>
+        <v>1.03328970572159</v>
       </c>
       <c r="E8">
-        <v>1.057131718423172</v>
+        <v>1.024229302689127</v>
       </c>
       <c r="F8">
-        <v>1.075102698306535</v>
+        <v>1.03986265201854</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047115034723435</v>
+        <v>1.057549845776014</v>
       </c>
       <c r="J8">
-        <v>1.06641907217128</v>
+        <v>1.042454755724203</v>
       </c>
       <c r="K8">
-        <v>1.069745617383267</v>
+        <v>1.044036864683784</v>
       </c>
       <c r="L8">
-        <v>1.059805462930798</v>
+        <v>1.035090777445269</v>
       </c>
       <c r="M8">
-        <v>1.077729240904035</v>
+        <v>1.050528431014992</v>
       </c>
       <c r="N8">
-        <v>1.06793350957374</v>
+        <v>1.043935161048562</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.05806550271174</v>
+        <v>1.002870780180325</v>
       </c>
       <c r="D9">
-        <v>1.063913823573324</v>
+        <v>1.016897204682458</v>
       </c>
       <c r="E9">
-        <v>1.054112699313346</v>
+        <v>1.008699633411594</v>
       </c>
       <c r="F9">
-        <v>1.0717362424809</v>
+        <v>1.022630465282194</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046200676852647</v>
+        <v>1.051137301546667</v>
       </c>
       <c r="J9">
-        <v>1.063729954301296</v>
+        <v>1.028322569498825</v>
       </c>
       <c r="K9">
-        <v>1.066987953181933</v>
+        <v>1.029721958616312</v>
       </c>
       <c r="L9">
-        <v>1.057217301570183</v>
+        <v>1.021653124554414</v>
       </c>
       <c r="M9">
-        <v>1.074786487653932</v>
+        <v>1.035366747258107</v>
       </c>
       <c r="N9">
-        <v>1.065240572847935</v>
+        <v>1.02978290549776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.055727759974409</v>
+        <v>0.9894840407167949</v>
       </c>
       <c r="D10">
-        <v>1.061783885965812</v>
+        <v>1.005123937965243</v>
       </c>
       <c r="E10">
-        <v>1.05209345045221</v>
+        <v>0.9975515958922702</v>
       </c>
       <c r="F10">
-        <v>1.069485291888571</v>
+        <v>1.010258912950273</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.045578353757689</v>
+        <v>1.046432414359979</v>
       </c>
       <c r="J10">
-        <v>1.061926591817482</v>
+        <v>1.018121187790118</v>
       </c>
       <c r="K10">
-        <v>1.065139822381255</v>
+        <v>1.019401290337503</v>
       </c>
       <c r="L10">
-        <v>1.055482517547885</v>
+        <v>1.011965198195178</v>
       </c>
       <c r="M10">
-        <v>1.072815368109503</v>
+        <v>1.024445377499195</v>
       </c>
       <c r="N10">
-        <v>1.063434649382545</v>
+        <v>1.019567036656913</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.054713337615693</v>
+        <v>0.9834078475085822</v>
       </c>
       <c r="D11">
-        <v>1.060859857379696</v>
+        <v>0.999790712848477</v>
       </c>
       <c r="E11">
-        <v>1.051217454248732</v>
+        <v>0.9925031911134085</v>
       </c>
       <c r="F11">
-        <v>1.068508937603825</v>
+        <v>1.004655742952359</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045305824305496</v>
+        <v>1.044277960967021</v>
       </c>
       <c r="J11">
-        <v>1.061143118167658</v>
+        <v>1.013487549073932</v>
       </c>
       <c r="K11">
-        <v>1.064337183485568</v>
+        <v>1.014716577098107</v>
       </c>
       <c r="L11">
-        <v>1.054729045986332</v>
+        <v>1.007567884762216</v>
       </c>
       <c r="M11">
-        <v>1.071959566030656</v>
+        <v>1.019490389654897</v>
       </c>
       <c r="N11">
-        <v>1.062650063110274</v>
+        <v>1.014926817642264</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.054336201579225</v>
+        <v>0.9811046432954079</v>
       </c>
       <c r="D12">
-        <v>1.060516361287374</v>
+        <v>0.9977709010191718</v>
       </c>
       <c r="E12">
-        <v>1.05089181558003</v>
+        <v>0.9905915139743227</v>
       </c>
       <c r="F12">
-        <v>1.068146016114691</v>
+        <v>1.002533852637636</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045204132222783</v>
+        <v>1.043458581182059</v>
       </c>
       <c r="J12">
-        <v>1.060851702731177</v>
+        <v>1.011730789787961</v>
       </c>
       <c r="K12">
-        <v>1.064038682198271</v>
+        <v>1.012940932015688</v>
       </c>
       <c r="L12">
-        <v>1.054448821218485</v>
+        <v>1.00590121314311</v>
       </c>
       <c r="M12">
-        <v>1.071641331048326</v>
+        <v>1.017612668504969</v>
       </c>
       <c r="N12">
-        <v>1.062358233830446</v>
+        <v>1.013167563556604</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.054417113820939</v>
+        <v>0.9816008549505547</v>
       </c>
       <c r="D13">
-        <v>1.060590054738858</v>
+        <v>0.9982059747346836</v>
       </c>
       <c r="E13">
-        <v>1.050961677818475</v>
+        <v>0.9910032826298399</v>
       </c>
       <c r="F13">
-        <v>1.068223875901765</v>
+        <v>1.002990907448774</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045225966495537</v>
+        <v>1.043635232675264</v>
       </c>
       <c r="J13">
-        <v>1.0609142304739</v>
+        <v>1.012109287159521</v>
       </c>
       <c r="K13">
-        <v>1.064102728388458</v>
+        <v>1.013323476595485</v>
       </c>
       <c r="L13">
-        <v>1.054508946411355</v>
+        <v>1.006260278470765</v>
       </c>
       <c r="M13">
-        <v>1.071709609578127</v>
+        <v>1.018017187701052</v>
       </c>
       <c r="N13">
-        <v>1.062420850369736</v>
+        <v>1.013546598437845</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.054682170308745</v>
+        <v>0.9832184336446823</v>
       </c>
       <c r="D14">
-        <v>1.060831469452509</v>
+        <v>0.9996245680849257</v>
       </c>
       <c r="E14">
-        <v>1.051190542091149</v>
+        <v>0.9923459356661988</v>
       </c>
       <c r="F14">
-        <v>1.068478943751255</v>
+        <v>1.004481198342412</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045297427857939</v>
+        <v>1.04421063029422</v>
       </c>
       <c r="J14">
-        <v>1.0611190378452</v>
+        <v>1.01334308095972</v>
       </c>
       <c r="K14">
-        <v>1.064312516772006</v>
+        <v>1.014570546137407</v>
       </c>
       <c r="L14">
-        <v>1.054705889735892</v>
+        <v>1.007430815002305</v>
       </c>
       <c r="M14">
-        <v>1.07193326785054</v>
+        <v>1.019335956389686</v>
       </c>
       <c r="N14">
-        <v>1.062625948590994</v>
+        <v>1.014782144366758</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.054845435769244</v>
+        <v>0.984208814290185</v>
       </c>
       <c r="D15">
-        <v>1.060980176922607</v>
+        <v>1.000493355386292</v>
       </c>
       <c r="E15">
-        <v>1.051331518963821</v>
+        <v>0.9931682508707147</v>
       </c>
       <c r="F15">
-        <v>1.068636064775087</v>
+        <v>1.005393915555845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045341396188665</v>
+        <v>1.044562569479487</v>
       </c>
       <c r="J15">
-        <v>1.061245173420304</v>
+        <v>1.014098441729371</v>
       </c>
       <c r="K15">
-        <v>1.064441725681536</v>
+        <v>1.015334097841595</v>
       </c>
       <c r="L15">
-        <v>1.054827186193865</v>
+        <v>1.008147513016787</v>
       </c>
       <c r="M15">
-        <v>1.072071024233131</v>
+        <v>1.02014345610895</v>
       </c>
       <c r="N15">
-        <v>1.062752263293083</v>
+        <v>1.015538577835344</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.055795037458577</v>
+        <v>0.9898810585771022</v>
       </c>
       <c r="D16">
-        <v>1.061845173150958</v>
+        <v>1.005472643802315</v>
       </c>
       <c r="E16">
-        <v>1.052151552109604</v>
+        <v>0.9978817143340953</v>
       </c>
       <c r="F16">
-        <v>1.069550053279026</v>
+        <v>1.010625290537285</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.045596375937192</v>
+        <v>1.046572804560779</v>
       </c>
       <c r="J16">
-        <v>1.061978532890542</v>
+        <v>1.018423892302801</v>
       </c>
       <c r="K16">
-        <v>1.065193040014843</v>
+        <v>1.019707396547752</v>
       </c>
       <c r="L16">
-        <v>1.055532473987546</v>
+        <v>1.012252530148011</v>
       </c>
       <c r="M16">
-        <v>1.072872115915524</v>
+        <v>1.024769193844649</v>
       </c>
       <c r="N16">
-        <v>1.063486664217887</v>
+        <v>1.019870171044724</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.056390111558</v>
+        <v>0.9933614353254975</v>
       </c>
       <c r="D17">
-        <v>1.062387288159072</v>
+        <v>1.008530717647299</v>
       </c>
       <c r="E17">
-        <v>1.052665491019124</v>
+        <v>1.000776963588689</v>
       </c>
       <c r="F17">
-        <v>1.070122919318725</v>
+        <v>1.013838462367104</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045755496884469</v>
+        <v>1.047801388020167</v>
       </c>
       <c r="J17">
-        <v>1.062437847379182</v>
+        <v>1.021077136019844</v>
       </c>
       <c r="K17">
-        <v>1.065663675916361</v>
+        <v>1.022390807693058</v>
       </c>
       <c r="L17">
-        <v>1.055974262378615</v>
+        <v>1.014771383519754</v>
       </c>
       <c r="M17">
-        <v>1.073374000182777</v>
+        <v>1.027608127179665</v>
       </c>
       <c r="N17">
-        <v>1.063946630985785</v>
+        <v>1.022527182672177</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.056737000014648</v>
+        <v>0.9953648124571057</v>
       </c>
       <c r="D18">
-        <v>1.0627033261887</v>
+        <v>1.010291992166112</v>
       </c>
       <c r="E18">
-        <v>1.0529651043508</v>
+        <v>1.002444608355232</v>
       </c>
       <c r="F18">
-        <v>1.070456901043731</v>
+        <v>1.015689165762168</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.045848014444083</v>
+        <v>1.048506803485839</v>
       </c>
       <c r="J18">
-        <v>1.06270550680103</v>
+        <v>1.02260408256615</v>
       </c>
       <c r="K18">
-        <v>1.065937960130102</v>
+        <v>1.023935406147083</v>
       </c>
       <c r="L18">
-        <v>1.056231728732958</v>
+        <v>1.01622127767364</v>
       </c>
       <c r="M18">
-        <v>1.073666519913499</v>
+        <v>1.029242469753065</v>
       </c>
       <c r="N18">
-        <v>1.064214670514713</v>
+        <v>1.024056297657721</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.056855244978174</v>
+        <v>0.9960435078991505</v>
       </c>
       <c r="D19">
-        <v>1.062811058640217</v>
+        <v>1.0108888312489</v>
       </c>
       <c r="E19">
-        <v>1.053067238075744</v>
+        <v>1.003009743662407</v>
       </c>
       <c r="F19">
-        <v>1.070570753053933</v>
+        <v>1.016316326762685</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.045879510590461</v>
+        <v>1.048745475444378</v>
       </c>
       <c r="J19">
-        <v>1.062796729390768</v>
+        <v>1.023121317780981</v>
       </c>
       <c r="K19">
-        <v>1.066031445200262</v>
+        <v>1.024458669708913</v>
       </c>
       <c r="L19">
-        <v>1.056319480759938</v>
+        <v>1.016712460779035</v>
       </c>
       <c r="M19">
-        <v>1.073766224338084</v>
+        <v>1.029796173745336</v>
       </c>
       <c r="N19">
-        <v>1.064306022650992</v>
+        <v>1.024574267405885</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.056326287340671</v>
+        <v>0.9929908108681634</v>
       </c>
       <c r="D20">
-        <v>1.062329141831161</v>
+        <v>1.008204960704289</v>
       </c>
       <c r="E20">
-        <v>1.052610366687657</v>
+        <v>1.000468535753812</v>
       </c>
       <c r="F20">
-        <v>1.07006147296048</v>
+        <v>1.013496173336915</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045738455246389</v>
+        <v>1.04767074101839</v>
       </c>
       <c r="J20">
-        <v>1.062388593288589</v>
+        <v>1.020794624698706</v>
       </c>
       <c r="K20">
-        <v>1.065613204952427</v>
+        <v>1.022105053935568</v>
       </c>
       <c r="L20">
-        <v>1.055926885606899</v>
+        <v>1.014503151525482</v>
       </c>
       <c r="M20">
-        <v>1.073320175649283</v>
+        <v>1.027305788692031</v>
       </c>
       <c r="N20">
-        <v>1.063897306948733</v>
+        <v>1.022244270152558</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.054604127085237</v>
+        <v>0.9827434102407993</v>
       </c>
       <c r="D21">
-        <v>1.06076038637121</v>
+        <v>0.9992079293528804</v>
       </c>
       <c r="E21">
-        <v>1.051123154354429</v>
+        <v>0.9919515929278219</v>
       </c>
       <c r="F21">
-        <v>1.068403839869502</v>
+        <v>1.004043497923624</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045276397058508</v>
+        <v>1.044041731014152</v>
       </c>
       <c r="J21">
-        <v>1.06105873823399</v>
+        <v>1.012980769862096</v>
       </c>
       <c r="K21">
-        <v>1.064250749466866</v>
+        <v>1.014204323309438</v>
       </c>
       <c r="L21">
-        <v>1.054647904601925</v>
+        <v>1.007087066158961</v>
       </c>
       <c r="M21">
-        <v>1.071867415839243</v>
+        <v>1.018948667801959</v>
       </c>
       <c r="N21">
-        <v>1.062565563347421</v>
+        <v>1.014419318745818</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.053519397184751</v>
+        <v>0.9760304112368736</v>
       </c>
       <c r="D22">
-        <v>1.059772477370504</v>
+        <v>0.9933244890202839</v>
       </c>
       <c r="E22">
-        <v>1.050186607921747</v>
+        <v>0.9863836751503912</v>
       </c>
       <c r="F22">
-        <v>1.067360111676771</v>
+        <v>0.9978630054656143</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04498320535873</v>
+        <v>1.041648498900832</v>
       </c>
       <c r="J22">
-        <v>1.060220296851691</v>
+        <v>1.007859933156506</v>
       </c>
       <c r="K22">
-        <v>1.063392001664018</v>
+        <v>1.009029359247971</v>
       </c>
       <c r="L22">
-        <v>1.053841719326158</v>
+        <v>1.002229787629723</v>
       </c>
       <c r="M22">
-        <v>1.07095196795015</v>
+        <v>1.013476915838264</v>
       </c>
       <c r="N22">
-        <v>1.061725931282189</v>
+        <v>1.009291209864738</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.054094619964086</v>
+        <v>0.9796162679201492</v>
       </c>
       <c r="D23">
-        <v>1.060296338005646</v>
+        <v>0.9964661810347568</v>
       </c>
       <c r="E23">
-        <v>1.050683231281858</v>
+        <v>0.9893567237224669</v>
       </c>
       <c r="F23">
-        <v>1.06791355740035</v>
+        <v>1.001163237026079</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.045138886573602</v>
+        <v>1.042928329226509</v>
       </c>
       <c r="J23">
-        <v>1.060664991667118</v>
+        <v>1.010595453702001</v>
       </c>
       <c r="K23">
-        <v>1.063847443227165</v>
+        <v>1.01179352704231</v>
       </c>
       <c r="L23">
-        <v>1.054269288878772</v>
+        <v>1.004824238825464</v>
       </c>
       <c r="M23">
-        <v>1.07143746002803</v>
+        <v>1.016399407031026</v>
       </c>
       <c r="N23">
-        <v>1.06217125761526</v>
+        <v>1.012030615163176</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.056355127400746</v>
+        <v>0.9931583622059174</v>
       </c>
       <c r="D24">
-        <v>1.062355416174731</v>
+        <v>1.008352225360506</v>
       </c>
       <c r="E24">
-        <v>1.052635275490384</v>
+        <v>1.000607965997963</v>
       </c>
       <c r="F24">
-        <v>1.070089238423664</v>
+        <v>1.013650911323975</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045746156540722</v>
+        <v>1.047729809263334</v>
       </c>
       <c r="J24">
-        <v>1.062410849867646</v>
+        <v>1.020922342974963</v>
       </c>
       <c r="K24">
-        <v>1.065636011318656</v>
+        <v>1.022234237156875</v>
       </c>
       <c r="L24">
-        <v>1.05594829381487</v>
+        <v>1.014624413477409</v>
       </c>
       <c r="M24">
-        <v>1.073344497321843</v>
+        <v>1.027442468823</v>
       </c>
       <c r="N24">
-        <v>1.063919595134685</v>
+        <v>1.022372169803417</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.058970185319039</v>
+        <v>1.007837538632919</v>
       </c>
       <c r="D25">
-        <v>1.06473827878961</v>
+        <v>1.021273347297513</v>
       </c>
       <c r="E25">
-        <v>1.054894319422229</v>
+        <v>1.012844575974427</v>
       </c>
       <c r="F25">
-        <v>1.072607693514297</v>
+        <v>1.027229938203827</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04643929723024</v>
+        <v>1.052866216713735</v>
       </c>
       <c r="J25">
-        <v>1.064427000963105</v>
+        <v>1.032103986872186</v>
       </c>
       <c r="K25">
-        <v>1.067702556768185</v>
+        <v>1.033550159724075</v>
       </c>
       <c r="L25">
-        <v>1.0578880255063</v>
+        <v>1.025246715786212</v>
       </c>
       <c r="M25">
-        <v>1.075548868846291</v>
+        <v>1.039419754692072</v>
       </c>
       <c r="N25">
-        <v>1.065938609395956</v>
+        <v>1.033569692917526</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.018839458330516</v>
+        <v>0.9912157176929506</v>
       </c>
       <c r="D2">
-        <v>1.030982093100153</v>
+        <v>1.012060302388649</v>
       </c>
       <c r="E2">
-        <v>1.022042629096096</v>
+        <v>0.9987445253625926</v>
       </c>
       <c r="F2">
-        <v>1.03743628986579</v>
+        <v>1.022638144469735</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05665818930277</v>
+        <v>1.046832349837663</v>
       </c>
       <c r="J2">
-        <v>1.040470923694258</v>
+        <v>1.013662377584215</v>
       </c>
       <c r="K2">
-        <v>1.042026034397606</v>
+        <v>1.023354136599395</v>
       </c>
       <c r="L2">
-        <v>1.033203184430883</v>
+        <v>1.010221378695913</v>
       </c>
       <c r="M2">
-        <v>1.048397597486215</v>
+        <v>1.033790851922817</v>
       </c>
       <c r="N2">
-        <v>1.041948511749587</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.008172451966163</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035315564245207</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.027583428923016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.026471431414206</v>
+        <v>0.9952049779116047</v>
       </c>
       <c r="D3">
-        <v>1.037729037699855</v>
+        <v>1.01497940468837</v>
       </c>
       <c r="E3">
-        <v>1.028436445139277</v>
+        <v>1.001900109293087</v>
       </c>
       <c r="F3">
-        <v>1.044530999042919</v>
+        <v>1.025548137191877</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059253866446989</v>
+        <v>1.047018820761378</v>
       </c>
       <c r="J3">
-        <v>1.046265579317238</v>
+        <v>1.01582721910583</v>
       </c>
       <c r="K3">
-        <v>1.047900896808476</v>
+        <v>1.025424142760362</v>
       </c>
       <c r="L3">
-        <v>1.038717959223442</v>
+        <v>1.012508735461726</v>
       </c>
       <c r="M3">
-        <v>1.054624120569845</v>
+        <v>1.035864236282239</v>
       </c>
       <c r="N3">
-        <v>1.047751396448207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.008942596852271</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.036956518964663</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.029044445176118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031260009731148</v>
+        <v>0.997742703918933</v>
       </c>
       <c r="D4">
-        <v>1.041967286534255</v>
+        <v>1.0168429926308</v>
       </c>
       <c r="E4">
-        <v>1.032453591470217</v>
+        <v>1.003913614155716</v>
       </c>
       <c r="F4">
-        <v>1.048988633983532</v>
+        <v>1.027403469872316</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060865953563889</v>
+        <v>1.047119488807414</v>
       </c>
       <c r="J4">
-        <v>1.049896528158335</v>
+        <v>1.017204328346692</v>
       </c>
       <c r="K4">
-        <v>1.051584273413608</v>
+        <v>1.02674230031231</v>
       </c>
       <c r="L4">
-        <v>1.042175494215819</v>
+        <v>1.013965033680094</v>
       </c>
       <c r="M4">
-        <v>1.05852968618636</v>
+        <v>1.037182037224335</v>
       </c>
       <c r="N4">
-        <v>1.051387501653136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.009431765309876</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.037999474451436</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.029977432117624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.033239287310176</v>
+        <v>0.9988041494488374</v>
       </c>
       <c r="D5">
-        <v>1.043720206708901</v>
+        <v>1.017626608644408</v>
       </c>
       <c r="E5">
-        <v>1.034115225437983</v>
+        <v>1.004757755365599</v>
       </c>
       <c r="F5">
-        <v>1.050832517652489</v>
+        <v>1.028181503173609</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.061528250009065</v>
+        <v>1.047157529854857</v>
       </c>
       <c r="J5">
-        <v>1.051396096276701</v>
+        <v>1.01778231610939</v>
       </c>
       <c r="K5">
-        <v>1.053106011180449</v>
+        <v>1.027297464452467</v>
       </c>
       <c r="L5">
-        <v>1.043603904303386</v>
+        <v>1.014575927608773</v>
       </c>
       <c r="M5">
-        <v>1.060143625996707</v>
+        <v>1.03773491483459</v>
       </c>
       <c r="N5">
-        <v>1.052889199330232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.009637239848856</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.038437041401529</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.030377256003941</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.033569688001805</v>
+        <v>0.9989874990787113</v>
       </c>
       <c r="D6">
-        <v>1.044012884743156</v>
+        <v>1.017765193814565</v>
       </c>
       <c r="E6">
-        <v>1.034392670882682</v>
+        <v>1.004904293978761</v>
       </c>
       <c r="F6">
-        <v>1.051140396905321</v>
+        <v>1.028317250934979</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.061638568110108</v>
+        <v>1.0471642448584</v>
       </c>
       <c r="J6">
-        <v>1.051646345374482</v>
+        <v>1.017884613493687</v>
       </c>
       <c r="K6">
-        <v>1.053359990299122</v>
+        <v>1.027397661953084</v>
       </c>
       <c r="L6">
-        <v>1.043842305377541</v>
+        <v>1.014683303553956</v>
       </c>
       <c r="M6">
-        <v>1.060413017625061</v>
+        <v>1.037832848234171</v>
       </c>
       <c r="N6">
-        <v>1.053139803810436</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.00967402136635</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.038514549339522</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.030456964420301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031286587354922</v>
+        <v>0.9977723841085719</v>
       </c>
       <c r="D7">
-        <v>1.041990820344296</v>
+        <v>1.016873308170886</v>
       </c>
       <c r="E7">
-        <v>1.032475899098247</v>
+        <v>1.0039389561244</v>
       </c>
       <c r="F7">
-        <v>1.04901338812261</v>
+        <v>1.027428723852727</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060874862888238</v>
+        <v>1.047121664654799</v>
       </c>
       <c r="J7">
-        <v>1.049916669194559</v>
+        <v>1.01722713306348</v>
       </c>
       <c r="K7">
-        <v>1.051604710171484</v>
+        <v>1.026769330250736</v>
       </c>
       <c r="L7">
-        <v>1.04219467769743</v>
+        <v>1.013987087183928</v>
       </c>
       <c r="M7">
-        <v>1.058551359595281</v>
+        <v>1.037204111896147</v>
       </c>
       <c r="N7">
-        <v>1.051407671291941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.009441039784111</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.038016945134782</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.03001692428711</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.021451016749115</v>
+        <v>0.9925928933643254</v>
       </c>
       <c r="D8">
-        <v>1.03328970572159</v>
+        <v>1.013077160017067</v>
       </c>
       <c r="E8">
-        <v>1.024229302689127</v>
+        <v>0.9998349234982669</v>
       </c>
       <c r="F8">
-        <v>1.03986265201854</v>
+        <v>1.023646291790403</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057549845776014</v>
+        <v>1.046901636258283</v>
       </c>
       <c r="J8">
-        <v>1.042454755724203</v>
+        <v>1.014418163841819</v>
       </c>
       <c r="K8">
-        <v>1.044036864683784</v>
+        <v>1.024082859223296</v>
       </c>
       <c r="L8">
-        <v>1.035090777445269</v>
+        <v>1.011017131314091</v>
       </c>
       <c r="M8">
-        <v>1.050528431014992</v>
+        <v>1.034515209018053</v>
       </c>
       <c r="N8">
-        <v>1.043935161048562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.008443022787349</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.035888848249852</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.028121953159287</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002870780180325</v>
+        <v>0.9830907945900765</v>
       </c>
       <c r="D9">
-        <v>1.016897204682458</v>
+        <v>1.006153860430267</v>
       </c>
       <c r="E9">
-        <v>1.008699633411594</v>
+        <v>0.9923531533263351</v>
       </c>
       <c r="F9">
-        <v>1.022630465282194</v>
+        <v>1.016737530842512</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051137301546667</v>
+        <v>1.046357631004979</v>
       </c>
       <c r="J9">
-        <v>1.028322569498825</v>
+        <v>1.009255123206753</v>
       </c>
       <c r="K9">
-        <v>1.029721958616312</v>
+        <v>1.019147878372483</v>
       </c>
       <c r="L9">
-        <v>1.021653124554414</v>
+        <v>1.005571525731758</v>
       </c>
       <c r="M9">
-        <v>1.035366747258107</v>
+        <v>1.029564767009307</v>
       </c>
       <c r="N9">
-        <v>1.02978290549776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.006601026614487</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.03197086915967</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.024629254755408</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9894840407167949</v>
+        <v>0.9765675640750404</v>
       </c>
       <c r="D10">
-        <v>1.005123937965243</v>
+        <v>1.001468762211173</v>
       </c>
       <c r="E10">
-        <v>0.9975515958922702</v>
+        <v>0.9872624415781163</v>
       </c>
       <c r="F10">
-        <v>1.010258912950273</v>
+        <v>1.012101453842633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046432414359979</v>
+        <v>1.045905887487711</v>
       </c>
       <c r="J10">
-        <v>1.018121187790118</v>
+        <v>1.005742742306333</v>
       </c>
       <c r="K10">
-        <v>1.019401290337503</v>
+        <v>1.01581154824425</v>
       </c>
       <c r="L10">
-        <v>1.011965198195178</v>
+        <v>1.001865549083036</v>
       </c>
       <c r="M10">
-        <v>1.024445377499195</v>
+        <v>1.026255597117174</v>
       </c>
       <c r="N10">
-        <v>1.019567036656913</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.005350432652398</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.029403857743779</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.022287277259407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9834078475085822</v>
+        <v>0.9742232250677955</v>
       </c>
       <c r="D11">
-        <v>0.999790712848477</v>
+        <v>1.000006350358631</v>
       </c>
       <c r="E11">
-        <v>0.9925031911134085</v>
+        <v>0.9855134602667797</v>
       </c>
       <c r="F11">
-        <v>1.004655742952359</v>
+        <v>1.011061401285449</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044277960967021</v>
+        <v>1.045804234839611</v>
       </c>
       <c r="J11">
-        <v>1.013487549073932</v>
+        <v>1.004709105033234</v>
       </c>
       <c r="K11">
-        <v>1.014716577098107</v>
+        <v>1.014928146922148</v>
       </c>
       <c r="L11">
-        <v>1.007567884762216</v>
+        <v>1.000713841998566</v>
       </c>
       <c r="M11">
-        <v>1.019490389654897</v>
+        <v>1.025777687728272</v>
       </c>
       <c r="N11">
-        <v>1.014926817642264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.005030501746048</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029466436036667</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.021696089535179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9811046432954079</v>
+        <v>0.9735386860808463</v>
       </c>
       <c r="D12">
-        <v>0.9977709010191718</v>
+        <v>0.999664662067819</v>
       </c>
       <c r="E12">
-        <v>0.9905915139743227</v>
+        <v>0.9850381133628918</v>
       </c>
       <c r="F12">
-        <v>1.002533852637636</v>
+        <v>1.011030342458003</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043458581182059</v>
+        <v>1.045807717925656</v>
       </c>
       <c r="J12">
-        <v>1.011730789787961</v>
+        <v>1.004506746379574</v>
       </c>
       <c r="K12">
-        <v>1.012940932015688</v>
+        <v>1.014798289444282</v>
       </c>
       <c r="L12">
-        <v>1.00590121314311</v>
+        <v>1.000457685026984</v>
       </c>
       <c r="M12">
-        <v>1.017612668504969</v>
+        <v>1.025949226280178</v>
       </c>
       <c r="N12">
-        <v>1.013167563556604</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004998580208321</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.029931534237568</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.021604272948992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9816008549505547</v>
+        <v>0.97410705114706</v>
       </c>
       <c r="D13">
-        <v>0.9982059747346836</v>
+        <v>1.000189072287406</v>
       </c>
       <c r="E13">
-        <v>0.9910032826298399</v>
+        <v>0.9855276067601716</v>
       </c>
       <c r="F13">
-        <v>1.002990907448774</v>
+        <v>1.011804996693259</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043635232675264</v>
+        <v>1.045901380550183</v>
       </c>
       <c r="J13">
-        <v>1.012109287159521</v>
+        <v>1.004952363681673</v>
       </c>
       <c r="K13">
-        <v>1.013323476595485</v>
+        <v>1.015268629127229</v>
       </c>
       <c r="L13">
-        <v>1.006260278470765</v>
+        <v>1.000892442567063</v>
       </c>
       <c r="M13">
-        <v>1.018017187701052</v>
+        <v>1.026666186634492</v>
       </c>
       <c r="N13">
-        <v>1.013546598437845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.005195312574052</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.030777272873835</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.021934292384134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9832184336446823</v>
+        <v>0.9750738670213859</v>
       </c>
       <c r="D14">
-        <v>0.9996245680849257</v>
+        <v>1.000950438790452</v>
       </c>
       <c r="E14">
-        <v>0.9923459356661988</v>
+        <v>0.9863086521167694</v>
       </c>
       <c r="F14">
-        <v>1.004481198342412</v>
+        <v>1.01271274225948</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04421063029422</v>
+        <v>1.046007359683065</v>
       </c>
       <c r="J14">
-        <v>1.01334308095972</v>
+        <v>1.005558863605182</v>
       </c>
       <c r="K14">
-        <v>1.014570546137407</v>
+        <v>1.015871398821742</v>
       </c>
       <c r="L14">
-        <v>1.007430815002305</v>
+        <v>1.001510784710908</v>
       </c>
       <c r="M14">
-        <v>1.019335956389686</v>
+        <v>1.027415491950382</v>
       </c>
       <c r="N14">
-        <v>1.014782144366758</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005437162557055</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.031544036921146</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.022361934749179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.984208814290185</v>
+        <v>0.9755887420296037</v>
       </c>
       <c r="D15">
-        <v>1.000493355386292</v>
+        <v>1.001335804984239</v>
       </c>
       <c r="E15">
-        <v>0.9931682508707147</v>
+        <v>0.9867154861017213</v>
       </c>
       <c r="F15">
-        <v>1.005393915555845</v>
+        <v>1.013126473707501</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044562569479487</v>
+        <v>1.046053864178375</v>
       </c>
       <c r="J15">
-        <v>1.014098441729371</v>
+        <v>1.005856062093176</v>
       </c>
       <c r="K15">
-        <v>1.015334097841595</v>
+        <v>1.016160786092356</v>
       </c>
       <c r="L15">
-        <v>1.008147513016787</v>
+        <v>1.001819005630881</v>
       </c>
       <c r="M15">
-        <v>1.02014345610895</v>
+        <v>1.027734441348645</v>
       </c>
       <c r="N15">
-        <v>1.015538577835344</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005549021873065</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.031833886021851</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.022572521402378</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9898810585771022</v>
+        <v>0.9782400793489031</v>
       </c>
       <c r="D16">
-        <v>1.005472643802315</v>
+        <v>1.003223659991434</v>
       </c>
       <c r="E16">
-        <v>0.9978817143340953</v>
+        <v>0.9887688337126154</v>
       </c>
       <c r="F16">
-        <v>1.010625290537285</v>
+        <v>1.014973042019076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046572804560779</v>
+        <v>1.046247303227447</v>
       </c>
       <c r="J16">
-        <v>1.018423892302801</v>
+        <v>1.007264802191067</v>
       </c>
       <c r="K16">
-        <v>1.019707396547752</v>
+        <v>1.017498445784427</v>
       </c>
       <c r="L16">
-        <v>1.012252530148011</v>
+        <v>1.003306591195323</v>
       </c>
       <c r="M16">
-        <v>1.024769193844649</v>
+        <v>1.029041215914813</v>
       </c>
       <c r="N16">
-        <v>1.019870171044724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006043125115888</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.032827811058315</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.023521542907613</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9933614353254975</v>
+        <v>0.9797703699201161</v>
       </c>
       <c r="D17">
-        <v>1.008530717647299</v>
+        <v>1.004275826957175</v>
       </c>
       <c r="E17">
-        <v>1.000776963588689</v>
+        <v>0.9899388506042182</v>
       </c>
       <c r="F17">
-        <v>1.013838462367104</v>
+        <v>1.015910590062544</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.047801388020167</v>
+        <v>1.046335995953294</v>
       </c>
       <c r="J17">
-        <v>1.021077136019844</v>
+        <v>1.008028770420647</v>
       </c>
       <c r="K17">
-        <v>1.022390807693058</v>
+        <v>1.018209298504695</v>
       </c>
       <c r="L17">
-        <v>1.014771383519754</v>
+        <v>1.004125618312095</v>
       </c>
       <c r="M17">
-        <v>1.027608127179665</v>
+        <v>1.029645283860915</v>
       </c>
       <c r="N17">
-        <v>1.022527182672177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.006295667304132</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.033175461949235</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.02402678724175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9953648124571057</v>
+        <v>0.9804637981694846</v>
       </c>
       <c r="D18">
-        <v>1.010291992166112</v>
+        <v>1.004675054584438</v>
       </c>
       <c r="E18">
-        <v>1.002444608355232</v>
+        <v>0.990439868940641</v>
       </c>
       <c r="F18">
-        <v>1.015689165762168</v>
+        <v>1.016101398910501</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.048506803485839</v>
+        <v>1.04634321229623</v>
       </c>
       <c r="J18">
-        <v>1.02260408256615</v>
+        <v>1.008285732839526</v>
       </c>
       <c r="K18">
-        <v>1.023935406147083</v>
+        <v>1.018413575510159</v>
       </c>
       <c r="L18">
-        <v>1.01622127767364</v>
+        <v>1.004425688723697</v>
       </c>
       <c r="M18">
-        <v>1.029242469753065</v>
+        <v>1.029647871004873</v>
       </c>
       <c r="N18">
-        <v>1.024056297657721</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006354756945947</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.032938173041682</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.024159392535546</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9960435078991505</v>
+        <v>0.9804250849142054</v>
       </c>
       <c r="D19">
-        <v>1.0108888312489</v>
+        <v>1.004510538872729</v>
       </c>
       <c r="E19">
-        <v>1.003009743662407</v>
+        <v>0.9903590620440829</v>
       </c>
       <c r="F19">
-        <v>1.016316326762685</v>
+        <v>1.015634765710487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048745475444378</v>
+        <v>1.046282616392678</v>
       </c>
       <c r="J19">
-        <v>1.023121317780981</v>
+        <v>1.008109479050191</v>
       </c>
       <c r="K19">
-        <v>1.024458669708913</v>
+        <v>1.018187738033595</v>
       </c>
       <c r="L19">
-        <v>1.016712460779035</v>
+        <v>1.004280862390613</v>
       </c>
       <c r="M19">
-        <v>1.029796173745336</v>
+        <v>1.029125845482909</v>
       </c>
       <c r="N19">
-        <v>1.024574267405885</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006253958810291</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032197275887103</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.024006215163957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9929908108681634</v>
+        <v>0.9783019871818355</v>
       </c>
       <c r="D20">
-        <v>1.008204960704289</v>
+        <v>1.00273448643867</v>
       </c>
       <c r="E20">
-        <v>1.000468535753812</v>
+        <v>0.988619075811473</v>
       </c>
       <c r="F20">
-        <v>1.013496173336915</v>
+        <v>1.013345775924073</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04767074101839</v>
+        <v>1.046034407641318</v>
       </c>
       <c r="J20">
-        <v>1.020794624698706</v>
+        <v>1.006695736939251</v>
       </c>
       <c r="K20">
-        <v>1.022105053935568</v>
+        <v>1.016729423014759</v>
       </c>
       <c r="L20">
-        <v>1.014503151525482</v>
+        <v>1.00286504126131</v>
       </c>
       <c r="M20">
-        <v>1.027305788692031</v>
+        <v>1.027157946178097</v>
       </c>
       <c r="N20">
-        <v>1.022244270152558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005693835360168</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.030107314324346</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.022979091428669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9827434102407993</v>
+        <v>0.9733006570236565</v>
       </c>
       <c r="D21">
-        <v>0.9992079293528804</v>
+        <v>0.9991123677908523</v>
       </c>
       <c r="E21">
-        <v>0.9919515929278219</v>
+        <v>0.9847158450365682</v>
       </c>
       <c r="F21">
-        <v>1.004043497923624</v>
+        <v>1.009680827172771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044041731014152</v>
+        <v>1.045643339140083</v>
       </c>
       <c r="J21">
-        <v>1.012980769862096</v>
+        <v>1.003958691568333</v>
       </c>
       <c r="K21">
-        <v>1.014204323309438</v>
+        <v>1.014110576172414</v>
       </c>
       <c r="L21">
-        <v>1.007087066158961</v>
+        <v>0.9999926836513667</v>
       </c>
       <c r="M21">
-        <v>1.018948667801959</v>
+        <v>1.024481085437123</v>
       </c>
       <c r="N21">
-        <v>1.014419318745818</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.004709422975387</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027947416044039</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.021130702388011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9760304112368736</v>
+        <v>0.970108533315828</v>
       </c>
       <c r="D22">
-        <v>0.9933244890202839</v>
+        <v>0.996814131835463</v>
       </c>
       <c r="E22">
-        <v>0.9863836751503912</v>
+        <v>0.9822351165694289</v>
       </c>
       <c r="F22">
-        <v>0.9978630054656143</v>
+        <v>1.007384148144199</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041648498900832</v>
+        <v>1.045380793008281</v>
       </c>
       <c r="J22">
-        <v>1.007859933156506</v>
+        <v>1.00221915915044</v>
       </c>
       <c r="K22">
-        <v>1.009029359247971</v>
+        <v>1.012448966695218</v>
       </c>
       <c r="L22">
-        <v>1.002229787629723</v>
+        <v>0.9981669094481416</v>
       </c>
       <c r="M22">
-        <v>1.013476915838264</v>
+        <v>1.022810729300965</v>
       </c>
       <c r="N22">
-        <v>1.009291209864738</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.004084279828947</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.026625416325088</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.019942074732626</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9796162679201492</v>
+        <v>0.9717907306620681</v>
       </c>
       <c r="D23">
-        <v>0.9964661810347568</v>
+        <v>0.9980165452474573</v>
       </c>
       <c r="E23">
-        <v>0.9893567237224669</v>
+        <v>0.9835394574861392</v>
       </c>
       <c r="F23">
-        <v>1.001163237026079</v>
+        <v>1.008590165876823</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042928329226509</v>
+        <v>1.045520288930301</v>
       </c>
       <c r="J23">
-        <v>1.010595453702001</v>
+        <v>1.003129158809601</v>
       </c>
       <c r="K23">
-        <v>1.01179352704231</v>
+        <v>1.013313672240139</v>
       </c>
       <c r="L23">
-        <v>1.004824238825464</v>
+        <v>0.9991236504223409</v>
       </c>
       <c r="M23">
-        <v>1.016399407031026</v>
+        <v>1.023684434487785</v>
       </c>
       <c r="N23">
-        <v>1.012030615163176</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.004410015856164</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.027316908706088</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.020543659901764</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9931583622059174</v>
+        <v>0.9783086206080555</v>
       </c>
       <c r="D24">
-        <v>1.008352225360506</v>
+        <v>1.002706859651608</v>
       </c>
       <c r="E24">
-        <v>1.000607965997963</v>
+        <v>0.9886146067851129</v>
       </c>
       <c r="F24">
-        <v>1.013650911323975</v>
+        <v>1.013284250583137</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.047729809263334</v>
+        <v>1.046026482211523</v>
       </c>
       <c r="J24">
-        <v>1.020922342974963</v>
+        <v>1.006668011340079</v>
       </c>
       <c r="K24">
-        <v>1.022234237156875</v>
+        <v>1.016686605969489</v>
       </c>
       <c r="L24">
-        <v>1.014624413477409</v>
+        <v>1.002844656954403</v>
       </c>
       <c r="M24">
-        <v>1.027442468823</v>
+        <v>1.027082028049058</v>
       </c>
       <c r="N24">
-        <v>1.022372169803417</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.00567778740613</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.030005921348202</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.022920929228638</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007837538632919</v>
+        <v>0.9856171594943131</v>
       </c>
       <c r="D25">
-        <v>1.021273347297513</v>
+        <v>1.00800125006096</v>
       </c>
       <c r="E25">
-        <v>1.012844575974427</v>
+        <v>0.9943393613869451</v>
       </c>
       <c r="F25">
-        <v>1.027229938203827</v>
+        <v>1.018575516536455</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052866216713735</v>
+        <v>1.046519363419863</v>
       </c>
       <c r="J25">
-        <v>1.032103986872186</v>
+        <v>1.010638451593867</v>
       </c>
       <c r="K25">
-        <v>1.033550159724075</v>
+        <v>1.020476613846537</v>
       </c>
       <c r="L25">
-        <v>1.025246715786212</v>
+        <v>1.007026191690664</v>
       </c>
       <c r="M25">
-        <v>1.039419754692072</v>
+        <v>1.030892156169744</v>
       </c>
       <c r="N25">
-        <v>1.033569692917526</v>
+        <v>1.007097267835498</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.03302142051933</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.025597832777823</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912157176929506</v>
+        <v>0.9923199880351136</v>
       </c>
       <c r="D2">
-        <v>1.012060302388649</v>
+        <v>1.01304354457981</v>
       </c>
       <c r="E2">
-        <v>0.9987445253625926</v>
+        <v>0.999726067301953</v>
       </c>
       <c r="F2">
-        <v>1.022638144469735</v>
+        <v>1.023422470091696</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.046832349837663</v>
+        <v>1.046913353859615</v>
       </c>
       <c r="J2">
-        <v>1.013662377584215</v>
+        <v>1.014732858792578</v>
       </c>
       <c r="K2">
-        <v>1.023354136599395</v>
+        <v>1.024324104444109</v>
       </c>
       <c r="L2">
-        <v>1.010221378695913</v>
+        <v>1.011189219761495</v>
       </c>
       <c r="M2">
-        <v>1.033790851922817</v>
+        <v>1.034564858934511</v>
       </c>
       <c r="N2">
-        <v>1.008172451966163</v>
+        <v>1.010912841577069</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035315564245207</v>
+        <v>1.035928143082223</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.027583428923016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.028278200887945</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.018385202195467</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9952049779116047</v>
+        <v>0.9960778944717007</v>
       </c>
       <c r="D3">
-        <v>1.01497940468837</v>
+        <v>1.01567296146413</v>
       </c>
       <c r="E3">
-        <v>1.001900109293087</v>
+        <v>1.002678350716839</v>
       </c>
       <c r="F3">
-        <v>1.025548137191877</v>
+        <v>1.026124972945708</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.047018820761378</v>
+        <v>1.047081380376705</v>
       </c>
       <c r="J3">
-        <v>1.01582721910583</v>
+        <v>1.016676054103244</v>
       </c>
       <c r="K3">
-        <v>1.025424142760362</v>
+        <v>1.026109155687252</v>
       </c>
       <c r="L3">
-        <v>1.012508735461726</v>
+        <v>1.013277075870753</v>
       </c>
       <c r="M3">
-        <v>1.035864236282239</v>
+        <v>1.036434145619936</v>
       </c>
       <c r="N3">
-        <v>1.008942596852271</v>
+        <v>1.011460440204073</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.036956518964663</v>
+        <v>1.037407566083016</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.029044445176118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.029537439892149</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018787009779123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.997742703918933</v>
+        <v>0.9984705724613933</v>
       </c>
       <c r="D4">
-        <v>1.0168429926308</v>
+        <v>1.017353490449719</v>
       </c>
       <c r="E4">
-        <v>1.003913614155716</v>
+        <v>1.004564233791632</v>
       </c>
       <c r="F4">
-        <v>1.027403469872316</v>
+        <v>1.027849757264612</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.047119488807414</v>
+        <v>1.047170503882382</v>
       </c>
       <c r="J4">
-        <v>1.017204328346692</v>
+        <v>1.017913482230011</v>
       </c>
       <c r="K4">
-        <v>1.02674230031231</v>
+        <v>1.027246890264723</v>
       </c>
       <c r="L4">
-        <v>1.013965033680094</v>
+        <v>1.014607882903056</v>
       </c>
       <c r="M4">
-        <v>1.037182037224335</v>
+        <v>1.037623289441858</v>
       </c>
       <c r="N4">
-        <v>1.009431765309876</v>
+        <v>1.011808727423211</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.037999474451436</v>
+        <v>1.038348697128194</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.029977432117624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.030342925584856</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.019040588150849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9988041494488374</v>
+        <v>0.9994716983523261</v>
       </c>
       <c r="D5">
-        <v>1.017626608644408</v>
+        <v>1.018060739934318</v>
       </c>
       <c r="E5">
-        <v>1.004757755365599</v>
+        <v>1.005355260224845</v>
       </c>
       <c r="F5">
-        <v>1.028181503173609</v>
+        <v>1.028573443541826</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.047157529854857</v>
+        <v>1.047203745317522</v>
       </c>
       <c r="J5">
-        <v>1.01778231610939</v>
+        <v>1.018433216731328</v>
       </c>
       <c r="K5">
-        <v>1.027297464452467</v>
+        <v>1.027726706025037</v>
       </c>
       <c r="L5">
-        <v>1.014575927608773</v>
+        <v>1.015166489336952</v>
       </c>
       <c r="M5">
-        <v>1.03773491483459</v>
+        <v>1.03812255110995</v>
       </c>
       <c r="N5">
-        <v>1.009637239848856</v>
+        <v>1.01195517388686</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.038437041401529</v>
+        <v>1.038743830338814</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.030377256003941</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.030690177078723</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.019147530156998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9989874990787113</v>
+        <v>0.9996444857238793</v>
       </c>
       <c r="D6">
-        <v>1.017765193814565</v>
+        <v>1.018186049321723</v>
       </c>
       <c r="E6">
-        <v>1.004904293978761</v>
+        <v>1.005492484748381</v>
       </c>
       <c r="F6">
-        <v>1.028317250934979</v>
+        <v>1.028699724274687</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.0471642448584</v>
+        <v>1.047209614739847</v>
       </c>
       <c r="J6">
-        <v>1.017884613493687</v>
+        <v>1.018525300058045</v>
       </c>
       <c r="K6">
-        <v>1.027397661953084</v>
+        <v>1.027813799119701</v>
       </c>
       <c r="L6">
-        <v>1.014683303553956</v>
+        <v>1.015264691232064</v>
       </c>
       <c r="M6">
-        <v>1.037832848234171</v>
+        <v>1.03821114072505</v>
       </c>
       <c r="N6">
-        <v>1.00967402136635</v>
+        <v>1.011981439832808</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.038514549339522</v>
+        <v>1.038813943247344</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.030456964420301</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.030761485083176</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.019167650124135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9977723841085719</v>
+        <v>0.9985062746489447</v>
       </c>
       <c r="D7">
-        <v>1.016873308170886</v>
+        <v>1.017387714929386</v>
       </c>
       <c r="E7">
-        <v>1.0039389561244</v>
+        <v>1.004595095811932</v>
       </c>
       <c r="F7">
-        <v>1.027428723852727</v>
+        <v>1.027878569717774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.047121664654799</v>
+        <v>1.047173087124914</v>
       </c>
       <c r="J7">
-        <v>1.01722713306348</v>
+        <v>1.017942162694523</v>
       </c>
       <c r="K7">
-        <v>1.026769330250736</v>
+        <v>1.027277786363985</v>
       </c>
       <c r="L7">
-        <v>1.013987087183928</v>
+        <v>1.014635393706945</v>
       </c>
       <c r="M7">
-        <v>1.037204111896147</v>
+        <v>1.037648884460674</v>
       </c>
       <c r="N7">
-        <v>1.009441039784111</v>
+        <v>1.011843788359082</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.038016945134782</v>
+        <v>1.0383689539299</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.03001692428711</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.030387143468729</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.019050202529097</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9925928933643254</v>
+        <v>0.9936414553437835</v>
       </c>
       <c r="D8">
-        <v>1.013077160017067</v>
+        <v>1.013979340938411</v>
       </c>
       <c r="E8">
-        <v>0.9998349234982669</v>
+        <v>1.00076838829168</v>
       </c>
       <c r="F8">
-        <v>1.023646291790403</v>
+        <v>1.024375023419305</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.046901636258283</v>
+        <v>1.046978050099569</v>
       </c>
       <c r="J8">
-        <v>1.014418163841819</v>
+        <v>1.015435727171882</v>
       </c>
       <c r="K8">
-        <v>1.024082859223296</v>
+        <v>1.024973224986185</v>
       </c>
       <c r="L8">
-        <v>1.011017131314091</v>
+        <v>1.011937961320048</v>
       </c>
       <c r="M8">
-        <v>1.034515209018053</v>
+        <v>1.035234639619227</v>
       </c>
       <c r="N8">
-        <v>1.008443022787349</v>
+        <v>1.011191579108651</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.035888848249852</v>
+        <v>1.036458232779042</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.028121953159287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.028762691404062</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.018536640371283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9830907945900765</v>
+        <v>0.9847080917257505</v>
       </c>
       <c r="D9">
-        <v>1.006153860430267</v>
+        <v>1.007757055024772</v>
       </c>
       <c r="E9">
-        <v>0.9923531533263351</v>
+        <v>0.9937854045173981</v>
       </c>
       <c r="F9">
-        <v>1.016737530842512</v>
+        <v>1.017972465210049</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.046357631004979</v>
+        <v>1.046479537228844</v>
       </c>
       <c r="J9">
-        <v>1.009255123206753</v>
+        <v>1.010812648566424</v>
       </c>
       <c r="K9">
-        <v>1.019147878372483</v>
+        <v>1.020725520724012</v>
       </c>
       <c r="L9">
-        <v>1.005571525731758</v>
+        <v>1.006980120376131</v>
       </c>
       <c r="M9">
-        <v>1.029564767009307</v>
+        <v>1.030780529430267</v>
       </c>
       <c r="N9">
-        <v>1.006601026614487</v>
+        <v>1.009895339779717</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.03197086915967</v>
+        <v>1.03293307450456</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.024629254755408</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.025755705672588</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.017564664412856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9765675640750404</v>
+        <v>0.9786195112315133</v>
       </c>
       <c r="D10">
-        <v>1.001468762211173</v>
+        <v>1.003583304295735</v>
       </c>
       <c r="E10">
-        <v>0.9872624415781163</v>
+        <v>0.98907550084299</v>
       </c>
       <c r="F10">
-        <v>1.012101453842633</v>
+        <v>1.013712401358302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.045905887487711</v>
+        <v>1.046062051335683</v>
       </c>
       <c r="J10">
-        <v>1.005742742306333</v>
+        <v>1.007707864204295</v>
       </c>
       <c r="K10">
-        <v>1.01581154824425</v>
+        <v>1.017888161078292</v>
       </c>
       <c r="L10">
-        <v>1.001865549083036</v>
+        <v>1.003644842235609</v>
       </c>
       <c r="M10">
-        <v>1.026255597117174</v>
+        <v>1.027838410550413</v>
       </c>
       <c r="N10">
-        <v>1.005350432652398</v>
+        <v>1.009139241793363</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029403857743779</v>
+        <v>1.030656487281511</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.022287277259407</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.023768228672365</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.016913572573898</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9742232250677955</v>
+        <v>0.9764393058194756</v>
       </c>
       <c r="D11">
-        <v>1.000006350358631</v>
+        <v>1.002298396363786</v>
       </c>
       <c r="E11">
-        <v>0.9855134602667797</v>
+        <v>0.9874692824683353</v>
       </c>
       <c r="F11">
-        <v>1.011061401285449</v>
+        <v>1.01280379539785</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.045804234839611</v>
+        <v>1.045968660683381</v>
       </c>
       <c r="J11">
-        <v>1.004709105033234</v>
+        <v>1.006826180849579</v>
       </c>
       <c r="K11">
-        <v>1.014928146922148</v>
+        <v>1.017177098071618</v>
       </c>
       <c r="L11">
-        <v>1.000713841998566</v>
+        <v>1.002631442974353</v>
       </c>
       <c r="M11">
-        <v>1.025777687728272</v>
+        <v>1.027488223961053</v>
       </c>
       <c r="N11">
-        <v>1.005030501746048</v>
+        <v>1.00915601795129</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029466436036667</v>
+        <v>1.030819450546009</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.021696089535179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.023302086182451</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.016812240707534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9735386860808463</v>
+        <v>0.9757858001373941</v>
       </c>
       <c r="D12">
-        <v>0.999664662067819</v>
+        <v>1.001990163369926</v>
       </c>
       <c r="E12">
-        <v>0.9850381133628918</v>
+        <v>0.9870192698059751</v>
       </c>
       <c r="F12">
-        <v>1.011030342458003</v>
+        <v>1.012795174180685</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.045807717925656</v>
+        <v>1.045970477656793</v>
       </c>
       <c r="J12">
-        <v>1.004506746379574</v>
+        <v>1.006651516934674</v>
       </c>
       <c r="K12">
-        <v>1.014798289444282</v>
+        <v>1.017079334057793</v>
       </c>
       <c r="L12">
-        <v>1.000457685026984</v>
+        <v>1.002399458421141</v>
       </c>
       <c r="M12">
-        <v>1.025949226280178</v>
+        <v>1.027681276902857</v>
       </c>
       <c r="N12">
-        <v>1.004998580208321</v>
+        <v>1.00923748658311</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.029931534237568</v>
+        <v>1.031301094553434</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.021604272948992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.023232963278957</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.016835933455386</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.97410705114706</v>
+        <v>0.9762706023988809</v>
       </c>
       <c r="D13">
-        <v>1.000189072287406</v>
+        <v>1.002427487362062</v>
       </c>
       <c r="E13">
-        <v>0.9855276067601716</v>
+        <v>0.9874325253108268</v>
       </c>
       <c r="F13">
-        <v>1.011804996693259</v>
+        <v>1.013499499131123</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.045901380550183</v>
+        <v>1.046053824386359</v>
       </c>
       <c r="J13">
-        <v>1.004952363681673</v>
+        <v>1.007017892183747</v>
       </c>
       <c r="K13">
-        <v>1.015268629127229</v>
+        <v>1.017464449706808</v>
       </c>
       <c r="L13">
-        <v>1.000892442567063</v>
+        <v>1.002759666769732</v>
       </c>
       <c r="M13">
-        <v>1.026666186634492</v>
+        <v>1.028329379428517</v>
       </c>
       <c r="N13">
-        <v>1.005195312574052</v>
+        <v>1.009343393540237</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.030777272873835</v>
+        <v>1.032092050985411</v>
       </c>
       <c r="Q13">
-        <v>1.02</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="R13">
-        <v>1.021934292384134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.023502477301055</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016963745236412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9750738670213859</v>
+        <v>0.9771279535355496</v>
       </c>
       <c r="D14">
-        <v>1.000950438790452</v>
+        <v>1.00307408099812</v>
       </c>
       <c r="E14">
-        <v>0.9863086521167694</v>
+        <v>0.9881151421139468</v>
       </c>
       <c r="F14">
-        <v>1.01271274225948</v>
+        <v>1.014316816867806</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046007359683065</v>
+        <v>1.046148946890164</v>
       </c>
       <c r="J14">
-        <v>1.005558863605182</v>
+        <v>1.007521257761882</v>
       </c>
       <c r="K14">
-        <v>1.015871398821742</v>
+        <v>1.017955149666365</v>
       </c>
       <c r="L14">
-        <v>1.001510784710908</v>
+        <v>1.003281992905085</v>
       </c>
       <c r="M14">
-        <v>1.027415491950382</v>
+        <v>1.028990318563345</v>
       </c>
       <c r="N14">
-        <v>1.005437162557055</v>
+        <v>1.009430401154938</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.031544036921146</v>
+        <v>1.032788790539096</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.022361934749179</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.023851008461052</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.017101271980083</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9755887420296037</v>
+        <v>0.9775915150685056</v>
       </c>
       <c r="D15">
-        <v>1.001335804984239</v>
+        <v>1.003405078558195</v>
       </c>
       <c r="E15">
-        <v>0.9867154861017213</v>
+        <v>0.9884762475523877</v>
       </c>
       <c r="F15">
-        <v>1.013126473707501</v>
+        <v>1.014688455150866</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.046053864178375</v>
+        <v>1.046191033939398</v>
       </c>
       <c r="J15">
-        <v>1.005856062093176</v>
+        <v>1.007770232847969</v>
       </c>
       <c r="K15">
-        <v>1.016160786092356</v>
+        <v>1.018191492270527</v>
       </c>
       <c r="L15">
-        <v>1.001819005630881</v>
+        <v>1.003545650175158</v>
       </c>
       <c r="M15">
-        <v>1.027734441348645</v>
+        <v>1.029268165535081</v>
       </c>
       <c r="N15">
-        <v>1.005549021873065</v>
+        <v>1.009462300375493</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.031833886021851</v>
+        <v>1.033046119896059</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.022572521402378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.024024651499389</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.017161109279118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9782400793489031</v>
+        <v>0.9800189911169845</v>
       </c>
       <c r="D16">
-        <v>1.003223659991434</v>
+        <v>1.005049251166308</v>
       </c>
       <c r="E16">
-        <v>0.9887688337126154</v>
+        <v>0.9903324295290223</v>
       </c>
       <c r="F16">
-        <v>1.014973042019076</v>
+        <v>1.01635132113935</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.046247303227447</v>
+        <v>1.04636833888305</v>
       </c>
       <c r="J16">
-        <v>1.007264802191067</v>
+        <v>1.008969019093536</v>
       </c>
       <c r="K16">
-        <v>1.017498445784427</v>
+        <v>1.019291522749611</v>
       </c>
       <c r="L16">
-        <v>1.003306591195323</v>
+        <v>1.00484125841297</v>
       </c>
       <c r="M16">
-        <v>1.029041215914813</v>
+        <v>1.030395663016351</v>
       </c>
       <c r="N16">
-        <v>1.006043125115888</v>
+        <v>1.009585323655469</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.032827811058315</v>
+        <v>1.0338983778121</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.023521542907613</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.024805944102837</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.01740460710904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9797703699201161</v>
+        <v>0.9814443180774926</v>
       </c>
       <c r="D17">
-        <v>1.004275826957175</v>
+        <v>1.005981898249996</v>
       </c>
       <c r="E17">
-        <v>0.9899388506042182</v>
+        <v>0.9914111967291033</v>
       </c>
       <c r="F17">
-        <v>1.015910590062544</v>
+        <v>1.017201734908015</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.046335995953294</v>
+        <v>1.046450829404348</v>
       </c>
       <c r="J17">
-        <v>1.008028770420647</v>
+        <v>1.00963472469629</v>
       </c>
       <c r="K17">
-        <v>1.018209298504695</v>
+        <v>1.019885849804496</v>
       </c>
       <c r="L17">
-        <v>1.004125618312095</v>
+        <v>1.005571513527619</v>
       </c>
       <c r="M17">
-        <v>1.029645283860915</v>
+        <v>1.030914731115002</v>
       </c>
       <c r="N17">
-        <v>1.006295667304132</v>
+        <v>1.009664198569039</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.033175461949235</v>
+        <v>1.034178945076279</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.02402678724175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.025229039510015</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.017521155255555</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9804637981694846</v>
+        <v>0.9821150513692317</v>
       </c>
       <c r="D18">
-        <v>1.004675054584438</v>
+        <v>1.006350572066699</v>
       </c>
       <c r="E18">
-        <v>0.990439868940641</v>
+        <v>0.9918942038091094</v>
       </c>
       <c r="F18">
-        <v>1.016101398910501</v>
+        <v>1.01737362383882</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04634321229623</v>
+        <v>1.046459082231024</v>
       </c>
       <c r="J18">
-        <v>1.008285732839526</v>
+        <v>1.00987118392141</v>
       </c>
       <c r="K18">
-        <v>1.018413575510159</v>
+        <v>1.020060579403578</v>
       </c>
       <c r="L18">
-        <v>1.004425688723697</v>
+        <v>1.005854336276746</v>
       </c>
       <c r="M18">
-        <v>1.029647871004873</v>
+        <v>1.030899056405111</v>
       </c>
       <c r="N18">
-        <v>1.006354756945947</v>
+        <v>1.009667003086041</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.032938173041682</v>
+        <v>1.033927429156106</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.024159392535546</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.025339625266688</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.017526866217477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9804250849142054</v>
+        <v>0.9821170555385234</v>
       </c>
       <c r="D19">
-        <v>1.004510538872729</v>
+        <v>1.006227218473532</v>
       </c>
       <c r="E19">
-        <v>0.9903590620440829</v>
+        <v>0.9918515171186499</v>
       </c>
       <c r="F19">
-        <v>1.015634765710487</v>
+        <v>1.016941928093448</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.046282616392678</v>
+        <v>1.046405051476957</v>
       </c>
       <c r="J19">
-        <v>1.008109479050191</v>
+        <v>1.009734417813615</v>
       </c>
       <c r="K19">
-        <v>1.018187738033595</v>
+        <v>1.019875349424605</v>
       </c>
       <c r="L19">
-        <v>1.004280862390613</v>
+        <v>1.005747094526408</v>
       </c>
       <c r="M19">
-        <v>1.029125845482909</v>
+        <v>1.030411481603133</v>
       </c>
       <c r="N19">
-        <v>1.006253958810291</v>
+        <v>1.009590573061026</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032197275887103</v>
+        <v>1.033214107930533</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.024006215163957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.025215781337559</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.017442024897826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9783019871818355</v>
+        <v>0.9802122355107469</v>
       </c>
       <c r="D20">
-        <v>1.00273448643867</v>
+        <v>1.004692854133479</v>
       </c>
       <c r="E20">
-        <v>0.988619075811473</v>
+        <v>0.9903069657743983</v>
       </c>
       <c r="F20">
-        <v>1.013345775924073</v>
+        <v>1.014838930970208</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.046034407641318</v>
+        <v>1.046179268099449</v>
       </c>
       <c r="J20">
-        <v>1.006695736939251</v>
+        <v>1.008527844759196</v>
       </c>
       <c r="K20">
-        <v>1.016729423014759</v>
+        <v>1.018653684246087</v>
       </c>
       <c r="L20">
-        <v>1.00286504126131</v>
+        <v>1.004522424073904</v>
       </c>
       <c r="M20">
-        <v>1.027157946178097</v>
+        <v>1.028625779336215</v>
       </c>
       <c r="N20">
-        <v>1.005693835360168</v>
+        <v>1.009273551867491</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030107314324346</v>
+        <v>1.031268963227605</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.022979091428669</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.024356379175881</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.017093772625941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9733006570236565</v>
+        <v>0.9756724449237774</v>
       </c>
       <c r="D21">
-        <v>0.9991123677908523</v>
+        <v>1.001564990749213</v>
       </c>
       <c r="E21">
-        <v>0.9847158450365682</v>
+        <v>0.9868134098232836</v>
       </c>
       <c r="F21">
-        <v>1.009680827172771</v>
+        <v>1.011552700162671</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045643339140083</v>
+        <v>1.045826002425125</v>
       </c>
       <c r="J21">
-        <v>1.003958691568333</v>
+        <v>1.006223718948868</v>
       </c>
       <c r="K21">
-        <v>1.014110576172414</v>
+        <v>1.016516774436012</v>
       </c>
       <c r="L21">
-        <v>0.9999926836513667</v>
+        <v>1.002048988092868</v>
       </c>
       <c r="M21">
-        <v>1.024481085437123</v>
+        <v>1.026318459462928</v>
       </c>
       <c r="N21">
-        <v>1.004709422975387</v>
+        <v>1.00904149047589</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027947416044039</v>
+        <v>1.029401598775202</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.021130702388011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.022849089497151</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01659908406049</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.970108533315828</v>
+        <v>0.9727750530142107</v>
       </c>
       <c r="D22">
-        <v>0.996814131835463</v>
+        <v>0.9995814944425871</v>
       </c>
       <c r="E22">
-        <v>0.9822351165694289</v>
+        <v>0.9845943307127801</v>
       </c>
       <c r="F22">
-        <v>1.007384148144199</v>
+        <v>1.009498942565827</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045380793008281</v>
+        <v>1.045587946032229</v>
       </c>
       <c r="J22">
-        <v>1.00221915915044</v>
+        <v>1.004758492552353</v>
       </c>
       <c r="K22">
-        <v>1.012448966695218</v>
+        <v>1.015161246571232</v>
       </c>
       <c r="L22">
-        <v>0.9981669094481416</v>
+        <v>1.000477281725155</v>
       </c>
       <c r="M22">
-        <v>1.022810729300965</v>
+        <v>1.024884543331747</v>
       </c>
       <c r="N22">
-        <v>1.004084279828947</v>
+        <v>1.008887435586554</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.026625416325088</v>
+        <v>1.028266731533144</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.019942074732626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.021875606663814</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.01628467850457</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9717907306620681</v>
+        <v>0.974288398781088</v>
       </c>
       <c r="D23">
-        <v>0.9980165452474573</v>
+        <v>1.000607271041493</v>
       </c>
       <c r="E23">
-        <v>0.9835394574861392</v>
+        <v>0.9857482247975085</v>
       </c>
       <c r="F23">
-        <v>1.008590165876823</v>
+        <v>1.010567183996807</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045520288930301</v>
+        <v>1.04571331559414</v>
       </c>
       <c r="J23">
-        <v>1.003129158809601</v>
+        <v>1.005511267290176</v>
       </c>
       <c r="K23">
-        <v>1.013313672240139</v>
+        <v>1.01585417455652</v>
       </c>
       <c r="L23">
-        <v>0.9991236504223409</v>
+        <v>1.001287902702225</v>
       </c>
       <c r="M23">
-        <v>1.023684434487785</v>
+        <v>1.025624138199995</v>
       </c>
       <c r="N23">
-        <v>1.004410015856164</v>
+        <v>1.008921046603338</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.027316908706088</v>
+        <v>1.028852081194853</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.020543659901764</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.022354795401673</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.016442079716164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9783086206080555</v>
+        <v>0.9802234927109498</v>
       </c>
       <c r="D24">
-        <v>1.002706859651608</v>
+        <v>1.00466982264408</v>
       </c>
       <c r="E24">
-        <v>0.9886146067851129</v>
+        <v>0.9903068682052986</v>
       </c>
       <c r="F24">
-        <v>1.013284250583137</v>
+        <v>1.014781339470793</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.046026482211523</v>
+        <v>1.046172148918817</v>
       </c>
       <c r="J24">
-        <v>1.006668011340079</v>
+        <v>1.008504666479165</v>
       </c>
       <c r="K24">
-        <v>1.016686605969489</v>
+        <v>1.018615424270722</v>
       </c>
       <c r="L24">
-        <v>1.002844656954403</v>
+        <v>1.004506371594976</v>
       </c>
       <c r="M24">
-        <v>1.027082028049058</v>
+        <v>1.028553757093855</v>
       </c>
       <c r="N24">
-        <v>1.00567778740613</v>
+        <v>1.009258600087693</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.030005921348202</v>
+        <v>1.031170712521849</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.022920929228638</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.024298789668904</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.017076613272697</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9856171594943131</v>
+        <v>0.9870698774102887</v>
       </c>
       <c r="D25">
-        <v>1.00800125006096</v>
+        <v>1.009408220943068</v>
       </c>
       <c r="E25">
-        <v>0.9943393613869451</v>
+        <v>0.9956270419680805</v>
       </c>
       <c r="F25">
-        <v>1.018575516536455</v>
+        <v>1.019666968104854</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.046519363419863</v>
+        <v>1.046628088093705</v>
       </c>
       <c r="J25">
-        <v>1.010638451593867</v>
+        <v>1.012040367164014</v>
       </c>
       <c r="K25">
-        <v>1.020476613846537</v>
+        <v>1.021862221125576</v>
       </c>
       <c r="L25">
-        <v>1.007026191690664</v>
+        <v>1.008293623913264</v>
       </c>
       <c r="M25">
-        <v>1.030892156169744</v>
+        <v>1.03196746274127</v>
       </c>
       <c r="N25">
-        <v>1.007097267835498</v>
+        <v>1.010210763916554</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.03302142051933</v>
+        <v>1.033872462009324</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.025597832777823</v>
+        <v>1.026591276417886</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.017829454979175</v>
       </c>
     </row>
   </sheetData>
